--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39437D7B-E723-48D4-B702-0B3CD765A56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB60762-120A-4479-A924-A87BCEA8691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
+    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
   <sheets>
     <sheet name="Spacers (Full DS)" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="321">
   <si>
     <t>Level</t>
   </si>
@@ -298,9 +298,6 @@
     <t>EncCrimsonFleet05</t>
   </si>
   <si>
-    <t>Pirate</t>
-  </si>
-  <si>
     <t>Pirate Brigand</t>
   </si>
   <si>
@@ -355,12 +352,6 @@
     <t>Pirate Legend</t>
   </si>
   <si>
-    <t>Pirate Peon</t>
-  </si>
-  <si>
-    <t>Pirate Ransacker</t>
-  </si>
-  <si>
     <t>Syndicate Launderer</t>
   </si>
   <si>
@@ -640,45 +631,6 @@
     <t>Max Level</t>
   </si>
   <si>
-    <t>DSPiratePeon</t>
-  </si>
-  <si>
-    <t>DSPirateBrigand</t>
-  </si>
-  <si>
-    <t>DSPirateFreebooter</t>
-  </si>
-  <si>
-    <t>DSPirateRover</t>
-  </si>
-  <si>
-    <t>DSPirateMarauder</t>
-  </si>
-  <si>
-    <t>DSPirateRansacker</t>
-  </si>
-  <si>
-    <t>DSPirateCorsair</t>
-  </si>
-  <si>
-    <t>DSPiratePlunderer</t>
-  </si>
-  <si>
-    <t>DSPirateReaver</t>
-  </si>
-  <si>
-    <t>DSPirateCutthroat</t>
-  </si>
-  <si>
-    <t>DSPirateFlayer</t>
-  </si>
-  <si>
-    <t>DSPirateCaptain</t>
-  </si>
-  <si>
-    <t>DSPirateLegend</t>
-  </si>
-  <si>
     <t>Level Mult</t>
   </si>
   <si>
@@ -1016,6 +968,45 @@
   </si>
   <si>
     <t>LLI_Ecliptic_Heavy_Boss [LVLI:0025C5E7]</t>
+  </si>
+  <si>
+    <t>Pirate Grunt</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet01Template "Pirate Grunt" [NPC_:00010B2E]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02 "Pirate Brigand" [NPC_:00010B38]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03 "Pirate Freebooter" [NPC_:00009CED]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04 "Pirate Rover" [NPC_:00009CEF]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05 "Pirate Marauder" [NPC_:00009CEE]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06 "Pirate Corsair" [NPC_:0012D034]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07 "Pirate Plunderer" [NPC_:0012D033]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08 "Pirate Reaver" [NPC_:0012D032]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09 "Pirate Cutthroat" [NPC_:0012D031]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10 "Pirate Flayer" [NPC_:0012D030]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11 "Pirate Captain" [NPC_:0012D02F]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12 "Pirate Legend" [NPC_:0012D02E]</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1476,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1506,13 +1497,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1523,10 +1514,10 @@
         <v>999</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -1541,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1555,7 +1546,7 @@
         <v>999</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -1573,10 +1564,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="K3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1587,7 +1578,7 @@
         <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -1605,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,7 +1610,7 @@
         <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
@@ -1637,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1651,7 +1642,7 @@
         <v>999</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -1669,234 +1660,234 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>150</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
         <v>219</v>
       </c>
-      <c r="K6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="K11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>999</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
         <v>150</v>
       </c>
-      <c r="F9" s="1">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>999</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1">
-        <v>150</v>
-      </c>
-      <c r="F10" s="1">
-        <v>125</v>
-      </c>
-      <c r="G10" s="1">
-        <v>75</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1">
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <v>150</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>999</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="1">
-        <v>150</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1">
-        <v>999</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1.05</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>221</v>
+      <c r="J13" t="s">
+        <v>205</v>
       </c>
       <c r="K13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1907,7 +1898,7 @@
         <v>999</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>36</v>
@@ -1925,10 +1916,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>320</v>
+        <v>218</v>
+      </c>
+      <c r="K14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1939,10 +1930,10 @@
         <v>999</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1957,10 +1948,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -1970,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,18 +1972,17 @@
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2010,19 +2000,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>195</v>
+      </c>
+      <c r="I1" t="s">
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2030,10 +2017,10 @@
         <v>999</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -2047,28 +2034,25 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2082,28 +2066,25 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="I3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2117,28 +2098,25 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="I4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2152,355 +2130,299 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>185</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="I5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>999</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>999</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E6">
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
         <v>50</v>
       </c>
-      <c r="F6">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>999</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1">
+        <v>125</v>
+      </c>
+      <c r="G8" s="1">
+        <v>75</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>999</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="1">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1">
+        <v>75</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1">
+        <v>999</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>150</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" s="1">
+        <v>999</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1">
+        <v>999</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="1">
+        <v>300</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200</v>
+      </c>
+      <c r="G12" s="1">
+        <v>150</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>999</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1">
+        <v>400</v>
+      </c>
+      <c r="F13" s="1">
+        <v>400</v>
+      </c>
+      <c r="G13" s="1">
+        <v>250</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G15">
         <v>25</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9">
-        <v>150</v>
-      </c>
-      <c r="F9">
-        <v>125</v>
-      </c>
-      <c r="G9">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>999</v>
-      </c>
-      <c r="C10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10">
-        <v>150</v>
-      </c>
-      <c r="F10">
-        <v>125</v>
-      </c>
-      <c r="G10">
-        <v>75</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <v>150</v>
-      </c>
-      <c r="H13">
-        <v>1.05</v>
-      </c>
-      <c r="K13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>999</v>
-      </c>
-      <c r="C14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14">
-        <v>400</v>
-      </c>
-      <c r="F14">
-        <v>400</v>
-      </c>
-      <c r="G14">
-        <v>250</v>
-      </c>
-      <c r="H14">
+      <c r="H15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>999</v>
-      </c>
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" t="s">
-        <v>321</v>
+      <c r="I15" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2528,10 +2450,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2549,13 +2471,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2566,10 +2488,10 @@
         <v>999</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -2587,7 +2509,7 @@
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2598,10 +2520,10 @@
         <v>999</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2619,7 +2541,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2630,10 +2552,10 @@
         <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2651,7 +2573,7 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2662,10 +2584,10 @@
         <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2683,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,10 +2616,10 @@
         <v>999</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -2715,263 +2637,263 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>150</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="J13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>999</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="1">
-        <v>150</v>
-      </c>
-      <c r="F9" s="1">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>999</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1">
-        <v>150</v>
-      </c>
-      <c r="F10" s="1">
-        <v>125</v>
-      </c>
-      <c r="G10" s="1">
-        <v>75</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="1">
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <v>150</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>999</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="1">
-        <v>150</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1">
-        <v>999</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1">
-        <v>999</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
         <v>250</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="1">
-        <v>400</v>
-      </c>
-      <c r="F14" s="1">
-        <v>400</v>
-      </c>
-      <c r="G14" s="1">
-        <v>250</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>255</v>
+      <c r="J14" t="s">
+        <v>239</v>
       </c>
       <c r="K14" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2999,10 +2921,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3020,13 +2942,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3037,10 +2959,10 @@
         <v>999</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -3055,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3069,10 +2991,10 @@
         <v>999</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3090,7 +3012,7 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3101,7 +3023,7 @@
         <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -3122,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3133,7 +3055,7 @@
         <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -3154,7 +3076,7 @@
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3165,7 +3087,7 @@
         <v>999</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -3186,263 +3108,263 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="K7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
-        <v>999</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="K8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>50</v>
       </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>150</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>125</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>75</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
-        <v>999</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>150</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>125</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>75</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="K10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>75</v>
       </c>
-      <c r="B11" s="1">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>150</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>75</v>
       </c>
-      <c r="B12" s="1">
-        <v>999</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>200</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>150</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="B13" s="1">
-        <v>999</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>300</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>200</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>150</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1.05</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="J13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>100</v>
       </c>
-      <c r="B14" s="1">
-        <v>999</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14">
+        <v>999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>400</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>400</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>250</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>323</v>
+      <c r="J14" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3453,10 +3375,10 @@
         <v>999</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -3471,10 +3393,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3502,10 +3424,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3523,13 +3445,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3540,7 +3462,7 @@
         <v>999</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
@@ -3558,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3572,10 +3494,10 @@
         <v>999</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3590,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="K3" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3604,7 +3526,7 @@
         <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -3625,7 +3547,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3636,7 +3558,7 @@
         <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
@@ -3657,7 +3579,7 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3668,7 +3590,7 @@
         <v>999</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
         <v>63</v>
@@ -3689,263 +3611,263 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>125</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="K10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>150</v>
+      </c>
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>75</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
-        <v>999</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="K12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>100</v>
       </c>
-      <c r="G8" s="1">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="1">
-        <v>150</v>
-      </c>
-      <c r="F9" s="1">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1">
-        <v>75</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1">
-        <v>999</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="1">
-        <v>150</v>
-      </c>
-      <c r="F10" s="1">
-        <v>125</v>
-      </c>
-      <c r="G10" s="1">
-        <v>75</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="1">
-        <v>200</v>
-      </c>
-      <c r="F11" s="1">
-        <v>150</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>999</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="1">
-        <v>150</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1">
-        <v>999</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>200</v>
-      </c>
-      <c r="G13" s="1">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1">
-        <v>999</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>287</v>
+      <c r="B14">
+        <v>999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
       </c>
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>400</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>400</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>250</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>302</v>
+      <c r="J14" t="s">
+        <v>286</v>
       </c>
       <c r="K14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3956,10 +3878,10 @@
         <v>999</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -3974,10 +3896,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3988,10 +3910,10 @@
         <v>999</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>5000</v>
@@ -4006,10 +3928,10 @@
         <v>1.25</v>
       </c>
       <c r="J17" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4021,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB0993F-B9C8-4F81-89BA-D25D4095DD6F}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -4037,10 +3959,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4058,13 +3980,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4075,7 +3997,7 @@
         <v>999</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -4093,10 +4015,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="K2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4107,7 +4029,7 @@
         <v>999</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -4128,7 +4050,7 @@
         <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,7 +4061,7 @@
         <v>999</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
         <v>72</v>
@@ -4160,7 +4082,7 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4171,7 +4093,7 @@
         <v>999</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
@@ -4192,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4203,7 +4125,7 @@
         <v>999</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
@@ -4224,167 +4146,167 @@
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>318</v>
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>319</v>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>303</v>
       </c>
       <c r="K7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
-        <v>999</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>150</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>125</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>75</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>75</v>
       </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>150</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>100</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10" s="1">
-        <v>999</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>300</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>150</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>1.05</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
       <c r="K10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" s="1">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>315</v>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="1">
+        <v>300</v>
+      </c>
+      <c r="E11">
         <v>400</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>400</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>250</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>317</v>
+      <c r="J11" t="s">
+        <v>301</v>
       </c>
       <c r="K11" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4432,7 +4354,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <f>FLOOR((0+(5*A2))*1.25, 1)</f>
@@ -4451,7 +4373,7 @@
         <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <f>FLOOR((0+(5*A3))*1.25, 1)</f>
@@ -4470,7 +4392,7 @@
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C36" si="1">FLOOR((0+(5*A4))*1.25, 1)</f>
@@ -4489,7 +4411,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -4508,7 +4430,7 @@
         <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -4527,7 +4449,7 @@
         <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -4546,7 +4468,7 @@
         <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -4565,7 +4487,7 @@
         <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -4584,7 +4506,7 @@
         <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -4603,7 +4525,7 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -4622,7 +4544,7 @@
         <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -4641,7 +4563,7 @@
         <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -4660,7 +4582,7 @@
         <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -4679,7 +4601,7 @@
         <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -4698,7 +4620,7 @@
         <v>195</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -4717,7 +4639,7 @@
         <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -4736,7 +4658,7 @@
         <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -4755,7 +4677,7 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -4774,7 +4696,7 @@
         <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -4793,7 +4715,7 @@
         <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -4812,7 +4734,7 @@
         <v>225</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -4831,7 +4753,7 @@
         <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -4850,7 +4772,7 @@
         <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -4869,7 +4791,7 @@
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -4888,7 +4810,7 @@
         <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -4907,7 +4829,7 @@
         <v>250</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -4926,7 +4848,7 @@
         <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -4945,7 +4867,7 @@
         <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -4964,7 +4886,7 @@
         <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -4983,7 +4905,7 @@
         <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -5002,7 +4924,7 @@
         <v>275</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -5021,7 +4943,7 @@
         <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -5040,7 +4962,7 @@
         <v>285</v>
       </c>
       <c r="B34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -5059,7 +4981,7 @@
         <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -5078,7 +5000,7 @@
         <v>295</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -5097,7 +5019,7 @@
         <v>300</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37">
         <v>2500</v>
@@ -5144,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -5153,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,7 +5088,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3" si="0">FLOOR(500+((20*A3)*1.25), 1)</f>
@@ -5181,7 +5103,7 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>17.369999999999997</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5189,7 +5111,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4" si="2">FLOOR(500+((20*A4)*1.25), 1)</f>
@@ -5204,7 +5126,7 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>21.119999999999997</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5212,7 +5134,7 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5" si="3">FLOOR(500+((20*A5)*1.25), 1)</f>
@@ -5227,7 +5149,7 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>27.369999999999997</v>
+        <v>21.619999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5235,7 +5157,7 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6" si="4">FLOOR(500+((20*A6)*1.25), 1)</f>
@@ -5250,7 +5172,7 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>29.619999999999997</v>
+        <v>26.869999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5258,7 +5180,7 @@
         <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C24" si="5">FLOOR(500+((20*A7)*1.25), 1)</f>
@@ -5273,7 +5195,7 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>34.119999999999997</v>
+        <v>32.369999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5281,7 +5203,7 @@
         <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <f t="shared" si="5"/>
@@ -5296,7 +5218,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>34.869999999999997</v>
+        <v>37.119999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5304,7 +5226,7 @@
         <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <f t="shared" si="5"/>
@@ -5319,7 +5241,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>41.12</v>
+        <v>42.87</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5327,7 +5249,7 @@
         <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <f t="shared" si="5"/>
@@ -5342,7 +5264,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>43.37</v>
+        <v>45.87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5350,7 +5272,7 @@
         <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <f t="shared" si="5"/>
@@ -5365,7 +5287,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>44.12</v>
+        <v>49.37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5373,7 +5295,7 @@
         <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <f t="shared" si="5"/>
@@ -5388,7 +5310,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>48.12</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5396,7 +5318,7 @@
         <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <f t="shared" si="5"/>
@@ -5411,7 +5333,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>51.87</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5419,7 +5341,7 @@
         <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C14">
         <f t="shared" si="5"/>
@@ -5434,7 +5356,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>53.87</v>
+        <v>57.87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5442,7 +5364,7 @@
         <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15">
         <f t="shared" si="5"/>
@@ -5457,7 +5379,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>56.12</v>
+        <v>58.87</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5465,7 +5387,7 @@
         <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <f t="shared" si="5"/>
@@ -5480,7 +5402,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>62.12</v>
+        <v>62.37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5488,7 +5410,7 @@
         <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17">
         <f t="shared" si="5"/>
@@ -5503,7 +5425,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>64.62</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5511,7 +5433,7 @@
         <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C18">
         <f t="shared" si="5"/>
@@ -5526,7 +5448,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>70.62</v>
+        <v>72.87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5534,7 +5456,7 @@
         <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19">
         <f t="shared" si="5"/>
@@ -5549,7 +5471,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>73.12</v>
+        <v>77.62</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5557,7 +5479,7 @@
         <v>260</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <f t="shared" si="5"/>
@@ -5572,7 +5494,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>78.12</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5580,7 +5502,7 @@
         <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C21">
         <f t="shared" si="5"/>
@@ -5595,7 +5517,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>81.37</v>
+        <v>85.12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5603,7 +5525,7 @@
         <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
@@ -5618,7 +5540,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>84.87</v>
+        <v>88.37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5626,7 +5548,7 @@
         <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C23">
         <f t="shared" si="5"/>
@@ -5641,7 +5563,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>87.62</v>
+        <v>88.87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5649,7 +5571,7 @@
         <v>300</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24">
         <f t="shared" si="5"/>
@@ -5664,7 +5586,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>92.62</v>
+        <v>94.62</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,7 +5594,7 @@
         <v>666</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C27">
         <v>20000</v>

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB60762-120A-4479-A924-A87BCEA8691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A308A-8612-43C3-B156-A01FB5FF3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
+    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="6" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
   <sheets>
     <sheet name="Spacers (Full DS)" sheetId="15" r:id="rId1"/>
@@ -1048,9 +1048,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1963,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,259 +2136,259 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
-        <v>999</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6">
+        <v>999</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>313</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
-        <v>999</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>314</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
-        <v>999</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>150</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>125</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>75</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>50</v>
       </c>
-      <c r="B9" s="1">
-        <v>999</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>150</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>125</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>75</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
         <v>316</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>75</v>
       </c>
-      <c r="B10" s="1">
-        <v>999</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>150</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>75</v>
       </c>
-      <c r="B11" s="1">
-        <v>999</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>150</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12" s="1">
-        <v>999</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>300</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>200</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>150</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>1.05</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>100</v>
       </c>
-      <c r="B13" s="1">
-        <v>999</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>400</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>400</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>250</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4318,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61E54B1-4E1F-4F39-BC42-A63E31143326}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5103,7 +5102,7 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>15.12</v>
+        <v>16.369999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5126,7 +5125,7 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>15.87</v>
+        <v>22.619999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5149,7 +5148,7 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>21.619999999999997</v>
+        <v>27.619999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,7 +5171,7 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>26.869999999999997</v>
+        <v>32.619999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5195,7 +5194,7 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>32.369999999999997</v>
+        <v>35.119999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5218,7 +5217,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>37.119999999999997</v>
+        <v>35.869999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5241,7 +5240,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>42.87</v>
+        <v>40.619999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5264,7 +5263,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>45.87</v>
+        <v>44.87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5287,7 +5286,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>49.37</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5310,7 +5309,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>54.87</v>
+        <v>46.62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5333,7 +5332,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>57.62</v>
+        <v>47.12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5356,7 +5355,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>57.87</v>
+        <v>47.87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5379,7 +5378,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>58.87</v>
+        <v>51.62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5402,7 +5401,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>62.37</v>
+        <v>56.87</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5425,7 +5424,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>67.62</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5448,7 +5447,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>72.87</v>
+        <v>61.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5471,7 +5470,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>77.62</v>
+        <v>65.87</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5494,7 +5493,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>81.87</v>
+        <v>66.87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5517,7 +5516,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>85.12</v>
+        <v>71.87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5540,7 +5539,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>88.37</v>
+        <v>75.87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5563,7 +5562,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>88.87</v>
+        <v>76.37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5586,7 +5585,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>94.62</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A308A-8612-43C3-B156-A01FB5FF3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CABD8D7-3455-496B-8833-FA96A6A8D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="6" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
+    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spacers (Full DS)" sheetId="15" r:id="rId1"/>
-    <sheet name="Pirate (Full DS)" sheetId="14" r:id="rId2"/>
+    <sheet name="Pirate" sheetId="14" r:id="rId1"/>
+    <sheet name="Spacers (Full DS)" sheetId="15" r:id="rId2"/>
     <sheet name="Varuun (Full DS)" sheetId="16" r:id="rId3"/>
     <sheet name="Ecliptic (Full DS)" sheetId="17" r:id="rId4"/>
     <sheet name="Syndicate (Full DS)" sheetId="18" r:id="rId5"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="483">
   <si>
     <t>Level</t>
   </si>
@@ -970,50 +970,536 @@
     <t>LLI_Ecliptic_Heavy_Boss [LVLI:0025C5E7]</t>
   </si>
   <si>
-    <t>Pirate Grunt</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet01Template "Pirate Grunt" [NPC_:00010B2E]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet02 "Pirate Brigand" [NPC_:00010B38]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet03 "Pirate Freebooter" [NPC_:00009CED]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet04 "Pirate Rover" [NPC_:00009CEF]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet05 "Pirate Marauder" [NPC_:00009CEE]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet06 "Pirate Corsair" [NPC_:0012D034]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet07 "Pirate Plunderer" [NPC_:0012D033]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet08 "Pirate Reaver" [NPC_:0012D032]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet09 "Pirate Cutthroat" [NPC_:0012D031]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet10 "Pirate Flayer" [NPC_:0012D030]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet11 "Pirate Captain" [NPC_:0012D02F]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet12 "Pirate Legend" [NPC_:0012D02E]</t>
+    <t>Pirate Brigand++</t>
+  </si>
+  <si>
+    <t>Pirate Brigand+</t>
+  </si>
+  <si>
+    <t>Pirate Freebooter++</t>
+  </si>
+  <si>
+    <t>Pirate Freebooter+</t>
+  </si>
+  <si>
+    <t>Pirate Rover+</t>
+  </si>
+  <si>
+    <t>Pirate Rover++</t>
+  </si>
+  <si>
+    <t>Pirate Marauder+</t>
+  </si>
+  <si>
+    <t>Pirate Marauder++</t>
+  </si>
+  <si>
+    <t>Pirate Corsair+</t>
+  </si>
+  <si>
+    <t>Pirate Corsair++</t>
+  </si>
+  <si>
+    <t>Pirate Legend+</t>
+  </si>
+  <si>
+    <t>Pirate Legend++</t>
+  </si>
+  <si>
+    <t>Pirate Plunderer+</t>
+  </si>
+  <si>
+    <t>Pirate Plunderer++</t>
+  </si>
+  <si>
+    <t>Pirate Reaver+</t>
+  </si>
+  <si>
+    <t>Pirate Reaver++</t>
+  </si>
+  <si>
+    <t>Pirate Cutthroat+</t>
+  </si>
+  <si>
+    <t>Pirate Cutthroat++</t>
+  </si>
+  <si>
+    <t>Pirate Flayer+</t>
+  </si>
+  <si>
+    <t>Pirate Flayer++</t>
+  </si>
+  <si>
+    <t>Pirate Captain+</t>
+  </si>
+  <si>
+    <t>Pirate Captain++</t>
+  </si>
+  <si>
+    <t>Form ID</t>
+  </si>
+  <si>
+    <t>Pirate Dragon</t>
+  </si>
+  <si>
+    <t>Pirate Dragon+</t>
+  </si>
+  <si>
+    <t>Pirate Dragon++</t>
+  </si>
+  <si>
+    <t>Pirate Cabinboy</t>
+  </si>
+  <si>
+    <t>Pirate Cabinboy+</t>
+  </si>
+  <si>
+    <t>Pirate Cabinboy++</t>
+  </si>
+  <si>
+    <t>Pirate Ammo Monkey++</t>
+  </si>
+  <si>
+    <t>Pirate Ammo Monkey+</t>
+  </si>
+  <si>
+    <t>Pirate Ammo Monkey</t>
+  </si>
+  <si>
+    <t>Special Pirate Cabinboy</t>
+  </si>
+  <si>
+    <t>Special Pirate Cabinboy+</t>
+  </si>
+  <si>
+    <t>Special Pirate Cabinboy++</t>
+  </si>
+  <si>
+    <t>Special Pirate Ammo Monkey</t>
+  </si>
+  <si>
+    <t>Special Pirate Ammo Monkey+</t>
+  </si>
+  <si>
+    <t>Special Pirate Ammo Monkey++</t>
+  </si>
+  <si>
+    <t>Special Pirate Brigand</t>
+  </si>
+  <si>
+    <t>Special Pirate Brigand+</t>
+  </si>
+  <si>
+    <t>Special Pirate Brigand++</t>
+  </si>
+  <si>
+    <t>Special Pirate Freebooter</t>
+  </si>
+  <si>
+    <t>Special Pirate Freebooter+</t>
+  </si>
+  <si>
+    <t>Special Pirate Freebooter++</t>
+  </si>
+  <si>
+    <t>Special Pirate Rover</t>
+  </si>
+  <si>
+    <t>Special Pirate Rover+</t>
+  </si>
+  <si>
+    <t>Special Pirate Rover++</t>
+  </si>
+  <si>
+    <t>Special Pirate Marauder</t>
+  </si>
+  <si>
+    <t>Special Pirate Marauder+</t>
+  </si>
+  <si>
+    <t>Special Pirate Marauder++</t>
+  </si>
+  <si>
+    <t>Special Pirate Corsair</t>
+  </si>
+  <si>
+    <t>Special Pirate Corsair+</t>
+  </si>
+  <si>
+    <t>Special Pirate Corsair++</t>
+  </si>
+  <si>
+    <t>Special Pirate Plunderer</t>
+  </si>
+  <si>
+    <t>Special Pirate Plunderer+</t>
+  </si>
+  <si>
+    <t>Special Pirate Plunderer++</t>
+  </si>
+  <si>
+    <t>Special Pirate Reaver</t>
+  </si>
+  <si>
+    <t>Special Pirate Reaver+</t>
+  </si>
+  <si>
+    <t>Special Pirate Reaver++</t>
+  </si>
+  <si>
+    <t>Special Pirate Cutthroat</t>
+  </si>
+  <si>
+    <t>Special Pirate Cutthroat+</t>
+  </si>
+  <si>
+    <t>Special Pirate Cutthroat++</t>
+  </si>
+  <si>
+    <t>Special Pirate Flayer</t>
+  </si>
+  <si>
+    <t>Special Pirate Flayer+</t>
+  </si>
+  <si>
+    <t>Special Pirate Flayer++</t>
+  </si>
+  <si>
+    <t>Special Pirate Dragon</t>
+  </si>
+  <si>
+    <t>Special Pirate Dragon+</t>
+  </si>
+  <si>
+    <t>Special Pirate Dragon++</t>
+  </si>
+  <si>
+    <t>Special Pirate Captain</t>
+  </si>
+  <si>
+    <t>Special Pirate Captain+</t>
+  </si>
+  <si>
+    <t>Special Pirate Captain++</t>
+  </si>
+  <si>
+    <t>Special Pirate Legend</t>
+  </si>
+  <si>
+    <t>Special Pirate Legend+</t>
+  </si>
+  <si>
+    <t>Special Pirate Legend++</t>
+  </si>
+  <si>
+    <t>Pirate Quartermaster</t>
+  </si>
+  <si>
+    <t>Pirate Quartermaster+</t>
+  </si>
+  <si>
+    <t>Pirate Quartermaster++</t>
+  </si>
+  <si>
+    <t>Special Pirate Quartermaster</t>
+  </si>
+  <si>
+    <t>Special Pirate Quartermaster+</t>
+  </si>
+  <si>
+    <t>Special Pirate Quartermaster++</t>
+  </si>
+  <si>
+    <t>Pirate Gunner</t>
+  </si>
+  <si>
+    <t>Pirate Gunner+</t>
+  </si>
+  <si>
+    <t>Pirate Gunner++</t>
+  </si>
+  <si>
+    <t>Special Pirate Gunner</t>
+  </si>
+  <si>
+    <t>Special Pirate Gunner+</t>
+  </si>
+  <si>
+    <t>Special Pirate Gunner++</t>
+  </si>
+  <si>
+    <t>Normal Version with Special Damage Types == +</t>
+  </si>
+  <si>
+    <t>Boss Version withDouble HP/Resists == ++</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet01P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet01P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08P2</t>
+  </si>
+  <si>
+    <t>[NPC_:0400097A]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000979]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000978]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000977]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000976]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400097B]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400097C]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400097D]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400097E]</t>
+  </si>
+  <si>
+    <t>[NPC_:00010B2E]</t>
+  </si>
+  <si>
+    <t>[NPC_:00010B38]</t>
+  </si>
+  <si>
+    <t>[NPC_:00009CED]</t>
+  </si>
+  <si>
+    <t>[NPC_:00009CEF]</t>
+  </si>
+  <si>
+    <t>[NPC_:00009CEE]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D034]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D033]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D032]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D031]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D030]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D02F]</t>
+  </si>
+  <si>
+    <t>[NPC_:0012D02E]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleetEXP</t>
+  </si>
+  <si>
+    <t>[NPC_:0400097F]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000980]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14P2</t>
+  </si>
+  <si>
+    <t>[NPC_:04000981]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000982]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000983]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05P1</t>
+  </si>
+  <si>
+    <t>[NPC_:04000984]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000985]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06P1</t>
+  </si>
+  <si>
+    <t>[NPC_:04000986]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000987]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07P1</t>
+  </si>
+  <si>
+    <t>[NPC_:04000988]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000989]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09P1</t>
+  </si>
+  <si>
+    <t>[NPC_:0400098A]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400098B]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400098C]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400098D]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10P2</t>
+  </si>
+  <si>
+    <t>[NPC_:0400098E]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400098F]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15P2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16P1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16P2</t>
+  </si>
+  <si>
+    <t>[NPC_:04000990]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000992]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000991]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000993]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000994]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000995]</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11P2</t>
+  </si>
+  <si>
+    <t>[NPC_:04000996]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000997]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000998]</t>
+  </si>
+  <si>
+    <t>[NPC_:04000999]</t>
+  </si>
+  <si>
+    <t>[NPC_:0400099A]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,13 +1513,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1045,13 +1548,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1456,6 +1991,3684 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
+  <dimension ref="A1:T98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>MAX(B2-5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>999</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="2">
+        <f>FLOOR((25+(5*B2))*1.01, 5)</f>
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <f>FLOOR((25+(5*B2))*0.25, 5)</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <f>CEILING(((25+(5*B2))*0.25)/2, 25)</f>
+        <v>25</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A97" si="0">MAX(B3-5,1)</f>
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <f>FLOOR(B2+10,10)</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>999</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G6" si="1">FLOOR((25+(5*B3))*1.01, 5)</f>
+        <v>75</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H6" si="2">FLOOR((25+(5*B3))*0.25, 5)</f>
+        <v>15</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I66" si="3">CEILING(((25+(5*B3))*0.25)/2, 25)</f>
+        <v>25</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B67" si="4">FLOOR(B3+10,10)</f>
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>999</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="4">
+        <f>FLOOR((25+(5*B4))*1.5, 5)</f>
+        <v>185</v>
+      </c>
+      <c r="H4" s="4">
+        <f>FLOOR((25+(5*B4))*0.75, 5)</f>
+        <v>90</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="4">
+        <v>999</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="4">
+        <f>FLOOR((25+(5*B5))*1.01, 5)</f>
+        <v>175</v>
+      </c>
+      <c r="H5" s="4">
+        <f>FLOOR((25+(5*B5))*0.25, 5)</f>
+        <v>40</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="4">
+        <v>999</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>999</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="4">
+        <f>FLOOR((25+(5*B7))*1.5, 5)</f>
+        <v>410</v>
+      </c>
+      <c r="H7" s="4">
+        <f>FLOOR((25+(5*B7))*0.75, 5)</f>
+        <v>205</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="4">
+        <v>999</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="4">
+        <f>FLOOR((25+(5*B8))*1.01, 5)</f>
+        <v>325</v>
+      </c>
+      <c r="H8" s="4">
+        <f>FLOOR((25+(5*B8))*0.25, 5)</f>
+        <v>80</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="4">
+        <v>999</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" ref="G9" si="5">FLOOR((25+(5*B9))*1.01, 5)</f>
+        <v>375</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" ref="H9" si="6">FLOOR((25+(5*B9))*0.25, 5)</f>
+        <v>90</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C10" s="4">
+        <v>999</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="4">
+        <f>FLOOR((25+(5*B10))*1.5, 5)</f>
+        <v>635</v>
+      </c>
+      <c r="H10" s="4">
+        <f>FLOOR((25+(5*B10))*0.75, 5)</f>
+        <v>315</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="4">
+        <v>999</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="4">
+        <f>FLOOR((25+(5*B11))*1.01, 5)</f>
+        <v>475</v>
+      </c>
+      <c r="H11" s="4">
+        <f>FLOOR((25+(5*B11))*0.25, 5)</f>
+        <v>115</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C12" s="4">
+        <v>999</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12" si="7">FLOOR((25+(5*B12))*1.01, 5)</f>
+        <v>530</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12" si="8">FLOOR((25+(5*B12))*0.25, 5)</f>
+        <v>130</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="4">
+        <v>999</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="4">
+        <f>FLOOR((25+(5*B13))*1.5, 5)</f>
+        <v>860</v>
+      </c>
+      <c r="H13" s="4">
+        <f>FLOOR((25+(5*B13))*0.75, 5)</f>
+        <v>430</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C14" s="4">
+        <v>999</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="4">
+        <f>FLOOR((25+(5*B14))*1.01, 5)</f>
+        <v>630</v>
+      </c>
+      <c r="H14" s="4">
+        <f>FLOOR((25+(5*B14))*0.25, 5)</f>
+        <v>155</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C15" s="4">
+        <v>999</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15" si="9">FLOOR((25+(5*B15))*1.01, 5)</f>
+        <v>680</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" ref="H15" si="10">FLOOR((25+(5*B15))*0.25, 5)</f>
+        <v>165</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="C16" s="4">
+        <v>999</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="4">
+        <f>FLOOR((25+(5*B16))*1.5, 5)</f>
+        <v>1085</v>
+      </c>
+      <c r="H16" s="4">
+        <f>FLOOR((25+(5*B16))*0.75, 5)</f>
+        <v>540</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="C17" s="4">
+        <v>999</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="4">
+        <f>FLOOR((25+(5*B17))*1.01, 5)</f>
+        <v>780</v>
+      </c>
+      <c r="H17" s="4">
+        <f>FLOOR((25+(5*B17))*0.25, 5)</f>
+        <v>190</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="C18" s="4">
+        <v>999</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" ref="G18" si="11">FLOOR((25+(5*B18))*1.01, 5)</f>
+        <v>830</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" ref="H18" si="12">FLOOR((25+(5*B18))*0.25, 5)</f>
+        <v>205</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="C19" s="4">
+        <v>999</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" s="4">
+        <f>FLOOR((25+(5*B19))*1.5, 5)</f>
+        <v>1310</v>
+      </c>
+      <c r="H19" s="4">
+        <f>FLOOR((25+(5*B19))*0.75, 5)</f>
+        <v>655</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C20" s="4">
+        <v>999</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="4">
+        <f>FLOOR((25+(5*B20))*1.01, 5)</f>
+        <v>930</v>
+      </c>
+      <c r="H20" s="4">
+        <f>FLOOR((25+(5*B20))*0.25, 5)</f>
+        <v>230</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="4">
+        <v>999</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" ref="G21" si="13">FLOOR((25+(5*B21))*1.01, 5)</f>
+        <v>980</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" ref="H21" si="14">FLOOR((25+(5*B21))*0.25, 5)</f>
+        <v>240</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="C22" s="4">
+        <v>999</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" s="4">
+        <f>FLOOR((25+(5*B22))*1.5, 5)</f>
+        <v>1535</v>
+      </c>
+      <c r="H22" s="4">
+        <f>FLOOR((25+(5*B22))*0.75, 5)</f>
+        <v>765</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="C23" s="4">
+        <v>999</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="4">
+        <f>FLOOR((25+(5*B23))*1.01, 5)</f>
+        <v>1085</v>
+      </c>
+      <c r="H23" s="4">
+        <f>FLOOR((25+(5*B23))*0.25, 5)</f>
+        <v>265</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="C24" s="4">
+        <v>999</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" ref="G24" si="15">FLOOR((25+(5*B24))*1.01, 5)</f>
+        <v>1135</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24" si="16">FLOOR((25+(5*B24))*0.25, 5)</f>
+        <v>280</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="C25" s="4">
+        <v>999</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="4">
+        <f>FLOOR((25+(5*B25))*1.5, 5)</f>
+        <v>1760</v>
+      </c>
+      <c r="H25" s="4">
+        <f>FLOOR((25+(5*B25))*0.75, 5)</f>
+        <v>880</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="C26" s="4">
+        <v>999</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="4">
+        <f>FLOOR((25+(5*B26))*1.01, 5)</f>
+        <v>1235</v>
+      </c>
+      <c r="H26" s="4">
+        <f>FLOOR((25+(5*B26))*0.25, 5)</f>
+        <v>305</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="C27" s="4">
+        <v>999</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" ref="G27" si="17">FLOOR((25+(5*B27))*1.01, 5)</f>
+        <v>1285</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" ref="H27" si="18">FLOOR((25+(5*B27))*0.25, 5)</f>
+        <v>315</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="C28" s="4">
+        <v>999</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G28" s="4">
+        <f>FLOOR((25+(5*B28))*1.5, 5)</f>
+        <v>1985</v>
+      </c>
+      <c r="H28" s="4">
+        <f>FLOOR((25+(5*B28))*0.75, 5)</f>
+        <v>990</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="C29" s="4">
+        <v>999</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="4">
+        <f>FLOOR((25+(5*B29))*1.01, 5)</f>
+        <v>1385</v>
+      </c>
+      <c r="H29" s="4">
+        <f>FLOOR((25+(5*B29))*0.25, 5)</f>
+        <v>340</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="C30" s="4">
+        <v>999</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" ref="G30" si="19">FLOOR((25+(5*B30))*1.01, 5)</f>
+        <v>1435</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" ref="H30" si="20">FLOOR((25+(5*B30))*0.25, 5)</f>
+        <v>355</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="C31" s="4">
+        <v>999</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" s="4">
+        <f>FLOOR((25+(5*B31))*1.5, 5)</f>
+        <v>2210</v>
+      </c>
+      <c r="H31" s="4">
+        <f>FLOOR((25+(5*B31))*0.75, 5)</f>
+        <v>1105</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="C32" s="4">
+        <v>999</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="4">
+        <f>FLOOR((25+(5*B32))*1.01, 5)</f>
+        <v>1540</v>
+      </c>
+      <c r="H32" s="4">
+        <f>FLOOR((25+(5*B32))*0.25, 5)</f>
+        <v>380</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="C33" s="4">
+        <v>999</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" ref="G33" si="21">FLOOR((25+(5*B33))*1.01, 5)</f>
+        <v>1590</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" ref="H33" si="22">FLOOR((25+(5*B33))*0.25, 5)</f>
+        <v>390</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="C34" s="4">
+        <v>999</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" s="4">
+        <f>FLOOR((25+(5*B34))*1.5, 5)</f>
+        <v>2435</v>
+      </c>
+      <c r="H34" s="4">
+        <f>FLOOR((25+(5*B34))*0.75, 5)</f>
+        <v>1215</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="C35" s="4">
+        <v>999</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="4">
+        <f>FLOOR((25+(5*B35))*1.01, 5)</f>
+        <v>1690</v>
+      </c>
+      <c r="H35" s="4">
+        <f>FLOOR((25+(5*B35))*0.25, 5)</f>
+        <v>415</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="C36" s="4">
+        <v>999</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" ref="G36" si="23">FLOOR((25+(5*B36))*1.01, 5)</f>
+        <v>1740</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" ref="H36" si="24">FLOOR((25+(5*B36))*0.25, 5)</f>
+        <v>430</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="C37" s="4">
+        <v>999</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" s="4">
+        <f>FLOOR((25+(5*B37))*1.5, 5)</f>
+        <v>2660</v>
+      </c>
+      <c r="H37" s="4">
+        <f>FLOOR((25+(5*B37))*0.75, 5)</f>
+        <v>1330</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="C38" s="4">
+        <v>999</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" s="4">
+        <f>FLOOR((25+(5*B38))*1.01, 5)</f>
+        <v>1840</v>
+      </c>
+      <c r="H38" s="4">
+        <f>FLOOR((25+(5*B38))*0.25, 5)</f>
+        <v>455</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="C39" s="4">
+        <v>999</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" ref="G39" si="25">FLOOR((25+(5*B39))*1.01, 5)</f>
+        <v>1890</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" ref="H39" si="26">FLOOR((25+(5*B39))*0.25, 5)</f>
+        <v>465</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="C40" s="4">
+        <v>999</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" s="4">
+        <f>FLOOR((25+(5*B40))*1.5, 5)</f>
+        <v>2885</v>
+      </c>
+      <c r="H40" s="4">
+        <f>FLOOR((25+(5*B40))*0.75, 5)</f>
+        <v>1440</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="C41" s="4">
+        <v>999</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G41" s="4">
+        <f>FLOOR((25+(5*B41))*1.01, 5)</f>
+        <v>1990</v>
+      </c>
+      <c r="H41" s="4">
+        <f>FLOOR((25+(5*B41))*0.25, 5)</f>
+        <v>490</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="C42" s="4">
+        <v>999</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" ref="G42" si="27">FLOOR((25+(5*B42))*1.01, 5)</f>
+        <v>2045</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" ref="H42" si="28">FLOOR((25+(5*B42))*0.25, 5)</f>
+        <v>505</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="C43" s="4">
+        <v>999</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" s="4">
+        <f>FLOOR((25+(5*B43))*1.5, 5)</f>
+        <v>3110</v>
+      </c>
+      <c r="H43" s="4">
+        <f>FLOOR((25+(5*B43))*0.75, 5)</f>
+        <v>1555</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="C44" s="4">
+        <v>999</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="4">
+        <f>FLOOR((25+(5*B44))*1.01, 5)</f>
+        <v>2145</v>
+      </c>
+      <c r="H44" s="4">
+        <f>FLOOR((25+(5*B44))*0.25, 5)</f>
+        <v>530</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="C45" s="4">
+        <v>999</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" ref="G45" si="29">FLOOR((25+(5*B45))*1.01, 5)</f>
+        <v>2195</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" ref="H45" si="30">FLOOR((25+(5*B45))*0.25, 5)</f>
+        <v>540</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="C46" s="4">
+        <v>999</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" s="4">
+        <f>FLOOR((25+(5*B46))*1.5, 5)</f>
+        <v>3335</v>
+      </c>
+      <c r="H46" s="4">
+        <f>FLOOR((25+(5*B46))*0.75, 5)</f>
+        <v>1665</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="C47" s="4">
+        <v>999</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="4">
+        <f>FLOOR((25+(5*B47))*1.01, 5)</f>
+        <v>2295</v>
+      </c>
+      <c r="H47" s="4">
+        <f>FLOOR((25+(5*B47))*0.25, 5)</f>
+        <v>565</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="C48" s="4">
+        <v>999</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" ref="G48" si="31">FLOOR((25+(5*B48))*1.01, 5)</f>
+        <v>2345</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" ref="H48" si="32">FLOOR((25+(5*B48))*0.25, 5)</f>
+        <v>580</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="C49" s="4">
+        <v>999</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G49" s="4">
+        <f>FLOOR((25+(5*B49))*1.5, 5)</f>
+        <v>3560</v>
+      </c>
+      <c r="H49" s="4">
+        <f>FLOOR((25+(5*B49))*0.75, 5)</f>
+        <v>1780</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f>MAX(B50-5,1)</f>
+        <v>475</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="C50" s="2">
+        <v>999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" s="2">
+        <f>FLOOR((25+(5*B50))*1.01, 5)</f>
+        <v>2445</v>
+      </c>
+      <c r="H50" s="2">
+        <f>FLOOR((25+(5*B50))*0.25, 5)</f>
+        <v>605</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="C51" s="2">
+        <v>999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>341</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ref="G51" si="33">FLOOR((25+(5*B51))*1.01, 5)</f>
+        <v>2495</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" ref="H51" si="34">FLOOR((25+(5*B51))*0.25, 5)</f>
+        <v>615</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="C52" s="2">
+        <v>999</v>
+      </c>
+      <c r="F52" t="s">
+        <v>342</v>
+      </c>
+      <c r="G52" s="2">
+        <f>FLOOR((25+(5*B52))*1.5, 5)</f>
+        <v>3785</v>
+      </c>
+      <c r="H52" s="2">
+        <f>FLOOR((25+(5*B52))*0.75, 5)</f>
+        <v>1890</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="C53" s="2">
+        <v>999</v>
+      </c>
+      <c r="F53" t="s">
+        <v>343</v>
+      </c>
+      <c r="G53" s="2">
+        <f>FLOOR((25+(5*B53))*1.01, 5)</f>
+        <v>2600</v>
+      </c>
+      <c r="H53" s="2">
+        <f>FLOOR((25+(5*B53))*0.25, 5)</f>
+        <v>640</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>515</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="C54" s="2">
+        <v>999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>344</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" ref="G54" si="35">FLOOR((25+(5*B54))*1.01, 5)</f>
+        <v>2650</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ref="H54" si="36">FLOOR((25+(5*B54))*0.25, 5)</f>
+        <v>655</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="C55" s="2">
+        <v>999</v>
+      </c>
+      <c r="F55" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" s="2">
+        <f>FLOOR((25+(5*B55))*1.5, 5)</f>
+        <v>4010</v>
+      </c>
+      <c r="H55" s="2">
+        <f>FLOOR((25+(5*B55))*0.75, 5)</f>
+        <v>2005</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>535</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="C56" s="2">
+        <v>999</v>
+      </c>
+      <c r="F56" t="s">
+        <v>346</v>
+      </c>
+      <c r="G56" s="2">
+        <f>FLOOR((25+(5*B56))*1.01, 5)</f>
+        <v>2750</v>
+      </c>
+      <c r="H56" s="2">
+        <f>FLOOR((25+(5*B56))*0.25, 5)</f>
+        <v>680</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="C57" s="2">
+        <v>999</v>
+      </c>
+      <c r="F57" t="s">
+        <v>347</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" ref="G57" si="37">FLOOR((25+(5*B57))*1.01, 5)</f>
+        <v>2800</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" ref="H57" si="38">FLOOR((25+(5*B57))*0.25, 5)</f>
+        <v>690</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="C58" s="2">
+        <v>999</v>
+      </c>
+      <c r="F58" t="s">
+        <v>348</v>
+      </c>
+      <c r="G58" s="2">
+        <f>FLOOR((25+(5*B58))*1.5, 5)</f>
+        <v>4235</v>
+      </c>
+      <c r="H58" s="2">
+        <f>FLOOR((25+(5*B58))*0.75, 5)</f>
+        <v>2115</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>565</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="C59" s="2">
+        <v>999</v>
+      </c>
+      <c r="F59" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" s="2">
+        <f>FLOOR((25+(5*B59))*1.01, 5)</f>
+        <v>2900</v>
+      </c>
+      <c r="H59" s="2">
+        <f>FLOOR((25+(5*B59))*0.25, 5)</f>
+        <v>715</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="C60" s="2">
+        <v>999</v>
+      </c>
+      <c r="F60" t="s">
+        <v>350</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" ref="G60" si="39">FLOOR((25+(5*B60))*1.01, 5)</f>
+        <v>2950</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" ref="H60" si="40">FLOOR((25+(5*B60))*0.25, 5)</f>
+        <v>730</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
+      <c r="C61" s="2">
+        <v>999</v>
+      </c>
+      <c r="F61" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61" s="2">
+        <f>FLOOR((25+(5*B61))*1.5, 5)</f>
+        <v>4460</v>
+      </c>
+      <c r="H61" s="2">
+        <f>FLOOR((25+(5*B61))*0.75, 5)</f>
+        <v>2230</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="C62" s="2">
+        <v>999</v>
+      </c>
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+      <c r="G62" s="2">
+        <f>FLOOR((25+(5*B62))*1.01, 5)</f>
+        <v>3055</v>
+      </c>
+      <c r="H62" s="2">
+        <f>FLOOR((25+(5*B62))*0.25, 5)</f>
+        <v>755</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="4"/>
+        <v>610</v>
+      </c>
+      <c r="C63" s="2">
+        <v>999</v>
+      </c>
+      <c r="F63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" ref="G63" si="41">FLOOR((25+(5*B63))*1.01, 5)</f>
+        <v>3105</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ref="H63" si="42">FLOOR((25+(5*B63))*0.25, 5)</f>
+        <v>765</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="C64" s="2">
+        <v>999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>354</v>
+      </c>
+      <c r="G64" s="2">
+        <f>FLOOR((25+(5*B64))*1.5, 5)</f>
+        <v>4685</v>
+      </c>
+      <c r="H64" s="2">
+        <f>FLOOR((25+(5*B64))*0.75, 5)</f>
+        <v>2340</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+      <c r="C65" s="2">
+        <v>999</v>
+      </c>
+      <c r="F65" t="s">
+        <v>391</v>
+      </c>
+      <c r="G65" s="2">
+        <f>FLOOR((25+(5*B65))*1.01, 5)</f>
+        <v>3205</v>
+      </c>
+      <c r="H65" s="2">
+        <f>FLOOR((25+(5*B65))*0.25, 5)</f>
+        <v>790</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>635</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="C66" s="2">
+        <v>999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>392</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" ref="G66" si="43">FLOOR((25+(5*B66))*1.01, 5)</f>
+        <v>3255</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ref="H66" si="44">FLOOR((25+(5*B66))*0.25, 5)</f>
+        <v>805</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="3"/>
+        <v>425</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="C67" s="2">
+        <v>999</v>
+      </c>
+      <c r="F67" t="s">
+        <v>393</v>
+      </c>
+      <c r="G67" s="2">
+        <f>FLOOR((25+(5*B67))*1.5, 5)</f>
+        <v>4910</v>
+      </c>
+      <c r="H67" s="2">
+        <f>FLOOR((25+(5*B67))*0.75, 5)</f>
+        <v>2455</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:I98" si="45">CEILING(((25+(5*B67))*0.25)/2, 25)</f>
+        <v>425</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <f t="shared" si="0"/>
+        <v>655</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" ref="B68:B97" si="46">FLOOR(B67+10,10)</f>
+        <v>660</v>
+      </c>
+      <c r="C68" s="2">
+        <v>999</v>
+      </c>
+      <c r="F68" t="s">
+        <v>355</v>
+      </c>
+      <c r="G68" s="2">
+        <f>FLOOR((25+(5*B68))*1.01, 5)</f>
+        <v>3355</v>
+      </c>
+      <c r="H68" s="2">
+        <f>FLOOR((25+(5*B68))*0.25, 5)</f>
+        <v>830</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="45"/>
+        <v>425</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="46"/>
+        <v>670</v>
+      </c>
+      <c r="C69" s="2">
+        <v>999</v>
+      </c>
+      <c r="F69" t="s">
+        <v>356</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" ref="G69" si="47">FLOOR((25+(5*B69))*1.01, 5)</f>
+        <v>3405</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ref="H69" si="48">FLOOR((25+(5*B69))*0.25, 5)</f>
+        <v>840</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="45"/>
+        <v>425</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="46"/>
+        <v>680</v>
+      </c>
+      <c r="C70" s="2">
+        <v>999</v>
+      </c>
+      <c r="F70" t="s">
+        <v>357</v>
+      </c>
+      <c r="G70" s="2">
+        <f>FLOOR((25+(5*B70))*1.5, 5)</f>
+        <v>5135</v>
+      </c>
+      <c r="H70" s="2">
+        <f>FLOOR((25+(5*B70))*0.75, 5)</f>
+        <v>2565</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="45"/>
+        <v>450</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="46"/>
+        <v>690</v>
+      </c>
+      <c r="C71" s="2">
+        <v>999</v>
+      </c>
+      <c r="F71" t="s">
+        <v>358</v>
+      </c>
+      <c r="G71" s="2">
+        <f>FLOOR((25+(5*B71))*1.01, 5)</f>
+        <v>3505</v>
+      </c>
+      <c r="H71" s="2">
+        <f>FLOOR((25+(5*B71))*0.25, 5)</f>
+        <v>865</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="45"/>
+        <v>450</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <f t="shared" si="0"/>
+        <v>695</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="46"/>
+        <v>700</v>
+      </c>
+      <c r="C72" s="2">
+        <v>999</v>
+      </c>
+      <c r="F72" t="s">
+        <v>359</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" ref="G72" si="49">FLOOR((25+(5*B72))*1.01, 5)</f>
+        <v>3560</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" ref="H72" si="50">FLOOR((25+(5*B72))*0.25, 5)</f>
+        <v>880</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="45"/>
+        <v>450</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="46"/>
+        <v>710</v>
+      </c>
+      <c r="C73" s="2">
+        <v>999</v>
+      </c>
+      <c r="F73" t="s">
+        <v>360</v>
+      </c>
+      <c r="G73" s="2">
+        <f>FLOOR((25+(5*B73))*1.5, 5)</f>
+        <v>5360</v>
+      </c>
+      <c r="H73" s="2">
+        <f>FLOOR((25+(5*B73))*0.75, 5)</f>
+        <v>2680</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="45"/>
+        <v>450</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <f t="shared" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="46"/>
+        <v>720</v>
+      </c>
+      <c r="C74" s="2">
+        <v>999</v>
+      </c>
+      <c r="F74" t="s">
+        <v>361</v>
+      </c>
+      <c r="G74" s="2">
+        <f>FLOOR((25+(5*B74))*1.01, 5)</f>
+        <v>3660</v>
+      </c>
+      <c r="H74" s="2">
+        <f>FLOOR((25+(5*B74))*0.25, 5)</f>
+        <v>905</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="45"/>
+        <v>475</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="46"/>
+        <v>730</v>
+      </c>
+      <c r="C75" s="2">
+        <v>999</v>
+      </c>
+      <c r="F75" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" ref="G75" si="51">FLOOR((25+(5*B75))*1.01, 5)</f>
+        <v>3710</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" ref="H75" si="52">FLOOR((25+(5*B75))*0.25, 5)</f>
+        <v>915</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="45"/>
+        <v>475</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="46"/>
+        <v>740</v>
+      </c>
+      <c r="C76" s="2">
+        <v>999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>363</v>
+      </c>
+      <c r="G76" s="2">
+        <f>FLOOR((25+(5*B76))*1.5, 5)</f>
+        <v>5585</v>
+      </c>
+      <c r="H76" s="2">
+        <f>FLOOR((25+(5*B76))*0.75, 5)</f>
+        <v>2790</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="45"/>
+        <v>475</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <f t="shared" si="0"/>
+        <v>745</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="46"/>
+        <v>750</v>
+      </c>
+      <c r="C77" s="2">
+        <v>999</v>
+      </c>
+      <c r="F77" t="s">
+        <v>364</v>
+      </c>
+      <c r="G77" s="2">
+        <f>FLOOR((25+(5*B77))*1.01, 5)</f>
+        <v>3810</v>
+      </c>
+      <c r="H77" s="2">
+        <f>FLOOR((25+(5*B77))*0.25, 5)</f>
+        <v>940</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="45"/>
+        <v>475</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="46"/>
+        <v>760</v>
+      </c>
+      <c r="C78" s="2">
+        <v>999</v>
+      </c>
+      <c r="F78" t="s">
+        <v>365</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" ref="G78" si="53">FLOOR((25+(5*B78))*1.01, 5)</f>
+        <v>3860</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" ref="H78" si="54">FLOOR((25+(5*B78))*0.25, 5)</f>
+        <v>955</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="45"/>
+        <v>500</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="46"/>
+        <v>770</v>
+      </c>
+      <c r="C79" s="2">
+        <v>999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>366</v>
+      </c>
+      <c r="G79" s="2">
+        <f>FLOOR((25+(5*B79))*1.5, 5)</f>
+        <v>5810</v>
+      </c>
+      <c r="H79" s="2">
+        <f>FLOOR((25+(5*B79))*0.75, 5)</f>
+        <v>2905</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="45"/>
+        <v>500</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="46"/>
+        <v>780</v>
+      </c>
+      <c r="C80" s="2">
+        <v>999</v>
+      </c>
+      <c r="F80" t="s">
+        <v>367</v>
+      </c>
+      <c r="G80" s="2">
+        <f>FLOOR((25+(5*B80))*1.01, 5)</f>
+        <v>3960</v>
+      </c>
+      <c r="H80" s="2">
+        <f>FLOOR((25+(5*B80))*0.25, 5)</f>
+        <v>980</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="45"/>
+        <v>500</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <f t="shared" si="0"/>
+        <v>785</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="46"/>
+        <v>790</v>
+      </c>
+      <c r="C81" s="2">
+        <v>999</v>
+      </c>
+      <c r="F81" t="s">
+        <v>368</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" ref="G81" si="55">FLOOR((25+(5*B81))*1.01, 5)</f>
+        <v>4010</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" ref="H81" si="56">FLOOR((25+(5*B81))*0.25, 5)</f>
+        <v>990</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="45"/>
+        <v>500</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="46"/>
+        <v>800</v>
+      </c>
+      <c r="C82" s="2">
+        <v>999</v>
+      </c>
+      <c r="F82" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="2">
+        <f>FLOOR((25+(5*B82))*1.5, 5)</f>
+        <v>6035</v>
+      </c>
+      <c r="H82" s="2">
+        <f>FLOOR((25+(5*B82))*0.75, 5)</f>
+        <v>3015</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="45"/>
+        <v>525</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="46"/>
+        <v>810</v>
+      </c>
+      <c r="C83" s="2">
+        <v>999</v>
+      </c>
+      <c r="F83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G83" s="2">
+        <f>FLOOR((25+(5*B83))*1.01, 5)</f>
+        <v>4115</v>
+      </c>
+      <c r="H83" s="2">
+        <f>FLOOR((25+(5*B83))*0.25, 5)</f>
+        <v>1015</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="45"/>
+        <v>525</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <f t="shared" si="0"/>
+        <v>815</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="46"/>
+        <v>820</v>
+      </c>
+      <c r="C84" s="2">
+        <v>999</v>
+      </c>
+      <c r="F84" t="s">
+        <v>371</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" ref="G84" si="57">FLOOR((25+(5*B84))*1.01, 5)</f>
+        <v>4165</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" ref="H84" si="58">FLOOR((25+(5*B84))*0.25, 5)</f>
+        <v>1030</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="45"/>
+        <v>525</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="46"/>
+        <v>830</v>
+      </c>
+      <c r="C85" s="2">
+        <v>999</v>
+      </c>
+      <c r="F85" t="s">
+        <v>372</v>
+      </c>
+      <c r="G85" s="2">
+        <f>FLOOR((25+(5*B85))*1.5, 5)</f>
+        <v>6260</v>
+      </c>
+      <c r="H85" s="2">
+        <f>FLOOR((25+(5*B85))*0.75, 5)</f>
+        <v>3130</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="45"/>
+        <v>525</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <f t="shared" si="0"/>
+        <v>835</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="46"/>
+        <v>840</v>
+      </c>
+      <c r="C86" s="2">
+        <v>999</v>
+      </c>
+      <c r="F86" t="s">
+        <v>373</v>
+      </c>
+      <c r="G86" s="2">
+        <f>FLOOR((25+(5*B86))*1.01, 5)</f>
+        <v>4265</v>
+      </c>
+      <c r="H86" s="2">
+        <f>FLOOR((25+(5*B86))*0.25, 5)</f>
+        <v>1055</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="45"/>
+        <v>550</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="46"/>
+        <v>850</v>
+      </c>
+      <c r="C87" s="2">
+        <v>999</v>
+      </c>
+      <c r="F87" t="s">
+        <v>374</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" ref="G87" si="59">FLOOR((25+(5*B87))*1.01, 5)</f>
+        <v>4315</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" ref="H87" si="60">FLOOR((25+(5*B87))*0.25, 5)</f>
+        <v>1065</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="45"/>
+        <v>550</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <f t="shared" si="0"/>
+        <v>855</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="46"/>
+        <v>860</v>
+      </c>
+      <c r="C88" s="2">
+        <v>999</v>
+      </c>
+      <c r="F88" t="s">
+        <v>375</v>
+      </c>
+      <c r="G88" s="2">
+        <f>FLOOR((25+(5*B88))*1.5, 5)</f>
+        <v>6485</v>
+      </c>
+      <c r="H88" s="2">
+        <f>FLOOR((25+(5*B88))*0.75, 5)</f>
+        <v>3240</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="45"/>
+        <v>550</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="46"/>
+        <v>870</v>
+      </c>
+      <c r="C89" s="2">
+        <v>999</v>
+      </c>
+      <c r="F89" t="s">
+        <v>385</v>
+      </c>
+      <c r="G89" s="2">
+        <f>FLOOR((25+(5*B89))*1.01, 5)</f>
+        <v>4415</v>
+      </c>
+      <c r="H89" s="2">
+        <f>FLOOR((25+(5*B89))*0.25, 5)</f>
+        <v>1090</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="45"/>
+        <v>550</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="46"/>
+        <v>880</v>
+      </c>
+      <c r="C90" s="2">
+        <v>999</v>
+      </c>
+      <c r="F90" t="s">
+        <v>386</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" ref="G90" si="61">FLOOR((25+(5*B90))*1.01, 5)</f>
+        <v>4465</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" ref="H90" si="62">FLOOR((25+(5*B90))*0.25, 5)</f>
+        <v>1105</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="45"/>
+        <v>575</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <f t="shared" si="0"/>
+        <v>885</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="46"/>
+        <v>890</v>
+      </c>
+      <c r="C91" s="2">
+        <v>999</v>
+      </c>
+      <c r="F91" t="s">
+        <v>387</v>
+      </c>
+      <c r="G91" s="2">
+        <f>FLOOR((25+(5*B91))*1.5, 5)</f>
+        <v>6710</v>
+      </c>
+      <c r="H91" s="2">
+        <f>FLOOR((25+(5*B91))*0.75, 5)</f>
+        <v>3355</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="45"/>
+        <v>575</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="46"/>
+        <v>900</v>
+      </c>
+      <c r="C92" s="2">
+        <v>999</v>
+      </c>
+      <c r="F92" t="s">
+        <v>376</v>
+      </c>
+      <c r="G92" s="2">
+        <f>FLOOR((25+(5*B92))*1.01, 5)</f>
+        <v>4570</v>
+      </c>
+      <c r="H92" s="2">
+        <f>FLOOR((25+(5*B92))*0.25, 5)</f>
+        <v>1130</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="45"/>
+        <v>575</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <f t="shared" si="0"/>
+        <v>905</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="46"/>
+        <v>910</v>
+      </c>
+      <c r="C93" s="2">
+        <v>999</v>
+      </c>
+      <c r="F93" t="s">
+        <v>377</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" ref="G93" si="63">FLOOR((25+(5*B93))*1.01, 5)</f>
+        <v>4620</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" ref="H93" si="64">FLOOR((25+(5*B93))*0.25, 5)</f>
+        <v>1140</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="45"/>
+        <v>575</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <f t="shared" si="0"/>
+        <v>915</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="46"/>
+        <v>920</v>
+      </c>
+      <c r="C94" s="2">
+        <v>999</v>
+      </c>
+      <c r="F94" t="s">
+        <v>378</v>
+      </c>
+      <c r="G94" s="2">
+        <f>FLOOR((25+(5*B94))*1.5, 5)</f>
+        <v>6935</v>
+      </c>
+      <c r="H94" s="2">
+        <f>FLOOR((25+(5*B94))*0.75, 5)</f>
+        <v>3465</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="45"/>
+        <v>600</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="46"/>
+        <v>930</v>
+      </c>
+      <c r="C95" s="2">
+        <v>999</v>
+      </c>
+      <c r="F95" t="s">
+        <v>379</v>
+      </c>
+      <c r="G95" s="2">
+        <f>FLOOR((25+(5*B95))*1.01, 5)</f>
+        <v>4720</v>
+      </c>
+      <c r="H95" s="2">
+        <f>FLOOR((25+(5*B95))*0.25, 5)</f>
+        <v>1165</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="45"/>
+        <v>600</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="46"/>
+        <v>940</v>
+      </c>
+      <c r="C96" s="2">
+        <v>999</v>
+      </c>
+      <c r="F96" t="s">
+        <v>380</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" ref="G96" si="65">FLOOR((25+(5*B96))*1.01, 5)</f>
+        <v>4770</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" ref="H96" si="66">FLOOR((25+(5*B96))*0.25, 5)</f>
+        <v>1180</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="45"/>
+        <v>600</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="46"/>
+        <v>950</v>
+      </c>
+      <c r="C97" s="2">
+        <v>999</v>
+      </c>
+      <c r="F97" t="s">
+        <v>381</v>
+      </c>
+      <c r="G97" s="2">
+        <f>FLOOR((25+(5*B97))*1.5, 5)</f>
+        <v>7160</v>
+      </c>
+      <c r="H97" s="2">
+        <f>FLOOR((25+(5*B97))*0.75, 5)</f>
+        <v>3580</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="45"/>
+        <v>600</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <f>MAX(B98-10,1)</f>
+        <v>470</v>
+      </c>
+      <c r="B98" s="2">
+        <v>480</v>
+      </c>
+      <c r="C98" s="2">
+        <v>999</v>
+      </c>
+      <c r="D98" t="s">
+        <v>440</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F98" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98" s="2">
+        <f>FLOOR((25+(5*B98))*1.5, 5)</f>
+        <v>3635</v>
+      </c>
+      <c r="H98" s="2">
+        <f>FLOOR((25+(5*B98))*0.75, 5)</f>
+        <v>1815</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="45"/>
+        <v>325</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6934B158-56C4-467D-9F58-107E37AEF246}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -1951,477 +6164,6 @@
       </c>
       <c r="K16" t="s">
         <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>312</v>
-      </c>
-      <c r="J5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>313</v>
-      </c>
-      <c r="J6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8">
-        <v>150</v>
-      </c>
-      <c r="F8">
-        <v>125</v>
-      </c>
-      <c r="G8">
-        <v>75</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9">
-        <v>150</v>
-      </c>
-      <c r="F9">
-        <v>125</v>
-      </c>
-      <c r="G9">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>75</v>
-      </c>
-      <c r="B10">
-        <v>999</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="F10">
-        <v>150</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>317</v>
-      </c>
-      <c r="J10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>318</v>
-      </c>
-      <c r="J11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12">
-        <v>150</v>
-      </c>
-      <c r="H12">
-        <v>1.05</v>
-      </c>
-      <c r="I12" t="s">
-        <v>319</v>
-      </c>
-      <c r="J12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13">
-        <v>400</v>
-      </c>
-      <c r="F13">
-        <v>400</v>
-      </c>
-      <c r="G13">
-        <v>250</v>
-      </c>
-      <c r="H13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>320</v>
-      </c>
-      <c r="J13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>999</v>
-      </c>
-      <c r="C15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I15" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4317,8 +8059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61E54B1-4E1F-4F39-BC42-A63E31143326}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,7 +8786,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,7 +8844,7 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>16.369999999999997</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5125,7 +8867,7 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>22.619999999999997</v>
+        <v>20.869999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5148,7 +8890,7 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>27.619999999999997</v>
+        <v>26.619999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5171,7 +8913,7 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>32.619999999999997</v>
+        <v>31.619999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5194,7 +8936,7 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>35.119999999999997</v>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5217,7 +8959,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>35.869999999999997</v>
+        <v>37.369999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5240,7 +8982,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>40.619999999999997</v>
+        <v>38.619999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5286,7 +9028,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>46.12</v>
+        <v>45.37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5309,7 +9051,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>46.62</v>
+        <v>45.62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5332,7 +9074,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>47.12</v>
+        <v>51.37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,7 +9097,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>47.87</v>
+        <v>55.87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5378,7 +9120,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>51.62</v>
+        <v>57.37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5401,7 +9143,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>56.87</v>
+        <v>61.12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5424,7 +9166,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>58.12</v>
+        <v>63.87</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,7 +9189,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>61.12</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5470,7 +9212,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>65.87</v>
+        <v>68.37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5493,7 +9235,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>66.87</v>
+        <v>70.87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5516,7 +9258,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>71.87</v>
+        <v>76.87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5539,7 +9281,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>75.87</v>
+        <v>82.37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5562,7 +9304,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>76.37</v>
+        <v>86.87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,7 +9327,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>77.87</v>
+        <v>92.12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CABD8D7-3455-496B-8833-FA96A6A8D95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D6BD2-E26E-4F71-A315-230E2622FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-285" windowWidth="38640" windowHeight="21120" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
+    <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
   <sheets>
     <sheet name="Pirate" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="432">
   <si>
     <t>Level</t>
   </si>
@@ -973,261 +973,54 @@
     <t>Pirate Brigand++</t>
   </si>
   <si>
-    <t>Pirate Brigand+</t>
-  </si>
-  <si>
     <t>Pirate Freebooter++</t>
   </si>
   <si>
-    <t>Pirate Freebooter+</t>
-  </si>
-  <si>
-    <t>Pirate Rover+</t>
-  </si>
-  <si>
     <t>Pirate Rover++</t>
   </si>
   <si>
-    <t>Pirate Marauder+</t>
-  </si>
-  <si>
     <t>Pirate Marauder++</t>
   </si>
   <si>
-    <t>Pirate Corsair+</t>
-  </si>
-  <si>
     <t>Pirate Corsair++</t>
   </si>
   <si>
-    <t>Pirate Legend+</t>
-  </si>
-  <si>
     <t>Pirate Legend++</t>
   </si>
   <si>
-    <t>Pirate Plunderer+</t>
-  </si>
-  <si>
     <t>Pirate Plunderer++</t>
   </si>
   <si>
-    <t>Pirate Reaver+</t>
-  </si>
-  <si>
     <t>Pirate Reaver++</t>
   </si>
   <si>
-    <t>Pirate Cutthroat+</t>
-  </si>
-  <si>
     <t>Pirate Cutthroat++</t>
   </si>
   <si>
-    <t>Pirate Flayer+</t>
-  </si>
-  <si>
     <t>Pirate Flayer++</t>
   </si>
   <si>
-    <t>Pirate Captain+</t>
-  </si>
-  <si>
     <t>Pirate Captain++</t>
   </si>
   <si>
-    <t>Form ID</t>
-  </si>
-  <si>
-    <t>Pirate Dragon</t>
-  </si>
-  <si>
-    <t>Pirate Dragon+</t>
-  </si>
-  <si>
-    <t>Pirate Dragon++</t>
-  </si>
-  <si>
     <t>Pirate Cabinboy</t>
   </si>
   <si>
-    <t>Pirate Cabinboy+</t>
-  </si>
-  <si>
     <t>Pirate Cabinboy++</t>
   </si>
   <si>
     <t>Pirate Ammo Monkey++</t>
   </si>
   <si>
-    <t>Pirate Ammo Monkey+</t>
-  </si>
-  <si>
     <t>Pirate Ammo Monkey</t>
   </si>
   <si>
-    <t>Special Pirate Cabinboy</t>
-  </si>
-  <si>
-    <t>Special Pirate Cabinboy+</t>
-  </si>
-  <si>
-    <t>Special Pirate Cabinboy++</t>
-  </si>
-  <si>
-    <t>Special Pirate Ammo Monkey</t>
-  </si>
-  <si>
-    <t>Special Pirate Ammo Monkey+</t>
-  </si>
-  <si>
-    <t>Special Pirate Ammo Monkey++</t>
-  </si>
-  <si>
-    <t>Special Pirate Brigand</t>
-  </si>
-  <si>
-    <t>Special Pirate Brigand+</t>
-  </si>
-  <si>
-    <t>Special Pirate Brigand++</t>
-  </si>
-  <si>
-    <t>Special Pirate Freebooter</t>
-  </si>
-  <si>
-    <t>Special Pirate Freebooter+</t>
-  </si>
-  <si>
-    <t>Special Pirate Freebooter++</t>
-  </si>
-  <si>
-    <t>Special Pirate Rover</t>
-  </si>
-  <si>
-    <t>Special Pirate Rover+</t>
-  </si>
-  <si>
-    <t>Special Pirate Rover++</t>
-  </si>
-  <si>
-    <t>Special Pirate Marauder</t>
-  </si>
-  <si>
-    <t>Special Pirate Marauder+</t>
-  </si>
-  <si>
-    <t>Special Pirate Marauder++</t>
-  </si>
-  <si>
-    <t>Special Pirate Corsair</t>
-  </si>
-  <si>
-    <t>Special Pirate Corsair+</t>
-  </si>
-  <si>
-    <t>Special Pirate Corsair++</t>
-  </si>
-  <si>
-    <t>Special Pirate Plunderer</t>
-  </si>
-  <si>
-    <t>Special Pirate Plunderer+</t>
-  </si>
-  <si>
-    <t>Special Pirate Plunderer++</t>
-  </si>
-  <si>
-    <t>Special Pirate Reaver</t>
-  </si>
-  <si>
-    <t>Special Pirate Reaver+</t>
-  </si>
-  <si>
-    <t>Special Pirate Reaver++</t>
-  </si>
-  <si>
-    <t>Special Pirate Cutthroat</t>
-  </si>
-  <si>
-    <t>Special Pirate Cutthroat+</t>
-  </si>
-  <si>
-    <t>Special Pirate Cutthroat++</t>
-  </si>
-  <si>
-    <t>Special Pirate Flayer</t>
-  </si>
-  <si>
-    <t>Special Pirate Flayer+</t>
-  </si>
-  <si>
-    <t>Special Pirate Flayer++</t>
-  </si>
-  <si>
-    <t>Special Pirate Dragon</t>
-  </si>
-  <si>
-    <t>Special Pirate Dragon+</t>
-  </si>
-  <si>
-    <t>Special Pirate Dragon++</t>
-  </si>
-  <si>
-    <t>Special Pirate Captain</t>
-  </si>
-  <si>
-    <t>Special Pirate Captain+</t>
-  </si>
-  <si>
-    <t>Special Pirate Captain++</t>
-  </si>
-  <si>
-    <t>Special Pirate Legend</t>
-  </si>
-  <si>
-    <t>Special Pirate Legend+</t>
-  </si>
-  <si>
-    <t>Special Pirate Legend++</t>
-  </si>
-  <si>
-    <t>Pirate Quartermaster</t>
-  </si>
-  <si>
-    <t>Pirate Quartermaster+</t>
-  </si>
-  <si>
-    <t>Pirate Quartermaster++</t>
-  </si>
-  <si>
-    <t>Special Pirate Quartermaster</t>
-  </si>
-  <si>
-    <t>Special Pirate Quartermaster+</t>
-  </si>
-  <si>
-    <t>Special Pirate Quartermaster++</t>
-  </si>
-  <si>
     <t>Pirate Gunner</t>
   </si>
   <si>
-    <t>Pirate Gunner+</t>
-  </si>
-  <si>
     <t>Pirate Gunner++</t>
   </si>
   <si>
-    <t>Special Pirate Gunner</t>
-  </si>
-  <si>
-    <t>Special Pirate Gunner+</t>
-  </si>
-  <si>
-    <t>Special Pirate Gunner++</t>
-  </si>
-  <si>
     <t>Normal Version with Special Damage Types == +</t>
   </si>
   <si>
@@ -1237,262 +1030,316 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>EncCrimsonFleet01P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet01P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet13P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet11P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet12P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet14P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet13</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet14</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet13P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet02P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet02P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet03P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet15P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet03P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet12P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet05P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet04P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet04P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet07P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet06P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet09P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet08P2</t>
-  </si>
-  <si>
-    <t>[NPC_:0400097A]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000979]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000978]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000977]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000976]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400097B]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400097C]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400097D]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400097E]</t>
-  </si>
-  <si>
-    <t>[NPC_:00010B2E]</t>
-  </si>
-  <si>
-    <t>[NPC_:00010B38]</t>
-  </si>
-  <si>
-    <t>[NPC_:00009CED]</t>
-  </si>
-  <si>
-    <t>[NPC_:00009CEF]</t>
-  </si>
-  <si>
-    <t>[NPC_:00009CEE]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D034]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D033]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D032]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D031]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D030]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D02F]</t>
-  </si>
-  <si>
-    <t>[NPC_:0012D02E]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleetEXP</t>
-  </si>
-  <si>
-    <t>[NPC_:0400097F]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000980]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet15</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet16</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet14P2</t>
-  </si>
-  <si>
-    <t>[NPC_:04000981]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000982]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000983]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet05P1</t>
-  </si>
-  <si>
-    <t>[NPC_:04000984]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000985]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet06P1</t>
-  </si>
-  <si>
-    <t>[NPC_:04000986]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000987]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet07P1</t>
-  </si>
-  <si>
-    <t>[NPC_:04000988]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000989]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet08P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet09P1</t>
-  </si>
-  <si>
-    <t>[NPC_:0400098A]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400098B]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400098C]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400098D]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet10P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet10P2</t>
-  </si>
-  <si>
-    <t>[NPC_:0400098E]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400098F]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet15P2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet16P1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet16P2</t>
-  </si>
-  <si>
-    <t>[NPC_:04000990]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000992]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000991]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000993]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000994]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000995]</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet11P2</t>
-  </si>
-  <si>
-    <t>[NPC_:04000996]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000997]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000998]</t>
-  </si>
-  <si>
-    <t>[NPC_:04000999]</t>
-  </si>
-  <si>
-    <t>[NPC_:0400099A]</t>
+    <t>Pirate First Mate++</t>
+  </si>
+  <si>
+    <t>Pirate Master-at-Arms++</t>
+  </si>
+  <si>
+    <t>Pirate Navigator++</t>
+  </si>
+  <si>
+    <t>Pirate Striker++</t>
+  </si>
+  <si>
+    <t>Pirate Bo'sun++</t>
+  </si>
+  <si>
+    <t>Pirate Cook++</t>
+  </si>
+  <si>
+    <t>Pirate Striker</t>
+  </si>
+  <si>
+    <t>Pirate Cook</t>
+  </si>
+  <si>
+    <t>Pirate Bo'sun</t>
+  </si>
+  <si>
+    <t>Pirate Navigator</t>
+  </si>
+  <si>
+    <t>Pirate Master-at-Arms</t>
+  </si>
+  <si>
+    <t>Pirate First Mate</t>
+  </si>
+  <si>
+    <t>Pirate Experimentor++</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet13MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet14MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet02MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet03MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet04MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet05MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet06MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet07MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet08MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet09MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet10MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet15MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet16MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet17MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet17MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet17MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet17MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet17MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet18MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet18MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet18MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet18MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet18MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet19MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet19MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet19MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet19MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet19MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet20MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet20MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet20MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet20MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet20MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet21MK1</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet21MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet21MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet21MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet21MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet11MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12MK2</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12MK3</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12MK4</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleet12MK5</t>
+  </si>
+  <si>
+    <t>EncCrimsonFleetExpMK5</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1400,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,13 +1408,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1575,12 +1425,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1992,3677 +1836,2781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="2">
+        <f>FLOOR((25+(5*A2))*1.01, 5)</f>
+        <v>30</v>
+      </c>
+      <c r="E2" s="2">
+        <f>FLOOR((25+(5*A2))*0.25, 5)</f>
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <f>CEILING(((25+(5*A2))*0.25)/2, 25)</f>
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D66" si="0">FLOOR((25+(5*A3))*1.01, 5)</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="1">FLOOR((25+(5*A3))*0.25, 5)</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F66" si="2">CEILING(((25+(5*A3))*0.25)/2, 25)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <f>FLOOR(A2+10,10)</f>
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <f>FLOOR(A4+10,10)</f>
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="3">
+        <f>FLOOR((25+(5*A7))*1.5, 5)</f>
+        <v>225</v>
+      </c>
+      <c r="E7" s="3">
+        <f>FLOOR((25+(5*A7))*0.5, 5)</f>
+        <v>75</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <f>FLOOR(A6+10,10)</f>
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <f t="shared" ref="A12" si="3">FLOOR(A11+10,10)</f>
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="3">
+        <f>FLOOR((25+(5*A12))*1.5, 5)</f>
+        <v>410</v>
+      </c>
+      <c r="E12" s="3">
+        <f>FLOOR((25+(5*A12))*0.5, 5)</f>
+        <v>135</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <f>FLOOR(A12+10,10)</f>
+        <v>60</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <f>FLOOR(A14+10,10)</f>
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D17" s="3">
+        <f>FLOOR((25+(5*A17))*1.5, 5)</f>
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
+        <f>FLOOR((25+(5*A17))*0.5, 5)</f>
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <f>FLOOR(A16+10,10)</f>
+        <v>80</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <f>FLOOR(A18+10,10)</f>
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <f>FLOOR(A20+10,10)</f>
+        <v>100</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="3">
+        <f>FLOOR((25+(5*A22))*1.5, 5)</f>
+        <v>785</v>
+      </c>
+      <c r="E22" s="3">
+        <f>FLOOR((25+(5*A22))*0.5, 5)</f>
+        <v>260</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <f>FLOOR(A22+10,10)</f>
+        <v>110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <f>FLOOR(A24+10,10)</f>
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>125</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="3">
+        <f>FLOOR((25+(5*A27))*1.5, 5)</f>
+        <v>975</v>
+      </c>
+      <c r="E27" s="3">
+        <f>FLOOR((25+(5*A27))*0.5, 5)</f>
+        <v>325</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <f>FLOOR(A26+10,10)</f>
+        <v>130</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>135</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>705</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <f>FLOOR(A28+10,10)</f>
+        <v>140</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>145</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <f>FLOOR(A30+10,10)</f>
+        <v>150</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="3">
+        <f>FLOOR((25+(5*A32))*1.5, 5)</f>
+        <v>1160</v>
+      </c>
+      <c r="E32" s="3">
+        <f>FLOOR((25+(5*A32))*0.5, 5)</f>
+        <v>385</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>155</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <f>FLOOR(A32+10,10)</f>
+        <v>160</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>830</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>165</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>855</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <f>FLOOR(A34+10,10)</f>
+        <v>170</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>175</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="3">
+        <f>FLOOR((25+(5*A37))*1.5, 5)</f>
+        <v>1350</v>
+      </c>
+      <c r="E37" s="3">
+        <f>FLOOR((25+(5*A37))*0.5, 5)</f>
+        <v>450</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <f>FLOOR(A36+10,10)</f>
+        <v>180</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>185</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>955</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <f>FLOOR(A38+10,10)</f>
+        <v>190</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>195</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <f>FLOOR(A40+10,10)</f>
+        <v>200</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="3">
+        <f>FLOOR((25+(5*A42))*1.5, 5)</f>
+        <v>1535</v>
+      </c>
+      <c r="E42" s="3">
+        <f>FLOOR((25+(5*A42))*0.5, 5)</f>
+        <v>510</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>205</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <f>FLOOR(A42+10,10)</f>
+        <v>210</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>215</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <f>FLOOR(A44+10,10)</f>
+        <v>220</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>1135</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>225</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="3">
+        <f>FLOOR((25+(5*A47))*1.5, 5)</f>
+        <v>1725</v>
+      </c>
+      <c r="E47" s="3">
+        <f>FLOOR((25+(5*A47))*0.5, 5)</f>
+        <v>575</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <f>FLOOR(A46+10,10)</f>
+        <v>230</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>1185</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>235</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <f>FLOOR(A48+10,10)</f>
+        <v>240</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>1235</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>245</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <f>FLOOR(A50+10,10)</f>
+        <v>250</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" s="3">
+        <f>FLOOR((25+(5*A52))*1.5, 5)</f>
+        <v>1910</v>
+      </c>
+      <c r="E52" s="3">
+        <f>FLOOR((25+(5*A52))*0.5, 5)</f>
+        <v>635</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>255</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>1310</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <f>FLOOR(A52+10,10)</f>
+        <v>260</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>1335</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f>MAX(B2-5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>999</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F54" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>265</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <f>FLOOR(A54+10,10)</f>
+        <v>270</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>1385</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>275</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" s="3">
+        <f>FLOOR((25+(5*A57))*1.5, 5)</f>
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
+        <f>FLOOR((25+(5*A57))*0.5, 5)</f>
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <f>FLOOR(A56+10,10)</f>
+        <v>280</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G2" s="2">
-        <f>FLOOR((25+(5*B2))*1.01, 5)</f>
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <f>FLOOR((25+(5*B2))*0.25, 5)</f>
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <f>CEILING(((25+(5*B2))*0.25)/2, 25)</f>
-        <v>25</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="D58" s="3">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="1"/>
+        <v>355</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <f t="shared" ref="A3:A97" si="0">MAX(B3-5,1)</f>
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <f>FLOOR(B2+10,10)</f>
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>999</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>285</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="0"/>
+        <v>1460</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <f>FLOOR(A58+10,10)</f>
+        <v>290</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="0"/>
+        <v>1485</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>295</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="0"/>
+        <v>1515</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <f>FLOOR(A60+10,10)</f>
+        <v>300</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" s="3">
+        <f>FLOOR((25+(5*A62))*1.5, 5)</f>
+        <v>2285</v>
+      </c>
+      <c r="E62" s="3">
+        <f>FLOOR((25+(5*A62))*0.5, 5)</f>
+        <v>760</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>305</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="0"/>
+        <v>1565</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <f>FLOOR(A62+10,10)</f>
+        <v>310</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>315</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="0"/>
+        <v>1615</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <f>FLOOR(A64+10,10)</f>
+        <v>320</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>325</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="3">
+        <f>FLOOR((25+(5*A67))*1.5, 5)</f>
+        <v>2475</v>
+      </c>
+      <c r="E67" s="3">
+        <f>FLOOR((25+(5*A67))*0.5, 5)</f>
+        <v>825</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" ref="F67:F103" si="4">CEILING(((25+(5*A67))*0.25)/2, 25)</f>
+        <v>225</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <f>FLOOR(A66+10,10)</f>
+        <v>330</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G6" si="1">FLOOR((25+(5*B3))*1.01, 5)</f>
-        <v>75</v>
-      </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H6" si="2">FLOOR((25+(5*B3))*0.25, 5)</f>
-        <v>15</v>
-      </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="3">CEILING(((25+(5*B3))*0.25)/2, 25)</f>
-        <v>25</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="D68" s="3">
+        <f t="shared" ref="D67:D103" si="5">FLOOR((25+(5*A68))*1.01, 5)</f>
+        <v>1690</v>
+      </c>
+      <c r="E68" s="3">
+        <f>FLOOR((25+(5*A68))*0.25, 5)</f>
+        <v>415</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" ref="B4:B67" si="4">FLOOR(B3+10,10)</f>
-        <v>20</v>
-      </c>
-      <c r="C4" s="4">
-        <v>999</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>335</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="5"/>
+        <v>1715</v>
+      </c>
+      <c r="E69" s="3">
+        <f>FLOOR((25+(5*A69))*0.25, 5)</f>
+        <v>425</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <f>FLOOR(A68+10,10)</f>
+        <v>340</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="5"/>
+        <v>1740</v>
+      </c>
+      <c r="E70" s="3">
+        <f>FLOOR((25+(5*A70))*0.25, 5)</f>
+        <v>430</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>345</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="5"/>
+        <v>1765</v>
+      </c>
+      <c r="E71" s="3">
+        <f>FLOOR((25+(5*A71))*0.25, 5)</f>
+        <v>435</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <f>FLOOR(A70+10,10)</f>
+        <v>350</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="3">
+        <f>FLOOR((25+(5*A72))*1.5, 5)</f>
+        <v>2660</v>
+      </c>
+      <c r="E72" s="3">
+        <f>FLOOR((25+(5*A72))*0.5, 5)</f>
+        <v>885</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>355</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G4" s="4">
-        <f>FLOOR((25+(5*B4))*1.5, 5)</f>
-        <v>185</v>
-      </c>
-      <c r="H4" s="4">
-        <f>FLOOR((25+(5*B4))*0.75, 5)</f>
-        <v>90</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="D73" s="3">
+        <f t="shared" si="5"/>
+        <v>1815</v>
+      </c>
+      <c r="E73" s="3">
+        <f>FLOOR((25+(5*A73))*0.25, 5)</f>
+        <v>450</v>
+      </c>
+      <c r="F73" s="3">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
-        <v>999</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="4">
-        <f>FLOOR((25+(5*B5))*1.01, 5)</f>
-        <v>175</v>
-      </c>
-      <c r="H5" s="4">
-        <f>FLOOR((25+(5*B5))*0.25, 5)</f>
-        <v>40</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B6" s="4">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="C6" s="4">
-        <v>999</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B7" s="4">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="C7" s="4">
-        <v>999</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="G7" s="4">
-        <f>FLOOR((25+(5*B7))*1.5, 5)</f>
-        <v>410</v>
-      </c>
-      <c r="H7" s="4">
-        <f>FLOOR((25+(5*B7))*0.75, 5)</f>
-        <v>205</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B8" s="4">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="C8" s="4">
-        <v>999</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="4">
-        <f>FLOOR((25+(5*B8))*1.01, 5)</f>
-        <v>325</v>
-      </c>
-      <c r="H8" s="4">
-        <f>FLOOR((25+(5*B8))*0.25, 5)</f>
-        <v>80</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B9" s="4">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="C9" s="4">
-        <v>999</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" ref="G9" si="5">FLOOR((25+(5*B9))*1.01, 5)</f>
-        <v>375</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" ref="H9" si="6">FLOOR((25+(5*B9))*0.25, 5)</f>
-        <v>90</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="B10" s="4">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="C10" s="4">
-        <v>999</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="4">
-        <f>FLOOR((25+(5*B10))*1.5, 5)</f>
-        <v>635</v>
-      </c>
-      <c r="H10" s="4">
-        <f>FLOOR((25+(5*B10))*0.75, 5)</f>
-        <v>315</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="B11" s="4">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C11" s="4">
-        <v>999</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="4">
-        <f>FLOOR((25+(5*B11))*1.01, 5)</f>
-        <v>475</v>
-      </c>
-      <c r="H11" s="4">
-        <f>FLOOR((25+(5*B11))*0.25, 5)</f>
-        <v>115</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="C12" s="4">
-        <v>999</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12" si="7">FLOOR((25+(5*B12))*1.01, 5)</f>
-        <v>530</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" ref="H12" si="8">FLOOR((25+(5*B12))*0.25, 5)</f>
-        <v>130</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="C13" s="4">
-        <v>999</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="4">
-        <f>FLOOR((25+(5*B13))*1.5, 5)</f>
-        <v>860</v>
-      </c>
-      <c r="H13" s="4">
-        <f>FLOOR((25+(5*B13))*0.75, 5)</f>
-        <v>430</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="C14" s="4">
-        <v>999</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="4">
-        <f>FLOOR((25+(5*B14))*1.01, 5)</f>
-        <v>630</v>
-      </c>
-      <c r="H14" s="4">
-        <f>FLOOR((25+(5*B14))*0.25, 5)</f>
-        <v>155</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="4"/>
-        <v>130</v>
-      </c>
-      <c r="C15" s="4">
-        <v>999</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15" si="9">FLOOR((25+(5*B15))*1.01, 5)</f>
-        <v>680</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" ref="H15" si="10">FLOOR((25+(5*B15))*0.25, 5)</f>
-        <v>165</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="C16" s="4">
-        <v>999</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="4">
-        <f>FLOOR((25+(5*B16))*1.5, 5)</f>
-        <v>1085</v>
-      </c>
-      <c r="H16" s="4">
-        <f>FLOOR((25+(5*B16))*0.75, 5)</f>
-        <v>540</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="C17" s="4">
-        <v>999</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <f>FLOOR(A72+10,10)</f>
+        <v>360</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="4">
-        <f>FLOOR((25+(5*B17))*1.01, 5)</f>
-        <v>780</v>
-      </c>
-      <c r="H17" s="4">
-        <f>FLOOR((25+(5*B17))*0.25, 5)</f>
-        <v>190</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="C18" s="4">
-        <v>999</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" ref="G18" si="11">FLOOR((25+(5*B18))*1.01, 5)</f>
-        <v>830</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" ref="H18" si="12">FLOOR((25+(5*B18))*0.25, 5)</f>
-        <v>205</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="J18" s="4">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="C19" s="4">
-        <v>999</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G19" s="4">
-        <f>FLOOR((25+(5*B19))*1.5, 5)</f>
-        <v>1310</v>
-      </c>
-      <c r="H19" s="4">
-        <f>FLOOR((25+(5*B19))*0.75, 5)</f>
-        <v>655</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="C20" s="4">
-        <v>999</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="4">
-        <f>FLOOR((25+(5*B20))*1.01, 5)</f>
-        <v>930</v>
-      </c>
-      <c r="H20" s="4">
-        <f>FLOOR((25+(5*B20))*0.25, 5)</f>
-        <v>230</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="4"/>
-        <v>190</v>
-      </c>
-      <c r="C21" s="4">
-        <v>999</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" ref="G21" si="13">FLOOR((25+(5*B21))*1.01, 5)</f>
-        <v>980</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" ref="H21" si="14">FLOOR((25+(5*B21))*0.25, 5)</f>
-        <v>240</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="J21" s="4">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="C22" s="4">
-        <v>999</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G22" s="4">
-        <f>FLOOR((25+(5*B22))*1.5, 5)</f>
-        <v>1535</v>
-      </c>
-      <c r="H22" s="4">
-        <f>FLOOR((25+(5*B22))*0.75, 5)</f>
-        <v>765</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="B23" s="4">
-        <f t="shared" si="4"/>
-        <v>210</v>
-      </c>
-      <c r="C23" s="4">
-        <v>999</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="4">
-        <f>FLOOR((25+(5*B23))*1.01, 5)</f>
-        <v>1085</v>
-      </c>
-      <c r="H23" s="4">
-        <f>FLOOR((25+(5*B23))*0.25, 5)</f>
-        <v>265</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="B24" s="4">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="C24" s="4">
-        <v>999</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" ref="G24" si="15">FLOOR((25+(5*B24))*1.01, 5)</f>
-        <v>1135</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" ref="H24" si="16">FLOOR((25+(5*B24))*0.25, 5)</f>
-        <v>280</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="B25" s="4">
-        <f t="shared" si="4"/>
-        <v>230</v>
-      </c>
-      <c r="C25" s="4">
-        <v>999</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="4">
-        <f>FLOOR((25+(5*B25))*1.5, 5)</f>
-        <v>1760</v>
-      </c>
-      <c r="H25" s="4">
-        <f>FLOOR((25+(5*B25))*0.75, 5)</f>
-        <v>880</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="C26" s="4">
-        <v>999</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="4">
-        <f>FLOOR((25+(5*B26))*1.01, 5)</f>
-        <v>1235</v>
-      </c>
-      <c r="H26" s="4">
-        <f>FLOOR((25+(5*B26))*0.25, 5)</f>
-        <v>305</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="C74" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="5"/>
+        <v>1840</v>
+      </c>
+      <c r="E74" s="3">
+        <f>FLOOR((25+(5*A74))*0.25, 5)</f>
+        <v>455</v>
+      </c>
+      <c r="F74" s="3">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="C27" s="4">
-        <v>999</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" ref="G27" si="17">FLOOR((25+(5*B27))*1.01, 5)</f>
-        <v>1285</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" ref="H27" si="18">FLOOR((25+(5*B27))*0.25, 5)</f>
-        <v>315</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>365</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="5"/>
+        <v>1865</v>
+      </c>
+      <c r="E75" s="3">
+        <f>FLOOR((25+(5*A75))*0.25, 5)</f>
+        <v>460</v>
+      </c>
+      <c r="F75" s="3">
         <f t="shared" si="4"/>
-        <v>260</v>
-      </c>
-      <c r="C28" s="4">
-        <v>999</v>
-      </c>
-      <c r="D28" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <f>FLOOR(A74+10,10)</f>
+        <v>370</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="5"/>
+        <v>1890</v>
+      </c>
+      <c r="E76" s="3">
+        <f>FLOOR((25+(5*A76))*0.25, 5)</f>
+        <v>465</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>375</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D77" s="3">
+        <f>FLOOR((25+(5*A77))*1.5, 5)</f>
+        <v>2850</v>
+      </c>
+      <c r="E77" s="3">
+        <f>FLOOR((25+(5*A77))*0.5, 5)</f>
+        <v>950</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <f>FLOOR(A76+10,10)</f>
+        <v>380</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="5"/>
+        <v>1940</v>
+      </c>
+      <c r="E78" s="3">
+        <f>FLOOR((25+(5*A78))*0.25, 5)</f>
+        <v>480</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>385</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="5"/>
+        <v>1965</v>
+      </c>
+      <c r="E79" s="3">
+        <f>FLOOR((25+(5*A79))*0.25, 5)</f>
+        <v>485</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <f>FLOOR(A78+10,10)</f>
+        <v>390</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="5"/>
+        <v>1990</v>
+      </c>
+      <c r="E80" s="3">
+        <f>FLOOR((25+(5*A80))*0.25, 5)</f>
+        <v>490</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>395</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+      <c r="E81" s="3">
+        <f>FLOOR((25+(5*A81))*0.25, 5)</f>
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <f>FLOOR(A80+10,10)</f>
+        <v>400</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D82" s="3">
+        <f>FLOOR((25+(5*A82))*1.5, 5)</f>
+        <v>3035</v>
+      </c>
+      <c r="E82" s="3">
+        <f>FLOOR((25+(5*A82))*0.5, 5)</f>
+        <v>1010</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>405</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="5"/>
+        <v>2070</v>
+      </c>
+      <c r="E83" s="3">
+        <f>FLOOR((25+(5*A83))*0.25, 5)</f>
+        <v>510</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <f>FLOOR(A82+10,10)</f>
+        <v>410</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="5"/>
+        <v>2095</v>
+      </c>
+      <c r="E84" s="3">
+        <f>FLOOR((25+(5*A84))*0.25, 5)</f>
+        <v>515</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <v>415</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G28" s="4">
-        <f>FLOOR((25+(5*B28))*1.5, 5)</f>
-        <v>1985</v>
-      </c>
-      <c r="H28" s="4">
-        <f>FLOOR((25+(5*B28))*0.75, 5)</f>
-        <v>990</v>
-      </c>
-      <c r="I28" s="4">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="B85" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="5"/>
+        <v>2120</v>
+      </c>
+      <c r="E85" s="3">
+        <f>FLOOR((25+(5*A85))*0.25, 5)</f>
+        <v>525</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <f>FLOOR(A84+10,10)</f>
+        <v>420</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="5"/>
+        <v>2145</v>
+      </c>
+      <c r="E86" s="3">
+        <f>FLOOR((25+(5*A86))*0.25, 5)</f>
+        <v>530</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>425</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" s="3">
+        <f>FLOOR((25+(5*A87))*1.5, 5)</f>
+        <v>3225</v>
+      </c>
+      <c r="E87" s="3">
+        <f>FLOOR((25+(5*A87))*0.5, 5)</f>
+        <v>1075</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <f>FLOOR(A86+10,10)</f>
+        <v>430</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="5"/>
+        <v>2195</v>
+      </c>
+      <c r="E88" s="3">
+        <f>FLOOR((25+(5*A88))*0.25, 5)</f>
+        <v>540</v>
+      </c>
+      <c r="F88" s="3">
         <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="C29" s="4">
-        <v>999</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
         <v>435</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="4">
-        <f>FLOOR((25+(5*B29))*1.01, 5)</f>
-        <v>1385</v>
-      </c>
-      <c r="H29" s="4">
-        <f>FLOOR((25+(5*B29))*0.25, 5)</f>
-        <v>340</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="B89" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="5"/>
+        <v>2220</v>
+      </c>
+      <c r="E89" s="3">
+        <f>FLOOR((25+(5*A89))*0.25, 5)</f>
+        <v>550</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="C30" s="4">
-        <v>999</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" ref="G30" si="19">FLOOR((25+(5*B30))*1.01, 5)</f>
-        <v>1435</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" ref="H30" si="20">FLOOR((25+(5*B30))*0.25, 5)</f>
-        <v>355</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="B31" s="4">
-        <f t="shared" si="4"/>
-        <v>290</v>
-      </c>
-      <c r="C31" s="4">
-        <v>999</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" s="4">
-        <f>FLOOR((25+(5*B31))*1.5, 5)</f>
-        <v>2210</v>
-      </c>
-      <c r="H31" s="4">
-        <f>FLOOR((25+(5*B31))*0.75, 5)</f>
-        <v>1105</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>295</v>
-      </c>
-      <c r="B32" s="4">
+    <row r="90" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <f>FLOOR(A88+10,10)</f>
+        <v>440</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="5"/>
+        <v>2245</v>
+      </c>
+      <c r="E90" s="3">
+        <f>FLOOR((25+(5*A90))*0.25, 5)</f>
+        <v>555</v>
+      </c>
+      <c r="F90" s="3">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="C32" s="4">
-        <v>999</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="4">
-        <f>FLOOR((25+(5*B32))*1.01, 5)</f>
-        <v>1540</v>
-      </c>
-      <c r="H32" s="4">
-        <f>FLOOR((25+(5*B32))*0.25, 5)</f>
-        <v>380</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="G90" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>445</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="5"/>
+        <v>2270</v>
+      </c>
+      <c r="E91" s="3">
+        <f>FLOOR((25+(5*A91))*0.25, 5)</f>
+        <v>560</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <f>FLOOR(A90+10,10)</f>
+        <v>450</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" s="3">
+        <f>FLOOR((25+(5*A92))*1.5, 5)</f>
+        <v>3410</v>
+      </c>
+      <c r="E92" s="3">
+        <f>FLOOR((25+(5*A92))*0.5, 5)</f>
+        <v>1135</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="4">
+    </row>
+    <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>455</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="5"/>
+        <v>2320</v>
+      </c>
+      <c r="E93" s="3">
+        <f>FLOOR((25+(5*A93))*0.25, 5)</f>
+        <v>575</v>
+      </c>
+      <c r="F93" s="3">
         <f t="shared" si="4"/>
-        <v>310</v>
-      </c>
-      <c r="C33" s="4">
-        <v>999</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" ref="G33" si="21">FLOOR((25+(5*B33))*1.01, 5)</f>
-        <v>1590</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" ref="H33" si="22">FLOOR((25+(5*B33))*0.25, 5)</f>
-        <v>390</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="94" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>460</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="5"/>
+        <v>2345</v>
+      </c>
+      <c r="E94" s="3">
+        <f>FLOOR((25+(5*A94))*0.25, 5)</f>
+        <v>580</v>
+      </c>
+      <c r="F94" s="3">
         <f t="shared" si="4"/>
-        <v>320</v>
-      </c>
-      <c r="C34" s="4">
-        <v>999</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F34" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>465</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="5"/>
+        <v>2370</v>
+      </c>
+      <c r="E95" s="3">
+        <f>FLOOR((25+(5*A95))*0.25, 5)</f>
+        <v>585</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>470</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="5"/>
+        <v>2395</v>
+      </c>
+      <c r="E96" s="3">
+        <f>FLOOR((25+(5*A96))*0.25, 5)</f>
+        <v>590</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>475</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" s="3">
+        <f>FLOOR((25+(5*A97))*1.5, 5)</f>
+        <v>3600</v>
+      </c>
+      <c r="E97" s="3">
+        <f>FLOOR((25+(5*A97))*0.5, 5)</f>
+        <v>1200</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>480</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="5"/>
+        <v>2445</v>
+      </c>
+      <c r="E98" s="3">
+        <f>FLOOR((25+(5*A98))*0.25, 5)</f>
+        <v>605</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" si="4"/>
         <v>325</v>
       </c>
-      <c r="G34" s="4">
-        <f>FLOOR((25+(5*B34))*1.5, 5)</f>
-        <v>2435</v>
-      </c>
-      <c r="H34" s="4">
-        <f>FLOOR((25+(5*B34))*0.75, 5)</f>
-        <v>1215</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5" t="s">
+      <c r="G98" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>485</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="5"/>
+        <v>2470</v>
+      </c>
+      <c r="E99" s="3">
+        <f>FLOOR((25+(5*A99))*0.25, 5)</f>
+        <v>610</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>490</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="5"/>
+        <v>2495</v>
+      </c>
+      <c r="E100" s="3">
+        <f>FLOOR((25+(5*A100))*0.25, 5)</f>
+        <v>615</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>495</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="5"/>
+        <v>2525</v>
+      </c>
+      <c r="E101" s="3">
+        <f>FLOOR((25+(5*A101))*0.25, 5)</f>
+        <v>625</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>500</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="3">
+        <f>FLOOR((25+(5*A102))*1.5, 5)</f>
+        <v>3785</v>
+      </c>
+      <c r="E102" s="3">
+        <f>FLOOR((25+(5*A102))*0.5, 5)</f>
+        <v>1260</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>500</v>
+      </c>
+      <c r="B103" t="s">
+        <v>431</v>
+      </c>
+      <c r="C103" t="s">
+        <v>340</v>
+      </c>
+      <c r="D103" s="2">
+        <f>FLOOR((25+(5*A103))*1.5, 5)</f>
+        <v>3785</v>
+      </c>
+      <c r="E103" s="2">
+        <f>FLOOR((25+(5*A103))*0.5, 5)</f>
+        <v>1260</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="4"/>
         <v>325</v>
       </c>
-      <c r="B35" s="4">
-        <f t="shared" si="4"/>
-        <v>330</v>
-      </c>
-      <c r="C35" s="4">
-        <v>999</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="4">
-        <f>FLOOR((25+(5*B35))*1.01, 5)</f>
-        <v>1690</v>
-      </c>
-      <c r="H35" s="4">
-        <f>FLOOR((25+(5*B35))*0.25, 5)</f>
-        <v>415</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="B36" s="4">
-        <f t="shared" si="4"/>
-        <v>340</v>
-      </c>
-      <c r="C36" s="4">
-        <v>999</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" ref="G36" si="23">FLOOR((25+(5*B36))*1.01, 5)</f>
-        <v>1740</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" ref="H36" si="24">FLOOR((25+(5*B36))*0.25, 5)</f>
-        <v>430</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="B37" s="4">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="C37" s="4">
-        <v>999</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G37" s="4">
-        <f>FLOOR((25+(5*B37))*1.5, 5)</f>
-        <v>2660</v>
-      </c>
-      <c r="H37" s="4">
-        <f>FLOOR((25+(5*B37))*0.75, 5)</f>
-        <v>1330</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="J37" s="4">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>355</v>
-      </c>
-      <c r="B38" s="4">
-        <f t="shared" si="4"/>
-        <v>360</v>
-      </c>
-      <c r="C38" s="4">
-        <v>999</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G38" s="4">
-        <f>FLOOR((25+(5*B38))*1.01, 5)</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="4">
-        <f>FLOOR((25+(5*B38))*0.25, 5)</f>
-        <v>455</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="J38" s="4">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-      <c r="B39" s="4">
-        <f t="shared" si="4"/>
-        <v>370</v>
-      </c>
-      <c r="C39" s="4">
-        <v>999</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" ref="G39" si="25">FLOOR((25+(5*B39))*1.01, 5)</f>
-        <v>1890</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" ref="H39" si="26">FLOOR((25+(5*B39))*0.25, 5)</f>
-        <v>465</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="B40" s="4">
-        <f t="shared" si="4"/>
-        <v>380</v>
-      </c>
-      <c r="C40" s="4">
-        <v>999</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G40" s="4">
-        <f>FLOOR((25+(5*B40))*1.5, 5)</f>
-        <v>2885</v>
-      </c>
-      <c r="H40" s="4">
-        <f>FLOOR((25+(5*B40))*0.75, 5)</f>
-        <v>1440</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>385</v>
-      </c>
-      <c r="B41" s="4">
-        <f t="shared" si="4"/>
-        <v>390</v>
-      </c>
-      <c r="C41" s="4">
-        <v>999</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G41" s="4">
-        <f>FLOOR((25+(5*B41))*1.01, 5)</f>
-        <v>1990</v>
-      </c>
-      <c r="H41" s="4">
-        <f>FLOOR((25+(5*B41))*0.25, 5)</f>
-        <v>490</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>395</v>
-      </c>
-      <c r="B42" s="4">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="C42" s="4">
-        <v>999</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" ref="G42" si="27">FLOOR((25+(5*B42))*1.01, 5)</f>
-        <v>2045</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" ref="H42" si="28">FLOOR((25+(5*B42))*0.25, 5)</f>
-        <v>505</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="B43" s="4">
-        <f t="shared" si="4"/>
-        <v>410</v>
-      </c>
-      <c r="C43" s="4">
-        <v>999</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G43" s="4">
-        <f>FLOOR((25+(5*B43))*1.5, 5)</f>
-        <v>3110</v>
-      </c>
-      <c r="H43" s="4">
-        <f>FLOOR((25+(5*B43))*0.75, 5)</f>
-        <v>1555</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="B44" s="4">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="C44" s="4">
-        <v>999</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="4">
-        <f>FLOOR((25+(5*B44))*1.01, 5)</f>
-        <v>2145</v>
-      </c>
-      <c r="H44" s="4">
-        <f>FLOOR((25+(5*B44))*0.25, 5)</f>
-        <v>530</v>
-      </c>
-      <c r="I44" s="4">
-        <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-      <c r="B45" s="4">
-        <f t="shared" si="4"/>
-        <v>430</v>
-      </c>
-      <c r="C45" s="4">
-        <v>999</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" ref="G45" si="29">FLOOR((25+(5*B45))*1.01, 5)</f>
-        <v>2195</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" ref="H45" si="30">FLOOR((25+(5*B45))*0.25, 5)</f>
-        <v>540</v>
-      </c>
-      <c r="I45" s="4">
-        <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="B46" s="4">
-        <f t="shared" si="4"/>
-        <v>440</v>
-      </c>
-      <c r="C46" s="4">
-        <v>999</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" s="4">
-        <f>FLOOR((25+(5*B46))*1.5, 5)</f>
-        <v>3335</v>
-      </c>
-      <c r="H46" s="4">
-        <f>FLOOR((25+(5*B46))*0.75, 5)</f>
-        <v>1665</v>
-      </c>
-      <c r="I46" s="4">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>445</v>
-      </c>
-      <c r="B47" s="4">
-        <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="C47" s="4">
-        <v>999</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="4">
-        <f>FLOOR((25+(5*B47))*1.01, 5)</f>
-        <v>2295</v>
-      </c>
-      <c r="H47" s="4">
-        <f>FLOOR((25+(5*B47))*0.25, 5)</f>
-        <v>565</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>455</v>
-      </c>
-      <c r="B48" s="4">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-      <c r="C48" s="4">
-        <v>999</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" ref="G48" si="31">FLOOR((25+(5*B48))*1.01, 5)</f>
-        <v>2345</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" ref="H48" si="32">FLOOR((25+(5*B48))*0.25, 5)</f>
-        <v>580</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="B49" s="4">
-        <f t="shared" si="4"/>
-        <v>470</v>
-      </c>
-      <c r="C49" s="4">
-        <v>999</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G49" s="4">
-        <f>FLOOR((25+(5*B49))*1.5, 5)</f>
-        <v>3560</v>
-      </c>
-      <c r="H49" s="4">
-        <f>FLOOR((25+(5*B49))*0.75, 5)</f>
-        <v>1780</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <f>MAX(B50-5,1)</f>
-        <v>475</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" si="4"/>
-        <v>480</v>
-      </c>
-      <c r="C50" s="2">
-        <v>999</v>
-      </c>
-      <c r="F50" t="s">
-        <v>340</v>
-      </c>
-      <c r="G50" s="2">
-        <f>FLOOR((25+(5*B50))*1.01, 5)</f>
-        <v>2445</v>
-      </c>
-      <c r="H50" s="2">
-        <f>FLOOR((25+(5*B50))*0.25, 5)</f>
-        <v>605</v>
-      </c>
-      <c r="I50" s="2">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <f t="shared" si="0"/>
-        <v>485</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" si="4"/>
-        <v>490</v>
-      </c>
-      <c r="C51" s="2">
-        <v>999</v>
-      </c>
-      <c r="F51" t="s">
-        <v>341</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" ref="G51" si="33">FLOOR((25+(5*B51))*1.01, 5)</f>
-        <v>2495</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" ref="H51" si="34">FLOOR((25+(5*B51))*0.25, 5)</f>
-        <v>615</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <f t="shared" si="0"/>
-        <v>495</v>
-      </c>
-      <c r="B52" s="2">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="C52" s="2">
-        <v>999</v>
-      </c>
-      <c r="F52" t="s">
-        <v>342</v>
-      </c>
-      <c r="G52" s="2">
-        <f>FLOOR((25+(5*B52))*1.5, 5)</f>
-        <v>3785</v>
-      </c>
-      <c r="H52" s="2">
-        <f>FLOOR((25+(5*B52))*0.75, 5)</f>
-        <v>1890</v>
-      </c>
-      <c r="I52" s="2">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-      <c r="B53" s="2">
-        <f t="shared" si="4"/>
-        <v>510</v>
-      </c>
-      <c r="C53" s="2">
-        <v>999</v>
-      </c>
-      <c r="F53" t="s">
-        <v>343</v>
-      </c>
-      <c r="G53" s="2">
-        <f>FLOOR((25+(5*B53))*1.01, 5)</f>
-        <v>2600</v>
-      </c>
-      <c r="H53" s="2">
-        <f>FLOOR((25+(5*B53))*0.25, 5)</f>
-        <v>640</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <f t="shared" si="0"/>
-        <v>515</v>
-      </c>
-      <c r="B54" s="2">
-        <f t="shared" si="4"/>
-        <v>520</v>
-      </c>
-      <c r="C54" s="2">
-        <v>999</v>
-      </c>
-      <c r="F54" t="s">
-        <v>344</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" ref="G54" si="35">FLOOR((25+(5*B54))*1.01, 5)</f>
-        <v>2650</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" ref="H54" si="36">FLOOR((25+(5*B54))*0.25, 5)</f>
-        <v>655</v>
-      </c>
-      <c r="I54" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-      <c r="B55" s="2">
-        <f t="shared" si="4"/>
-        <v>530</v>
-      </c>
-      <c r="C55" s="2">
-        <v>999</v>
-      </c>
-      <c r="F55" t="s">
-        <v>345</v>
-      </c>
-      <c r="G55" s="2">
-        <f>FLOOR((25+(5*B55))*1.5, 5)</f>
-        <v>4010</v>
-      </c>
-      <c r="H55" s="2">
-        <f>FLOOR((25+(5*B55))*0.75, 5)</f>
-        <v>2005</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <f t="shared" si="0"/>
-        <v>535</v>
-      </c>
-      <c r="B56" s="2">
-        <f t="shared" si="4"/>
-        <v>540</v>
-      </c>
-      <c r="C56" s="2">
-        <v>999</v>
-      </c>
-      <c r="F56" t="s">
-        <v>346</v>
-      </c>
-      <c r="G56" s="2">
-        <f>FLOOR((25+(5*B56))*1.01, 5)</f>
-        <v>2750</v>
-      </c>
-      <c r="H56" s="2">
-        <f>FLOOR((25+(5*B56))*0.25, 5)</f>
-        <v>680</v>
-      </c>
-      <c r="I56" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <f t="shared" si="0"/>
-        <v>545</v>
-      </c>
-      <c r="B57" s="2">
-        <f t="shared" si="4"/>
-        <v>550</v>
-      </c>
-      <c r="C57" s="2">
-        <v>999</v>
-      </c>
-      <c r="F57" t="s">
-        <v>347</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" ref="G57" si="37">FLOOR((25+(5*B57))*1.01, 5)</f>
-        <v>2800</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" ref="H57" si="38">FLOOR((25+(5*B57))*0.25, 5)</f>
-        <v>690</v>
-      </c>
-      <c r="I57" s="2">
-        <f t="shared" si="3"/>
-        <v>350</v>
-      </c>
-      <c r="J57" s="2">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <f t="shared" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="B58" s="2">
-        <f t="shared" si="4"/>
-        <v>560</v>
-      </c>
-      <c r="C58" s="2">
-        <v>999</v>
-      </c>
-      <c r="F58" t="s">
-        <v>348</v>
-      </c>
-      <c r="G58" s="2">
-        <f>FLOOR((25+(5*B58))*1.5, 5)</f>
-        <v>4235</v>
-      </c>
-      <c r="H58" s="2">
-        <f>FLOOR((25+(5*B58))*0.75, 5)</f>
-        <v>2115</v>
-      </c>
-      <c r="I58" s="2">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <f t="shared" si="0"/>
-        <v>565</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" si="4"/>
-        <v>570</v>
-      </c>
-      <c r="C59" s="2">
-        <v>999</v>
-      </c>
-      <c r="F59" t="s">
-        <v>349</v>
-      </c>
-      <c r="G59" s="2">
-        <f>FLOOR((25+(5*B59))*1.01, 5)</f>
-        <v>2900</v>
-      </c>
-      <c r="H59" s="2">
-        <f>FLOOR((25+(5*B59))*0.25, 5)</f>
-        <v>715</v>
-      </c>
-      <c r="I59" s="2">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <f t="shared" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" si="4"/>
-        <v>580</v>
-      </c>
-      <c r="C60" s="2">
-        <v>999</v>
-      </c>
-      <c r="F60" t="s">
-        <v>350</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" ref="G60" si="39">FLOOR((25+(5*B60))*1.01, 5)</f>
-        <v>2950</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" ref="H60" si="40">FLOOR((25+(5*B60))*0.25, 5)</f>
-        <v>730</v>
-      </c>
-      <c r="I60" s="2">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <f t="shared" si="0"/>
-        <v>585</v>
-      </c>
-      <c r="B61" s="2">
-        <f t="shared" si="4"/>
-        <v>590</v>
-      </c>
-      <c r="C61" s="2">
-        <v>999</v>
-      </c>
-      <c r="F61" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" s="2">
-        <f>FLOOR((25+(5*B61))*1.5, 5)</f>
-        <v>4460</v>
-      </c>
-      <c r="H61" s="2">
-        <f>FLOOR((25+(5*B61))*0.75, 5)</f>
-        <v>2230</v>
-      </c>
-      <c r="I61" s="2">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <f t="shared" si="0"/>
-        <v>595</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="C62" s="2">
-        <v>999</v>
-      </c>
-      <c r="F62" t="s">
-        <v>352</v>
-      </c>
-      <c r="G62" s="2">
-        <f>FLOOR((25+(5*B62))*1.01, 5)</f>
-        <v>3055</v>
-      </c>
-      <c r="H62" s="2">
-        <f>FLOOR((25+(5*B62))*0.25, 5)</f>
-        <v>755</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" si="4"/>
-        <v>610</v>
-      </c>
-      <c r="C63" s="2">
-        <v>999</v>
-      </c>
-      <c r="F63" t="s">
-        <v>353</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" ref="G63" si="41">FLOOR((25+(5*B63))*1.01, 5)</f>
-        <v>3105</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" ref="H63" si="42">FLOOR((25+(5*B63))*0.25, 5)</f>
-        <v>765</v>
-      </c>
-      <c r="I63" s="2">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <f t="shared" si="0"/>
-        <v>615</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" si="4"/>
-        <v>620</v>
-      </c>
-      <c r="C64" s="2">
-        <v>999</v>
-      </c>
-      <c r="F64" t="s">
-        <v>354</v>
-      </c>
-      <c r="G64" s="2">
-        <f>FLOOR((25+(5*B64))*1.5, 5)</f>
-        <v>4685</v>
-      </c>
-      <c r="H64" s="2">
-        <f>FLOOR((25+(5*B64))*0.75, 5)</f>
-        <v>2340</v>
-      </c>
-      <c r="I64" s="2">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <f t="shared" si="0"/>
-        <v>625</v>
-      </c>
-      <c r="B65" s="2">
-        <f t="shared" si="4"/>
-        <v>630</v>
-      </c>
-      <c r="C65" s="2">
-        <v>999</v>
-      </c>
-      <c r="F65" t="s">
-        <v>391</v>
-      </c>
-      <c r="G65" s="2">
-        <f>FLOOR((25+(5*B65))*1.01, 5)</f>
-        <v>3205</v>
-      </c>
-      <c r="H65" s="2">
-        <f>FLOOR((25+(5*B65))*0.25, 5)</f>
-        <v>790</v>
-      </c>
-      <c r="I65" s="2">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <f t="shared" si="0"/>
-        <v>635</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" si="4"/>
-        <v>640</v>
-      </c>
-      <c r="C66" s="2">
-        <v>999</v>
-      </c>
-      <c r="F66" t="s">
-        <v>392</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" ref="G66" si="43">FLOOR((25+(5*B66))*1.01, 5)</f>
-        <v>3255</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" ref="H66" si="44">FLOOR((25+(5*B66))*0.25, 5)</f>
-        <v>805</v>
-      </c>
-      <c r="I66" s="2">
-        <f t="shared" si="3"/>
-        <v>425</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <f t="shared" si="0"/>
-        <v>645</v>
-      </c>
-      <c r="B67" s="2">
-        <f t="shared" si="4"/>
-        <v>650</v>
-      </c>
-      <c r="C67" s="2">
-        <v>999</v>
-      </c>
-      <c r="F67" t="s">
-        <v>393</v>
-      </c>
-      <c r="G67" s="2">
-        <f>FLOOR((25+(5*B67))*1.5, 5)</f>
-        <v>4910</v>
-      </c>
-      <c r="H67" s="2">
-        <f>FLOOR((25+(5*B67))*0.75, 5)</f>
-        <v>2455</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" ref="I67:I98" si="45">CEILING(((25+(5*B67))*0.25)/2, 25)</f>
-        <v>425</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <f t="shared" si="0"/>
-        <v>655</v>
-      </c>
-      <c r="B68" s="2">
-        <f t="shared" ref="B68:B97" si="46">FLOOR(B67+10,10)</f>
-        <v>660</v>
-      </c>
-      <c r="C68" s="2">
-        <v>999</v>
-      </c>
-      <c r="F68" t="s">
-        <v>355</v>
-      </c>
-      <c r="G68" s="2">
-        <f>FLOOR((25+(5*B68))*1.01, 5)</f>
-        <v>3355</v>
-      </c>
-      <c r="H68" s="2">
-        <f>FLOOR((25+(5*B68))*0.25, 5)</f>
-        <v>830</v>
-      </c>
-      <c r="I68" s="2">
-        <f t="shared" si="45"/>
-        <v>425</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <f t="shared" si="0"/>
-        <v>665</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" si="46"/>
-        <v>670</v>
-      </c>
-      <c r="C69" s="2">
-        <v>999</v>
-      </c>
-      <c r="F69" t="s">
-        <v>356</v>
-      </c>
-      <c r="G69" s="2">
-        <f t="shared" ref="G69" si="47">FLOOR((25+(5*B69))*1.01, 5)</f>
-        <v>3405</v>
-      </c>
-      <c r="H69" s="2">
-        <f t="shared" ref="H69" si="48">FLOOR((25+(5*B69))*0.25, 5)</f>
-        <v>840</v>
-      </c>
-      <c r="I69" s="2">
-        <f t="shared" si="45"/>
-        <v>425</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <f t="shared" si="0"/>
-        <v>675</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" si="46"/>
-        <v>680</v>
-      </c>
-      <c r="C70" s="2">
-        <v>999</v>
-      </c>
-      <c r="F70" t="s">
-        <v>357</v>
-      </c>
-      <c r="G70" s="2">
-        <f>FLOOR((25+(5*B70))*1.5, 5)</f>
-        <v>5135</v>
-      </c>
-      <c r="H70" s="2">
-        <f>FLOOR((25+(5*B70))*0.75, 5)</f>
-        <v>2565</v>
-      </c>
-      <c r="I70" s="2">
-        <f t="shared" si="45"/>
-        <v>450</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <f t="shared" si="0"/>
-        <v>685</v>
-      </c>
-      <c r="B71" s="2">
-        <f t="shared" si="46"/>
-        <v>690</v>
-      </c>
-      <c r="C71" s="2">
-        <v>999</v>
-      </c>
-      <c r="F71" t="s">
-        <v>358</v>
-      </c>
-      <c r="G71" s="2">
-        <f>FLOOR((25+(5*B71))*1.01, 5)</f>
-        <v>3505</v>
-      </c>
-      <c r="H71" s="2">
-        <f>FLOOR((25+(5*B71))*0.25, 5)</f>
-        <v>865</v>
-      </c>
-      <c r="I71" s="2">
-        <f t="shared" si="45"/>
-        <v>450</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <f t="shared" si="0"/>
-        <v>695</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" si="46"/>
-        <v>700</v>
-      </c>
-      <c r="C72" s="2">
-        <v>999</v>
-      </c>
-      <c r="F72" t="s">
-        <v>359</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" ref="G72" si="49">FLOOR((25+(5*B72))*1.01, 5)</f>
-        <v>3560</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" ref="H72" si="50">FLOOR((25+(5*B72))*0.25, 5)</f>
-        <v>880</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="45"/>
-        <v>450</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <f t="shared" si="0"/>
-        <v>705</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" si="46"/>
-        <v>710</v>
-      </c>
-      <c r="C73" s="2">
-        <v>999</v>
-      </c>
-      <c r="F73" t="s">
-        <v>360</v>
-      </c>
-      <c r="G73" s="2">
-        <f>FLOOR((25+(5*B73))*1.5, 5)</f>
-        <v>5360</v>
-      </c>
-      <c r="H73" s="2">
-        <f>FLOOR((25+(5*B73))*0.75, 5)</f>
-        <v>2680</v>
-      </c>
-      <c r="I73" s="2">
-        <f t="shared" si="45"/>
-        <v>450</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <f t="shared" si="0"/>
-        <v>715</v>
-      </c>
-      <c r="B74" s="2">
-        <f t="shared" si="46"/>
-        <v>720</v>
-      </c>
-      <c r="C74" s="2">
-        <v>999</v>
-      </c>
-      <c r="F74" t="s">
-        <v>361</v>
-      </c>
-      <c r="G74" s="2">
-        <f>FLOOR((25+(5*B74))*1.01, 5)</f>
-        <v>3660</v>
-      </c>
-      <c r="H74" s="2">
-        <f>FLOOR((25+(5*B74))*0.25, 5)</f>
-        <v>905</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="45"/>
-        <v>475</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
-      <c r="B75" s="2">
-        <f t="shared" si="46"/>
-        <v>730</v>
-      </c>
-      <c r="C75" s="2">
-        <v>999</v>
-      </c>
-      <c r="F75" t="s">
-        <v>362</v>
-      </c>
-      <c r="G75" s="2">
-        <f t="shared" ref="G75" si="51">FLOOR((25+(5*B75))*1.01, 5)</f>
-        <v>3710</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" ref="H75" si="52">FLOOR((25+(5*B75))*0.25, 5)</f>
-        <v>915</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="45"/>
-        <v>475</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <f t="shared" si="0"/>
-        <v>735</v>
-      </c>
-      <c r="B76" s="2">
-        <f t="shared" si="46"/>
-        <v>740</v>
-      </c>
-      <c r="C76" s="2">
-        <v>999</v>
-      </c>
-      <c r="F76" t="s">
-        <v>363</v>
-      </c>
-      <c r="G76" s="2">
-        <f>FLOOR((25+(5*B76))*1.5, 5)</f>
-        <v>5585</v>
-      </c>
-      <c r="H76" s="2">
-        <f>FLOOR((25+(5*B76))*0.75, 5)</f>
-        <v>2790</v>
-      </c>
-      <c r="I76" s="2">
-        <f t="shared" si="45"/>
-        <v>475</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <f t="shared" si="0"/>
-        <v>745</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="46"/>
-        <v>750</v>
-      </c>
-      <c r="C77" s="2">
-        <v>999</v>
-      </c>
-      <c r="F77" t="s">
-        <v>364</v>
-      </c>
-      <c r="G77" s="2">
-        <f>FLOOR((25+(5*B77))*1.01, 5)</f>
-        <v>3810</v>
-      </c>
-      <c r="H77" s="2">
-        <f>FLOOR((25+(5*B77))*0.25, 5)</f>
-        <v>940</v>
-      </c>
-      <c r="I77" s="2">
-        <f t="shared" si="45"/>
-        <v>475</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <f t="shared" si="0"/>
-        <v>755</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="46"/>
-        <v>760</v>
-      </c>
-      <c r="C78" s="2">
-        <v>999</v>
-      </c>
-      <c r="F78" t="s">
-        <v>365</v>
-      </c>
-      <c r="G78" s="2">
-        <f t="shared" ref="G78" si="53">FLOOR((25+(5*B78))*1.01, 5)</f>
-        <v>3860</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" ref="H78" si="54">FLOOR((25+(5*B78))*0.25, 5)</f>
-        <v>955</v>
-      </c>
-      <c r="I78" s="2">
-        <f t="shared" si="45"/>
-        <v>500</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <f t="shared" si="0"/>
-        <v>765</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="46"/>
-        <v>770</v>
-      </c>
-      <c r="C79" s="2">
-        <v>999</v>
-      </c>
-      <c r="F79" t="s">
-        <v>366</v>
-      </c>
-      <c r="G79" s="2">
-        <f>FLOOR((25+(5*B79))*1.5, 5)</f>
-        <v>5810</v>
-      </c>
-      <c r="H79" s="2">
-        <f>FLOOR((25+(5*B79))*0.75, 5)</f>
-        <v>2905</v>
-      </c>
-      <c r="I79" s="2">
-        <f t="shared" si="45"/>
-        <v>500</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <f t="shared" si="0"/>
-        <v>775</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="46"/>
-        <v>780</v>
-      </c>
-      <c r="C80" s="2">
-        <v>999</v>
-      </c>
-      <c r="F80" t="s">
-        <v>367</v>
-      </c>
-      <c r="G80" s="2">
-        <f>FLOOR((25+(5*B80))*1.01, 5)</f>
-        <v>3960</v>
-      </c>
-      <c r="H80" s="2">
-        <f>FLOOR((25+(5*B80))*0.25, 5)</f>
-        <v>980</v>
-      </c>
-      <c r="I80" s="2">
-        <f t="shared" si="45"/>
-        <v>500</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <f t="shared" si="0"/>
-        <v>785</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="46"/>
-        <v>790</v>
-      </c>
-      <c r="C81" s="2">
-        <v>999</v>
-      </c>
-      <c r="F81" t="s">
-        <v>368</v>
-      </c>
-      <c r="G81" s="2">
-        <f t="shared" ref="G81" si="55">FLOOR((25+(5*B81))*1.01, 5)</f>
-        <v>4010</v>
-      </c>
-      <c r="H81" s="2">
-        <f t="shared" ref="H81" si="56">FLOOR((25+(5*B81))*0.25, 5)</f>
-        <v>990</v>
-      </c>
-      <c r="I81" s="2">
-        <f t="shared" si="45"/>
-        <v>500</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <f t="shared" si="0"/>
-        <v>795</v>
-      </c>
-      <c r="B82" s="2">
-        <f t="shared" si="46"/>
-        <v>800</v>
-      </c>
-      <c r="C82" s="2">
-        <v>999</v>
-      </c>
-      <c r="F82" t="s">
-        <v>369</v>
-      </c>
-      <c r="G82" s="2">
-        <f>FLOOR((25+(5*B82))*1.5, 5)</f>
-        <v>6035</v>
-      </c>
-      <c r="H82" s="2">
-        <f>FLOOR((25+(5*B82))*0.75, 5)</f>
-        <v>3015</v>
-      </c>
-      <c r="I82" s="2">
-        <f t="shared" si="45"/>
-        <v>525</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <f t="shared" si="0"/>
-        <v>805</v>
-      </c>
-      <c r="B83" s="2">
-        <f t="shared" si="46"/>
-        <v>810</v>
-      </c>
-      <c r="C83" s="2">
-        <v>999</v>
-      </c>
-      <c r="F83" t="s">
-        <v>370</v>
-      </c>
-      <c r="G83" s="2">
-        <f>FLOOR((25+(5*B83))*1.01, 5)</f>
-        <v>4115</v>
-      </c>
-      <c r="H83" s="2">
-        <f>FLOOR((25+(5*B83))*0.25, 5)</f>
-        <v>1015</v>
-      </c>
-      <c r="I83" s="2">
-        <f t="shared" si="45"/>
-        <v>525</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <f t="shared" si="0"/>
-        <v>815</v>
-      </c>
-      <c r="B84" s="2">
-        <f t="shared" si="46"/>
-        <v>820</v>
-      </c>
-      <c r="C84" s="2">
-        <v>999</v>
-      </c>
-      <c r="F84" t="s">
-        <v>371</v>
-      </c>
-      <c r="G84" s="2">
-        <f t="shared" ref="G84" si="57">FLOOR((25+(5*B84))*1.01, 5)</f>
-        <v>4165</v>
-      </c>
-      <c r="H84" s="2">
-        <f t="shared" ref="H84" si="58">FLOOR((25+(5*B84))*0.25, 5)</f>
-        <v>1030</v>
-      </c>
-      <c r="I84" s="2">
-        <f t="shared" si="45"/>
-        <v>525</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <f t="shared" si="0"/>
-        <v>825</v>
-      </c>
-      <c r="B85" s="2">
-        <f t="shared" si="46"/>
-        <v>830</v>
-      </c>
-      <c r="C85" s="2">
-        <v>999</v>
-      </c>
-      <c r="F85" t="s">
-        <v>372</v>
-      </c>
-      <c r="G85" s="2">
-        <f>FLOOR((25+(5*B85))*1.5, 5)</f>
-        <v>6260</v>
-      </c>
-      <c r="H85" s="2">
-        <f>FLOOR((25+(5*B85))*0.75, 5)</f>
-        <v>3130</v>
-      </c>
-      <c r="I85" s="2">
-        <f t="shared" si="45"/>
-        <v>525</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <f t="shared" si="0"/>
-        <v>835</v>
-      </c>
-      <c r="B86" s="2">
-        <f t="shared" si="46"/>
-        <v>840</v>
-      </c>
-      <c r="C86" s="2">
-        <v>999</v>
-      </c>
-      <c r="F86" t="s">
-        <v>373</v>
-      </c>
-      <c r="G86" s="2">
-        <f>FLOOR((25+(5*B86))*1.01, 5)</f>
-        <v>4265</v>
-      </c>
-      <c r="H86" s="2">
-        <f>FLOOR((25+(5*B86))*0.25, 5)</f>
-        <v>1055</v>
-      </c>
-      <c r="I86" s="2">
-        <f t="shared" si="45"/>
-        <v>550</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <f t="shared" si="0"/>
-        <v>845</v>
-      </c>
-      <c r="B87" s="2">
-        <f t="shared" si="46"/>
-        <v>850</v>
-      </c>
-      <c r="C87" s="2">
-        <v>999</v>
-      </c>
-      <c r="F87" t="s">
-        <v>374</v>
-      </c>
-      <c r="G87" s="2">
-        <f t="shared" ref="G87" si="59">FLOOR((25+(5*B87))*1.01, 5)</f>
-        <v>4315</v>
-      </c>
-      <c r="H87" s="2">
-        <f t="shared" ref="H87" si="60">FLOOR((25+(5*B87))*0.25, 5)</f>
-        <v>1065</v>
-      </c>
-      <c r="I87" s="2">
-        <f t="shared" si="45"/>
-        <v>550</v>
-      </c>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <f t="shared" si="0"/>
-        <v>855</v>
-      </c>
-      <c r="B88" s="2">
-        <f t="shared" si="46"/>
-        <v>860</v>
-      </c>
-      <c r="C88" s="2">
-        <v>999</v>
-      </c>
-      <c r="F88" t="s">
-        <v>375</v>
-      </c>
-      <c r="G88" s="2">
-        <f>FLOOR((25+(5*B88))*1.5, 5)</f>
-        <v>6485</v>
-      </c>
-      <c r="H88" s="2">
-        <f>FLOOR((25+(5*B88))*0.75, 5)</f>
-        <v>3240</v>
-      </c>
-      <c r="I88" s="2">
-        <f t="shared" si="45"/>
-        <v>550</v>
-      </c>
-      <c r="J88" s="2">
-        <v>1</v>
-      </c>
-      <c r="K88" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <f t="shared" si="0"/>
-        <v>865</v>
-      </c>
-      <c r="B89" s="2">
-        <f t="shared" si="46"/>
-        <v>870</v>
-      </c>
-      <c r="C89" s="2">
-        <v>999</v>
-      </c>
-      <c r="F89" t="s">
-        <v>385</v>
-      </c>
-      <c r="G89" s="2">
-        <f>FLOOR((25+(5*B89))*1.01, 5)</f>
-        <v>4415</v>
-      </c>
-      <c r="H89" s="2">
-        <f>FLOOR((25+(5*B89))*0.25, 5)</f>
-        <v>1090</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="45"/>
-        <v>550</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-      <c r="B90" s="2">
-        <f t="shared" si="46"/>
-        <v>880</v>
-      </c>
-      <c r="C90" s="2">
-        <v>999</v>
-      </c>
-      <c r="F90" t="s">
-        <v>386</v>
-      </c>
-      <c r="G90" s="2">
-        <f t="shared" ref="G90" si="61">FLOOR((25+(5*B90))*1.01, 5)</f>
-        <v>4465</v>
-      </c>
-      <c r="H90" s="2">
-        <f t="shared" ref="H90" si="62">FLOOR((25+(5*B90))*0.25, 5)</f>
-        <v>1105</v>
-      </c>
-      <c r="I90" s="2">
-        <f t="shared" si="45"/>
-        <v>575</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <f t="shared" si="0"/>
-        <v>885</v>
-      </c>
-      <c r="B91" s="2">
-        <f t="shared" si="46"/>
-        <v>890</v>
-      </c>
-      <c r="C91" s="2">
-        <v>999</v>
-      </c>
-      <c r="F91" t="s">
-        <v>387</v>
-      </c>
-      <c r="G91" s="2">
-        <f>FLOOR((25+(5*B91))*1.5, 5)</f>
-        <v>6710</v>
-      </c>
-      <c r="H91" s="2">
-        <f>FLOOR((25+(5*B91))*0.75, 5)</f>
-        <v>3355</v>
-      </c>
-      <c r="I91" s="2">
-        <f t="shared" si="45"/>
-        <v>575</v>
-      </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <f t="shared" si="0"/>
-        <v>895</v>
-      </c>
-      <c r="B92" s="2">
-        <f t="shared" si="46"/>
-        <v>900</v>
-      </c>
-      <c r="C92" s="2">
-        <v>999</v>
-      </c>
-      <c r="F92" t="s">
-        <v>376</v>
-      </c>
-      <c r="G92" s="2">
-        <f>FLOOR((25+(5*B92))*1.01, 5)</f>
-        <v>4570</v>
-      </c>
-      <c r="H92" s="2">
-        <f>FLOOR((25+(5*B92))*0.25, 5)</f>
-        <v>1130</v>
-      </c>
-      <c r="I92" s="2">
-        <f t="shared" si="45"/>
-        <v>575</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1</v>
-      </c>
-      <c r="K92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <f t="shared" si="0"/>
-        <v>905</v>
-      </c>
-      <c r="B93" s="2">
-        <f t="shared" si="46"/>
-        <v>910</v>
-      </c>
-      <c r="C93" s="2">
-        <v>999</v>
-      </c>
-      <c r="F93" t="s">
-        <v>377</v>
-      </c>
-      <c r="G93" s="2">
-        <f t="shared" ref="G93" si="63">FLOOR((25+(5*B93))*1.01, 5)</f>
-        <v>4620</v>
-      </c>
-      <c r="H93" s="2">
-        <f t="shared" ref="H93" si="64">FLOOR((25+(5*B93))*0.25, 5)</f>
-        <v>1140</v>
-      </c>
-      <c r="I93" s="2">
-        <f t="shared" si="45"/>
-        <v>575</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
-        <f t="shared" si="0"/>
-        <v>915</v>
-      </c>
-      <c r="B94" s="2">
-        <f t="shared" si="46"/>
-        <v>920</v>
-      </c>
-      <c r="C94" s="2">
-        <v>999</v>
-      </c>
-      <c r="F94" t="s">
-        <v>378</v>
-      </c>
-      <c r="G94" s="2">
-        <f>FLOOR((25+(5*B94))*1.5, 5)</f>
-        <v>6935</v>
-      </c>
-      <c r="H94" s="2">
-        <f>FLOOR((25+(5*B94))*0.75, 5)</f>
-        <v>3465</v>
-      </c>
-      <c r="I94" s="2">
-        <f t="shared" si="45"/>
-        <v>600</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <f t="shared" si="0"/>
-        <v>925</v>
-      </c>
-      <c r="B95" s="2">
-        <f t="shared" si="46"/>
-        <v>930</v>
-      </c>
-      <c r="C95" s="2">
-        <v>999</v>
-      </c>
-      <c r="F95" t="s">
-        <v>379</v>
-      </c>
-      <c r="G95" s="2">
-        <f>FLOOR((25+(5*B95))*1.01, 5)</f>
-        <v>4720</v>
-      </c>
-      <c r="H95" s="2">
-        <f>FLOOR((25+(5*B95))*0.25, 5)</f>
-        <v>1165</v>
-      </c>
-      <c r="I95" s="2">
-        <f t="shared" si="45"/>
-        <v>600</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="B96" s="2">
-        <f t="shared" si="46"/>
-        <v>940</v>
-      </c>
-      <c r="C96" s="2">
-        <v>999</v>
-      </c>
-      <c r="F96" t="s">
-        <v>380</v>
-      </c>
-      <c r="G96" s="2">
-        <f t="shared" ref="G96" si="65">FLOOR((25+(5*B96))*1.01, 5)</f>
-        <v>4770</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" ref="H96" si="66">FLOOR((25+(5*B96))*0.25, 5)</f>
-        <v>1180</v>
-      </c>
-      <c r="I96" s="2">
-        <f t="shared" si="45"/>
-        <v>600</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <f t="shared" si="0"/>
-        <v>945</v>
-      </c>
-      <c r="B97" s="2">
-        <f t="shared" si="46"/>
-        <v>950</v>
-      </c>
-      <c r="C97" s="2">
-        <v>999</v>
-      </c>
-      <c r="F97" t="s">
-        <v>381</v>
-      </c>
-      <c r="G97" s="2">
-        <f>FLOOR((25+(5*B97))*1.5, 5)</f>
-        <v>7160</v>
-      </c>
-      <c r="H97" s="2">
-        <f>FLOOR((25+(5*B97))*0.75, 5)</f>
-        <v>3580</v>
-      </c>
-      <c r="I97" s="2">
-        <f t="shared" si="45"/>
-        <v>600</v>
-      </c>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-      <c r="K97" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <f>MAX(B98-10,1)</f>
-        <v>470</v>
-      </c>
-      <c r="B98" s="2">
-        <v>480</v>
-      </c>
-      <c r="C98" s="2">
-        <v>999</v>
-      </c>
-      <c r="D98" t="s">
-        <v>440</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
-      </c>
-      <c r="G98" s="2">
-        <f>FLOOR((25+(5*B98))*1.5, 5)</f>
-        <v>3635</v>
-      </c>
-      <c r="H98" s="2">
-        <f>FLOOR((25+(5*B98))*0.75, 5)</f>
-        <v>1815</v>
-      </c>
-      <c r="I98" s="2">
-        <f t="shared" si="45"/>
-        <v>325</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" t="s">
+      <c r="G103" t="s">
         <v>305</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I8:M8"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5676,17 +4624,17 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -5718,7 +4666,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5750,7 +4698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5782,7 +4730,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5814,7 +4762,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5846,7 +4794,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5878,7 +4826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -5910,7 +4858,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -5942,7 +4890,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -5974,7 +4922,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -6006,7 +4954,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>75</v>
       </c>
@@ -6038,7 +4986,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>75</v>
       </c>
@@ -6070,7 +5018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -6102,7 +5050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -6134,7 +5082,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -6179,17 +5127,17 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -6221,7 +5169,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6253,7 +5201,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6285,7 +5233,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6317,7 +5265,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6349,7 +5297,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6381,7 +5329,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -6413,7 +5361,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -6445,7 +5393,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -6477,7 +5425,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -6509,7 +5457,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>75</v>
       </c>
@@ -6541,7 +5489,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>75</v>
       </c>
@@ -6573,7 +5521,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -6605,7 +5553,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -6650,17 +5598,17 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -6692,7 +5640,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6724,7 +5672,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6756,7 +5704,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6788,7 +5736,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6820,7 +5768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6852,7 +5800,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -6884,7 +5832,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -6916,7 +5864,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -6948,7 +5896,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -6980,7 +5928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>75</v>
       </c>
@@ -7012,7 +5960,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>75</v>
       </c>
@@ -7044,7 +5992,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -7076,7 +6024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -7108,7 +6056,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7153,17 +6101,17 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -7195,7 +6143,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7227,7 +6175,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7259,7 +6207,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7291,7 +6239,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7323,7 +6271,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7355,7 +6303,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -7387,7 +6335,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -7419,7 +6367,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -7451,7 +6399,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>50</v>
       </c>
@@ -7483,7 +6431,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>75</v>
       </c>
@@ -7515,7 +6463,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>75</v>
       </c>
@@ -7547,7 +6495,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -7579,7 +6527,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -7611,7 +6559,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7643,7 +6591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200</v>
       </c>
@@ -7688,17 +6636,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -7730,7 +6678,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7762,7 +6710,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7794,7 +6742,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7826,7 +6774,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7858,7 +6806,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7890,7 +6838,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -7922,7 +6870,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -7954,7 +6902,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>75</v>
       </c>
@@ -7986,7 +6934,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -8018,7 +6966,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -8063,14 +7011,14 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="7" max="7" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8090,7 +7038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>125</v>
       </c>
@@ -8109,7 +7057,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>130</v>
       </c>
@@ -8128,7 +7076,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>135</v>
       </c>
@@ -8147,7 +7095,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>140</v>
       </c>
@@ -8166,7 +7114,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>145</v>
       </c>
@@ -8185,7 +7133,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -8204,7 +7152,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>155</v>
       </c>
@@ -8223,7 +7171,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>160</v>
       </c>
@@ -8242,7 +7190,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>165</v>
       </c>
@@ -8261,7 +7209,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>170</v>
       </c>
@@ -8280,7 +7228,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>175</v>
       </c>
@@ -8299,7 +7247,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>180</v>
       </c>
@@ -8318,7 +7266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>185</v>
       </c>
@@ -8337,7 +7285,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>190</v>
       </c>
@@ -8356,7 +7304,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>195</v>
       </c>
@@ -8375,7 +7323,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200</v>
       </c>
@@ -8394,7 +7342,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>205</v>
       </c>
@@ -8413,7 +7361,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>210</v>
       </c>
@@ -8432,7 +7380,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>215</v>
       </c>
@@ -8451,7 +7399,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>220</v>
       </c>
@@ -8470,7 +7418,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>225</v>
       </c>
@@ -8489,7 +7437,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>230</v>
       </c>
@@ -8508,7 +7456,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>235</v>
       </c>
@@ -8527,7 +7475,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>240</v>
       </c>
@@ -8546,7 +7494,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>245</v>
       </c>
@@ -8565,7 +7513,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>250</v>
       </c>
@@ -8584,7 +7532,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>255</v>
       </c>
@@ -8603,7 +7551,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>260</v>
       </c>
@@ -8622,7 +7570,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>265</v>
       </c>
@@ -8641,7 +7589,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>270</v>
       </c>
@@ -8660,7 +7608,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>275</v>
       </c>
@@ -8679,7 +7627,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>280</v>
       </c>
@@ -8698,7 +7646,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>285</v>
       </c>
@@ -8717,7 +7665,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>290</v>
       </c>
@@ -8736,7 +7684,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>295</v>
       </c>
@@ -8755,7 +7703,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>300</v>
       </c>
@@ -8789,14 +7737,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8819,12 +7767,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H2">
         <v>13.12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90</v>
       </c>
@@ -8844,10 +7792,10 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>15.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18.869999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -8867,10 +7815,10 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>20.869999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19.369999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>110</v>
       </c>
@@ -8890,10 +7838,10 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>26.619999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20.119999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -8913,10 +7861,10 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>31.619999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20.369999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>130</v>
       </c>
@@ -8936,10 +7884,10 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>33.119999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20.869999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>140</v>
       </c>
@@ -8959,10 +7907,10 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>37.369999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21.619999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>150</v>
       </c>
@@ -8982,10 +7930,10 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>38.619999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25.869999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>160</v>
       </c>
@@ -9005,10 +7953,10 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>44.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26.369999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>170</v>
       </c>
@@ -9028,10 +7976,10 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>45.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27.119999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>180</v>
       </c>
@@ -9051,10 +7999,10 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>45.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28.119999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>190</v>
       </c>
@@ -9074,10 +8022,10 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>51.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32.369999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>200</v>
       </c>
@@ -9097,10 +8045,10 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>55.87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37.119999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>210</v>
       </c>
@@ -9120,10 +8068,10 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>57.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>220</v>
       </c>
@@ -9143,10 +8091,10 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>61.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>230</v>
       </c>
@@ -9166,10 +8114,10 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>63.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>240</v>
       </c>
@@ -9189,10 +8137,10 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>68.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>250</v>
       </c>
@@ -9212,10 +8160,10 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>68.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>260</v>
       </c>
@@ -9235,10 +8183,10 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>70.87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>270</v>
       </c>
@@ -9258,10 +8206,10 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>76.87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>280</v>
       </c>
@@ -9281,10 +8229,10 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>82.37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>290</v>
       </c>
@@ -9304,10 +8252,10 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>86.87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>300</v>
       </c>
@@ -9327,10 +8275,10 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>92.12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>666</v>
       </c>
@@ -9358,15 +8306,15 @@
       <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.85546875" customWidth="1"/>
+    <col min="8" max="8" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9389,7 +8337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -9408,7 +8356,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>105</v>
       </c>
@@ -9427,7 +8375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>110</v>
       </c>
@@ -9446,7 +8394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>115</v>
       </c>
@@ -9465,7 +8413,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -9484,7 +8432,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>125</v>
       </c>
@@ -9503,7 +8451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>130</v>
       </c>
@@ -9522,7 +8470,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>135</v>
       </c>
@@ -9541,7 +8489,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>140</v>
       </c>
@@ -9560,7 +8508,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>145</v>
       </c>
@@ -9579,7 +8527,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>150</v>
       </c>
@@ -9598,7 +8546,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>155</v>
       </c>
@@ -9617,7 +8565,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>160</v>
       </c>
@@ -9636,7 +8584,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>165</v>
       </c>
@@ -9655,7 +8603,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>170</v>
       </c>
@@ -9674,7 +8622,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>175</v>
       </c>
@@ -9693,7 +8641,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>180</v>
       </c>
@@ -9712,7 +8660,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>185</v>
       </c>
@@ -9731,7 +8679,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>190</v>
       </c>
@@ -9750,7 +8698,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>195</v>
       </c>
@@ -9769,7 +8717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>200</v>
       </c>
@@ -9788,7 +8736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>205</v>
       </c>
@@ -9807,7 +8755,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>210</v>
       </c>
@@ -9826,7 +8774,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>215</v>
       </c>
@@ -9845,7 +8793,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>220</v>
       </c>
@@ -9864,7 +8812,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>225</v>
       </c>
@@ -9883,7 +8831,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>230</v>
       </c>
@@ -9902,7 +8850,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>235</v>
       </c>
@@ -9921,7 +8869,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>240</v>
       </c>
@@ -9940,7 +8888,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>245</v>
       </c>
@@ -9959,7 +8907,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>250</v>
       </c>
@@ -9978,7 +8926,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>251</v>
       </c>
@@ -9997,7 +8945,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>252</v>
       </c>
@@ -10016,7 +8964,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>253</v>
       </c>
@@ -10035,7 +8983,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>254</v>
       </c>
@@ -10054,7 +9002,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>255</v>
       </c>
@@ -10073,7 +9021,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>256</v>
       </c>
@@ -10092,7 +9040,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>257</v>
       </c>
@@ -10111,7 +9059,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>258</v>
       </c>
@@ -10130,7 +9078,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>259</v>
       </c>
@@ -10149,7 +9097,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>260</v>
       </c>

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F70D8A-3CA4-4793-8D44-848B3DA56F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F95CF-7A3A-4A8C-80A3-8A28C7B279EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="655">
   <si>
     <t>Level</t>
   </si>
@@ -1952,6 +1952,63 @@
   </si>
   <si>
     <t>Ecliptic Commandant++</t>
+  </si>
+  <si>
+    <t>Combat Style</t>
+  </si>
+  <si>
+    <t>csCrimsonFleet_Sniper</t>
+  </si>
+  <si>
+    <t>Available Combat Styles</t>
+  </si>
+  <si>
+    <t>csCrimsonFleet_Recruit</t>
+  </si>
+  <si>
+    <t>csCrimsonFleet_Heavy</t>
+  </si>
+  <si>
+    <t>csCrimsonFleet_Charger</t>
+  </si>
+  <si>
+    <t>csCrimsonFleet_Assault</t>
+  </si>
+  <si>
+    <t>csCrimsonFleet_LowLevel</t>
+  </si>
+  <si>
+    <t>csSpacer_Heavy</t>
+  </si>
+  <si>
+    <t>csSpacer_Sniper</t>
+  </si>
+  <si>
+    <t>csSpacer_Recruit</t>
+  </si>
+  <si>
+    <t>csSpacer_Charger</t>
+  </si>
+  <si>
+    <t>csSpacer_Assault</t>
+  </si>
+  <si>
+    <t>csEcliptic_Officer</t>
+  </si>
+  <si>
+    <t>csEcliptic_Support</t>
+  </si>
+  <si>
+    <t>csEcliptic_Sniper</t>
+  </si>
+  <si>
+    <t>csEcliptic_Heavy</t>
+  </si>
+  <si>
+    <t>csEcliptic_Charger</t>
+  </si>
+  <si>
+    <t>csEcliptic_Assault</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2069,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2020,11 +2077,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2035,10 +2092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -2448,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2462,11 +2515,12 @@
     <col min="4" max="4" width="9.109375" style="2"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2486,10 +2540,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2511,11 +2568,14 @@
         <f>CEILING(((25+(5*A2))*0.25)/2, 25)</f>
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2538,10 +2598,13 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>FLOOR(A2+10,10)</f>
         <v>10</v>
@@ -2565,17 +2628,23 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>642</v>
+      </c>
+      <c r="H4" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -2598,15 +2667,23 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>641</v>
+      </c>
+      <c r="H5" t="s">
         <v>170</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>FLOOR(A4+10,10)</f>
         <v>20</v>
@@ -2630,17 +2707,23 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>637</v>
+      </c>
+      <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>639</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>25</v>
       </c>
@@ -2663,15 +2746,16 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
+        <v>640</v>
+      </c>
+      <c r="H7" t="s">
         <v>262</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>FLOOR(A6+10,10)</f>
         <v>30</v>
@@ -2695,17 +2779,16 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
+        <v>639</v>
+      </c>
+      <c r="H8" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>35</v>
       </c>
@@ -2728,10 +2811,16 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
+        <v>642</v>
+      </c>
+      <c r="H9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40</v>
       </c>
@@ -2754,10 +2843,16 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
+        <v>641</v>
+      </c>
+      <c r="H10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45</v>
       </c>
@@ -2780,10 +2875,13 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
+        <v>637</v>
+      </c>
+      <c r="H11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12" si="3">FLOOR(A11+10,10)</f>
         <v>50</v>
@@ -2807,10 +2905,13 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
+        <v>640</v>
+      </c>
+      <c r="H12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -2833,10 +2934,13 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
+        <v>639</v>
+      </c>
+      <c r="H13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>FLOOR(A12+10,10)</f>
         <v>60</v>
@@ -2860,10 +2964,13 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
+        <v>642</v>
+      </c>
+      <c r="H14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>65</v>
       </c>
@@ -2886,10 +2993,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
+        <v>641</v>
+      </c>
+      <c r="H15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>FLOOR(A14+10,10)</f>
         <v>70</v>
@@ -2913,10 +3023,13 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
+        <v>637</v>
+      </c>
+      <c r="H16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>75</v>
       </c>
@@ -2939,10 +3052,13 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
+        <v>640</v>
+      </c>
+      <c r="H17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>FLOOR(A16+10,10)</f>
         <v>80</v>
@@ -2966,10 +3082,13 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
+        <v>639</v>
+      </c>
+      <c r="H18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>85</v>
       </c>
@@ -2992,10 +3111,13 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
+        <v>642</v>
+      </c>
+      <c r="H19" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>FLOOR(A18+10,10)</f>
         <v>90</v>
@@ -3019,10 +3141,13 @@
         <v>75</v>
       </c>
       <c r="G20" t="s">
+        <v>641</v>
+      </c>
+      <c r="H20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>95</v>
       </c>
@@ -3045,10 +3170,13 @@
         <v>75</v>
       </c>
       <c r="G21" t="s">
+        <v>637</v>
+      </c>
+      <c r="H21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>FLOOR(A20+10,10)</f>
         <v>100</v>
@@ -3072,10 +3200,13 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
+        <v>640</v>
+      </c>
+      <c r="H22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>105</v>
       </c>
@@ -3098,10 +3229,13 @@
         <v>75</v>
       </c>
       <c r="G23" t="s">
+        <v>639</v>
+      </c>
+      <c r="H23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>FLOOR(A22+10,10)</f>
         <v>110</v>
@@ -3125,10 +3259,13 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
+        <v>642</v>
+      </c>
+      <c r="H24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>115</v>
       </c>
@@ -3151,10 +3288,13 @@
         <v>75</v>
       </c>
       <c r="G25" t="s">
+        <v>641</v>
+      </c>
+      <c r="H25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>FLOOR(A24+10,10)</f>
         <v>120</v>
@@ -3178,10 +3318,13 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
+        <v>637</v>
+      </c>
+      <c r="H26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>125</v>
       </c>
@@ -3204,10 +3347,13 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
+        <v>640</v>
+      </c>
+      <c r="H27" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>FLOOR(A26+10,10)</f>
         <v>130</v>
@@ -3231,10 +3377,13 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
+        <v>639</v>
+      </c>
+      <c r="H28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>135</v>
       </c>
@@ -3257,10 +3406,13 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
+        <v>642</v>
+      </c>
+      <c r="H29" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f>FLOOR(A28+10,10)</f>
         <v>140</v>
@@ -3284,10 +3436,13 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
+        <v>641</v>
+      </c>
+      <c r="H30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>145</v>
       </c>
@@ -3310,10 +3465,13 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
+        <v>637</v>
+      </c>
+      <c r="H31" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f>FLOOR(A30+10,10)</f>
         <v>150</v>
@@ -3337,10 +3495,13 @@
         <v>100</v>
       </c>
       <c r="G32" t="s">
+        <v>640</v>
+      </c>
+      <c r="H32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>155</v>
       </c>
@@ -3363,10 +3524,13 @@
         <v>100</v>
       </c>
       <c r="G33" t="s">
+        <v>639</v>
+      </c>
+      <c r="H33" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f>FLOOR(A32+10,10)</f>
         <v>160</v>
@@ -3390,10 +3554,13 @@
         <v>125</v>
       </c>
       <c r="G34" t="s">
+        <v>642</v>
+      </c>
+      <c r="H34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>165</v>
       </c>
@@ -3416,10 +3583,13 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
+        <v>641</v>
+      </c>
+      <c r="H35" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f>FLOOR(A34+10,10)</f>
         <v>170</v>
@@ -3443,10 +3613,13 @@
         <v>125</v>
       </c>
       <c r="G36" t="s">
+        <v>637</v>
+      </c>
+      <c r="H36" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>175</v>
       </c>
@@ -3469,10 +3642,13 @@
         <v>125</v>
       </c>
       <c r="G37" t="s">
+        <v>640</v>
+      </c>
+      <c r="H37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f>FLOOR(A36+10,10)</f>
         <v>180</v>
@@ -3496,10 +3672,13 @@
         <v>125</v>
       </c>
       <c r="G38" t="s">
+        <v>639</v>
+      </c>
+      <c r="H38" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>185</v>
       </c>
@@ -3522,10 +3701,13 @@
         <v>125</v>
       </c>
       <c r="G39" t="s">
+        <v>642</v>
+      </c>
+      <c r="H39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f>FLOOR(A38+10,10)</f>
         <v>190</v>
@@ -3549,10 +3731,13 @@
         <v>125</v>
       </c>
       <c r="G40" t="s">
+        <v>641</v>
+      </c>
+      <c r="H40" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>195</v>
       </c>
@@ -3575,10 +3760,13 @@
         <v>125</v>
       </c>
       <c r="G41" t="s">
+        <v>637</v>
+      </c>
+      <c r="H41" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f>FLOOR(A40+10,10)</f>
         <v>200</v>
@@ -3602,10 +3790,13 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
+        <v>640</v>
+      </c>
+      <c r="H42" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>205</v>
       </c>
@@ -3628,10 +3819,13 @@
         <v>150</v>
       </c>
       <c r="G43" t="s">
+        <v>639</v>
+      </c>
+      <c r="H43" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f>FLOOR(A42+10,10)</f>
         <v>210</v>
@@ -3655,10 +3849,13 @@
         <v>150</v>
       </c>
       <c r="G44" t="s">
+        <v>642</v>
+      </c>
+      <c r="H44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>215</v>
       </c>
@@ -3681,10 +3878,13 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
+        <v>641</v>
+      </c>
+      <c r="H45" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f>FLOOR(A44+10,10)</f>
         <v>220</v>
@@ -3708,10 +3908,13 @@
         <v>150</v>
       </c>
       <c r="G46" t="s">
+        <v>637</v>
+      </c>
+      <c r="H46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>225</v>
       </c>
@@ -3734,10 +3937,13 @@
         <v>150</v>
       </c>
       <c r="G47" t="s">
+        <v>640</v>
+      </c>
+      <c r="H47" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f>FLOOR(A46+10,10)</f>
         <v>230</v>
@@ -3761,10 +3967,13 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
+        <v>639</v>
+      </c>
+      <c r="H48" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>235</v>
       </c>
@@ -3787,10 +3996,13 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
+        <v>642</v>
+      </c>
+      <c r="H49" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f>FLOOR(A48+10,10)</f>
         <v>240</v>
@@ -3814,10 +4026,13 @@
         <v>175</v>
       </c>
       <c r="G50" t="s">
+        <v>641</v>
+      </c>
+      <c r="H50" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>245</v>
       </c>
@@ -3840,10 +4055,13 @@
         <v>175</v>
       </c>
       <c r="G51" t="s">
+        <v>637</v>
+      </c>
+      <c r="H51" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f>FLOOR(A50+10,10)</f>
         <v>250</v>
@@ -3867,10 +4085,13 @@
         <v>175</v>
       </c>
       <c r="G52" t="s">
+        <v>640</v>
+      </c>
+      <c r="H52" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>255</v>
       </c>
@@ -3893,10 +4114,13 @@
         <v>175</v>
       </c>
       <c r="G53" t="s">
+        <v>639</v>
+      </c>
+      <c r="H53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f>FLOOR(A52+10,10)</f>
         <v>260</v>
@@ -3920,10 +4144,13 @@
         <v>175</v>
       </c>
       <c r="G54" t="s">
+        <v>642</v>
+      </c>
+      <c r="H54" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>265</v>
       </c>
@@ -3946,10 +4173,13 @@
         <v>175</v>
       </c>
       <c r="G55" t="s">
+        <v>641</v>
+      </c>
+      <c r="H55" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f>FLOOR(A54+10,10)</f>
         <v>270</v>
@@ -3973,10 +4203,13 @@
         <v>175</v>
       </c>
       <c r="G56" t="s">
+        <v>637</v>
+      </c>
+      <c r="H56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>275</v>
       </c>
@@ -3999,10 +4232,13 @@
         <v>175</v>
       </c>
       <c r="G57" t="s">
+        <v>640</v>
+      </c>
+      <c r="H57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f>FLOOR(A56+10,10)</f>
         <v>280</v>
@@ -4026,10 +4262,13 @@
         <v>200</v>
       </c>
       <c r="G58" t="s">
+        <v>639</v>
+      </c>
+      <c r="H58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>285</v>
       </c>
@@ -4052,10 +4291,13 @@
         <v>200</v>
       </c>
       <c r="G59" t="s">
+        <v>642</v>
+      </c>
+      <c r="H59" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f>FLOOR(A58+10,10)</f>
         <v>290</v>
@@ -4079,10 +4321,13 @@
         <v>200</v>
       </c>
       <c r="G60" t="s">
+        <v>641</v>
+      </c>
+      <c r="H60" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>295</v>
       </c>
@@ -4105,10 +4350,13 @@
         <v>200</v>
       </c>
       <c r="G61" t="s">
+        <v>637</v>
+      </c>
+      <c r="H61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f>FLOOR(A60+10,10)</f>
         <v>300</v>
@@ -4132,10 +4380,13 @@
         <v>200</v>
       </c>
       <c r="G62" t="s">
+        <v>640</v>
+      </c>
+      <c r="H62" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>305</v>
       </c>
@@ -4158,10 +4409,13 @@
         <v>200</v>
       </c>
       <c r="G63" t="s">
+        <v>639</v>
+      </c>
+      <c r="H63" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f>FLOOR(A62+10,10)</f>
         <v>310</v>
@@ -4185,10 +4439,13 @@
         <v>200</v>
       </c>
       <c r="G64" t="s">
+        <v>642</v>
+      </c>
+      <c r="H64" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>315</v>
       </c>
@@ -4211,10 +4468,13 @@
         <v>200</v>
       </c>
       <c r="G65" t="s">
+        <v>641</v>
+      </c>
+      <c r="H65" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f>FLOOR(A64+10,10)</f>
         <v>320</v>
@@ -4238,10 +4498,13 @@
         <v>225</v>
       </c>
       <c r="G66" t="s">
+        <v>637</v>
+      </c>
+      <c r="H66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>325</v>
       </c>
@@ -4264,10 +4527,13 @@
         <v>225</v>
       </c>
       <c r="G67" t="s">
+        <v>640</v>
+      </c>
+      <c r="H67" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f>FLOOR(A66+10,10)</f>
         <v>330</v>
@@ -4291,10 +4557,13 @@
         <v>225</v>
       </c>
       <c r="G68" t="s">
+        <v>639</v>
+      </c>
+      <c r="H68" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>335</v>
       </c>
@@ -4317,10 +4586,13 @@
         <v>225</v>
       </c>
       <c r="G69" t="s">
+        <v>642</v>
+      </c>
+      <c r="H69" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f>FLOOR(A68+10,10)</f>
         <v>340</v>
@@ -4344,10 +4616,13 @@
         <v>225</v>
       </c>
       <c r="G70" t="s">
+        <v>641</v>
+      </c>
+      <c r="H70" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>345</v>
       </c>
@@ -4370,10 +4645,13 @@
         <v>225</v>
       </c>
       <c r="G71" t="s">
+        <v>637</v>
+      </c>
+      <c r="H71" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f>FLOOR(A70+10,10)</f>
         <v>350</v>
@@ -4397,10 +4675,13 @@
         <v>225</v>
       </c>
       <c r="G72" t="s">
+        <v>640</v>
+      </c>
+      <c r="H72" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>355</v>
       </c>
@@ -4423,10 +4704,13 @@
         <v>225</v>
       </c>
       <c r="G73" t="s">
+        <v>639</v>
+      </c>
+      <c r="H73" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f>FLOOR(A72+10,10)</f>
         <v>360</v>
@@ -4450,10 +4734,13 @@
         <v>250</v>
       </c>
       <c r="G74" t="s">
+        <v>642</v>
+      </c>
+      <c r="H74" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>365</v>
       </c>
@@ -4476,10 +4763,13 @@
         <v>250</v>
       </c>
       <c r="G75" t="s">
+        <v>641</v>
+      </c>
+      <c r="H75" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f>FLOOR(A74+10,10)</f>
         <v>370</v>
@@ -4503,10 +4793,13 @@
         <v>250</v>
       </c>
       <c r="G76" t="s">
+        <v>637</v>
+      </c>
+      <c r="H76" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>375</v>
       </c>
@@ -4529,10 +4822,13 @@
         <v>250</v>
       </c>
       <c r="G77" t="s">
+        <v>640</v>
+      </c>
+      <c r="H77" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f>FLOOR(A76+10,10)</f>
         <v>380</v>
@@ -4556,10 +4852,13 @@
         <v>250</v>
       </c>
       <c r="G78" t="s">
+        <v>639</v>
+      </c>
+      <c r="H78" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>385</v>
       </c>
@@ -4582,10 +4881,13 @@
         <v>250</v>
       </c>
       <c r="G79" t="s">
+        <v>642</v>
+      </c>
+      <c r="H79" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f>FLOOR(A78+10,10)</f>
         <v>390</v>
@@ -4609,10 +4911,13 @@
         <v>250</v>
       </c>
       <c r="G80" t="s">
+        <v>641</v>
+      </c>
+      <c r="H80" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>395</v>
       </c>
@@ -4635,10 +4940,13 @@
         <v>250</v>
       </c>
       <c r="G81" t="s">
+        <v>637</v>
+      </c>
+      <c r="H81" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f>FLOOR(A80+10,10)</f>
         <v>400</v>
@@ -4662,10 +4970,13 @@
         <v>275</v>
       </c>
       <c r="G82" t="s">
+        <v>640</v>
+      </c>
+      <c r="H82" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>405</v>
       </c>
@@ -4688,10 +4999,13 @@
         <v>275</v>
       </c>
       <c r="G83" t="s">
+        <v>639</v>
+      </c>
+      <c r="H83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f>FLOOR(A82+10,10)</f>
         <v>410</v>
@@ -4715,10 +5029,13 @@
         <v>275</v>
       </c>
       <c r="G84" t="s">
+        <v>642</v>
+      </c>
+      <c r="H84" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>415</v>
       </c>
@@ -4741,10 +5058,13 @@
         <v>275</v>
       </c>
       <c r="G85" t="s">
+        <v>641</v>
+      </c>
+      <c r="H85" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f>FLOOR(A84+10,10)</f>
         <v>420</v>
@@ -4768,10 +5088,13 @@
         <v>275</v>
       </c>
       <c r="G86" t="s">
+        <v>637</v>
+      </c>
+      <c r="H86" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>425</v>
       </c>
@@ -4794,10 +5117,13 @@
         <v>275</v>
       </c>
       <c r="G87" t="s">
+        <v>640</v>
+      </c>
+      <c r="H87" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f>FLOOR(A86+10,10)</f>
         <v>430</v>
@@ -4821,10 +5147,13 @@
         <v>275</v>
       </c>
       <c r="G88" t="s">
+        <v>639</v>
+      </c>
+      <c r="H88" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>435</v>
       </c>
@@ -4847,10 +5176,13 @@
         <v>275</v>
       </c>
       <c r="G89" t="s">
+        <v>642</v>
+      </c>
+      <c r="H89" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f>FLOOR(A88+10,10)</f>
         <v>440</v>
@@ -4874,10 +5206,13 @@
         <v>300</v>
       </c>
       <c r="G90" t="s">
+        <v>641</v>
+      </c>
+      <c r="H90" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>445</v>
       </c>
@@ -4900,10 +5235,13 @@
         <v>300</v>
       </c>
       <c r="G91" t="s">
+        <v>637</v>
+      </c>
+      <c r="H91" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f>FLOOR(A90+10,10)</f>
         <v>450</v>
@@ -4927,10 +5265,13 @@
         <v>300</v>
       </c>
       <c r="G92" t="s">
+        <v>640</v>
+      </c>
+      <c r="H92" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>455</v>
       </c>
@@ -4953,10 +5294,13 @@
         <v>300</v>
       </c>
       <c r="G93" t="s">
+        <v>639</v>
+      </c>
+      <c r="H93" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>460</v>
       </c>
@@ -4979,10 +5323,13 @@
         <v>300</v>
       </c>
       <c r="G94" t="s">
+        <v>642</v>
+      </c>
+      <c r="H94" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>465</v>
       </c>
@@ -5005,10 +5352,13 @@
         <v>300</v>
       </c>
       <c r="G95" t="s">
+        <v>641</v>
+      </c>
+      <c r="H95" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>470</v>
       </c>
@@ -5031,10 +5381,13 @@
         <v>300</v>
       </c>
       <c r="G96" t="s">
+        <v>637</v>
+      </c>
+      <c r="H96" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>475</v>
       </c>
@@ -5057,10 +5410,13 @@
         <v>300</v>
       </c>
       <c r="G97" t="s">
+        <v>640</v>
+      </c>
+      <c r="H97" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>480</v>
       </c>
@@ -5083,10 +5439,13 @@
         <v>325</v>
       </c>
       <c r="G98" t="s">
+        <v>639</v>
+      </c>
+      <c r="H98" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>485</v>
       </c>
@@ -5109,10 +5468,13 @@
         <v>325</v>
       </c>
       <c r="G99" t="s">
+        <v>642</v>
+      </c>
+      <c r="H99" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>490</v>
       </c>
@@ -5135,10 +5497,13 @@
         <v>325</v>
       </c>
       <c r="G100" t="s">
+        <v>641</v>
+      </c>
+      <c r="H100" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>495</v>
       </c>
@@ -5161,10 +5526,13 @@
         <v>325</v>
       </c>
       <c r="G101" t="s">
+        <v>637</v>
+      </c>
+      <c r="H101" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>500</v>
       </c>
@@ -5187,10 +5555,13 @@
         <v>325</v>
       </c>
       <c r="G102" t="s">
+        <v>640</v>
+      </c>
+      <c r="H102" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>500</v>
       </c>
@@ -5213,14 +5584,17 @@
         <v>325</v>
       </c>
       <c r="G103" t="s">
+        <v>640</v>
+      </c>
+      <c r="H103" t="s">
         <v>262</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5230,10 +5604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DACF3F-8296-497F-AFBC-D2DC34990A1C}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5244,11 +5618,12 @@
     <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5268,10 +5643,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5294,10 +5672,13 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -5320,10 +5701,13 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>FLOOR(A2+10,10)</f>
         <v>10</v>
@@ -5347,17 +5731,23 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H4" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -5380,15 +5770,23 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H5" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>644</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>FLOOR(A4+10,10)</f>
         <v>20</v>
@@ -5412,17 +5810,23 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>645</v>
+      </c>
+      <c r="H6" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>645</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>25</v>
       </c>
@@ -5445,15 +5849,16 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H7" t="s">
         <v>261</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>FLOOR(A6+10,10)</f>
         <v>30</v>
@@ -5477,17 +5882,16 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
+        <v>646</v>
+      </c>
+      <c r="H8" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>35</v>
       </c>
@@ -5510,10 +5914,16 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
+        <v>648</v>
+      </c>
+      <c r="H9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40</v>
       </c>
@@ -5536,10 +5946,13 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
+        <v>647</v>
+      </c>
+      <c r="H10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45</v>
       </c>
@@ -5562,10 +5975,13 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
+        <v>645</v>
+      </c>
+      <c r="H11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12" si="3">FLOOR(A11+10,10)</f>
         <v>50</v>
@@ -5589,10 +6005,13 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
+        <v>644</v>
+      </c>
+      <c r="H12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -5615,10 +6034,13 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
+        <v>646</v>
+      </c>
+      <c r="H13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>FLOOR(A12+10,10)</f>
         <v>60</v>
@@ -5642,10 +6064,13 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
+        <v>648</v>
+      </c>
+      <c r="H14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>65</v>
       </c>
@@ -5668,10 +6093,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
+        <v>647</v>
+      </c>
+      <c r="H15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>FLOOR(A14+10,10)</f>
         <v>70</v>
@@ -5695,10 +6123,13 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
+        <v>645</v>
+      </c>
+      <c r="H16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>75</v>
       </c>
@@ -5721,10 +6152,13 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
+        <v>644</v>
+      </c>
+      <c r="H17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>FLOOR(A16+10,10)</f>
         <v>80</v>
@@ -5748,10 +6182,13 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
+        <v>646</v>
+      </c>
+      <c r="H18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>85</v>
       </c>
@@ -5774,10 +6211,13 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
+        <v>648</v>
+      </c>
+      <c r="H19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>FLOOR(A18+10,10)</f>
         <v>90</v>
@@ -5801,10 +6241,13 @@
         <v>75</v>
       </c>
       <c r="G20" t="s">
+        <v>647</v>
+      </c>
+      <c r="H20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>95</v>
       </c>
@@ -5827,10 +6270,13 @@
         <v>75</v>
       </c>
       <c r="G21" t="s">
+        <v>645</v>
+      </c>
+      <c r="H21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>FLOOR(A20+10,10)</f>
         <v>100</v>
@@ -5854,10 +6300,13 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
+        <v>644</v>
+      </c>
+      <c r="H22" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>105</v>
       </c>
@@ -5880,10 +6329,13 @@
         <v>75</v>
       </c>
       <c r="G23" t="s">
+        <v>646</v>
+      </c>
+      <c r="H23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>FLOOR(A22+10,10)</f>
         <v>110</v>
@@ -5907,10 +6359,13 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
+        <v>648</v>
+      </c>
+      <c r="H24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>115</v>
       </c>
@@ -5933,10 +6388,13 @@
         <v>75</v>
       </c>
       <c r="G25" t="s">
+        <v>647</v>
+      </c>
+      <c r="H25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>FLOOR(A24+10,10)</f>
         <v>120</v>
@@ -5960,10 +6418,13 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
+        <v>645</v>
+      </c>
+      <c r="H26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>125</v>
       </c>
@@ -5986,10 +6447,13 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
+        <v>644</v>
+      </c>
+      <c r="H27" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>FLOOR(A26+10,10)</f>
         <v>130</v>
@@ -6013,10 +6477,13 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
+        <v>646</v>
+      </c>
+      <c r="H28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>135</v>
       </c>
@@ -6039,10 +6506,13 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
+        <v>648</v>
+      </c>
+      <c r="H29" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f>FLOOR(A28+10,10)</f>
         <v>140</v>
@@ -6066,10 +6536,13 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
+        <v>647</v>
+      </c>
+      <c r="H30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>145</v>
       </c>
@@ -6092,10 +6565,13 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
+        <v>645</v>
+      </c>
+      <c r="H31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f>FLOOR(A30+10,10)</f>
         <v>150</v>
@@ -6119,10 +6595,13 @@
         <v>100</v>
       </c>
       <c r="G32" t="s">
+        <v>644</v>
+      </c>
+      <c r="H32" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>155</v>
       </c>
@@ -6145,10 +6624,13 @@
         <v>100</v>
       </c>
       <c r="G33" t="s">
+        <v>646</v>
+      </c>
+      <c r="H33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f>FLOOR(A32+10,10)</f>
         <v>160</v>
@@ -6172,10 +6654,13 @@
         <v>125</v>
       </c>
       <c r="G34" t="s">
+        <v>648</v>
+      </c>
+      <c r="H34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>165</v>
       </c>
@@ -6198,10 +6683,13 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
+        <v>647</v>
+      </c>
+      <c r="H35" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f>FLOOR(A34+10,10)</f>
         <v>170</v>
@@ -6225,10 +6713,13 @@
         <v>125</v>
       </c>
       <c r="G36" t="s">
+        <v>645</v>
+      </c>
+      <c r="H36" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>175</v>
       </c>
@@ -6251,10 +6742,13 @@
         <v>125</v>
       </c>
       <c r="G37" t="s">
+        <v>644</v>
+      </c>
+      <c r="H37" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f>FLOOR(A36+10,10)</f>
         <v>180</v>
@@ -6278,10 +6772,13 @@
         <v>125</v>
       </c>
       <c r="G38" t="s">
+        <v>646</v>
+      </c>
+      <c r="H38" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>185</v>
       </c>
@@ -6304,10 +6801,13 @@
         <v>125</v>
       </c>
       <c r="G39" t="s">
+        <v>648</v>
+      </c>
+      <c r="H39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f>FLOOR(A38+10,10)</f>
         <v>190</v>
@@ -6331,10 +6831,13 @@
         <v>125</v>
       </c>
       <c r="G40" t="s">
+        <v>647</v>
+      </c>
+      <c r="H40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>195</v>
       </c>
@@ -6357,10 +6860,13 @@
         <v>125</v>
       </c>
       <c r="G41" t="s">
+        <v>645</v>
+      </c>
+      <c r="H41" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f>FLOOR(A40+10,10)</f>
         <v>200</v>
@@ -6384,10 +6890,13 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
+        <v>644</v>
+      </c>
+      <c r="H42" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>205</v>
       </c>
@@ -6410,10 +6919,13 @@
         <v>150</v>
       </c>
       <c r="G43" t="s">
+        <v>646</v>
+      </c>
+      <c r="H43" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f>FLOOR(A42+10,10)</f>
         <v>210</v>
@@ -6437,10 +6949,13 @@
         <v>150</v>
       </c>
       <c r="G44" t="s">
+        <v>648</v>
+      </c>
+      <c r="H44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>215</v>
       </c>
@@ -6463,10 +6978,13 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
+        <v>647</v>
+      </c>
+      <c r="H45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f>FLOOR(A44+10,10)</f>
         <v>220</v>
@@ -6490,10 +7008,13 @@
         <v>150</v>
       </c>
       <c r="G46" t="s">
+        <v>645</v>
+      </c>
+      <c r="H46" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>225</v>
       </c>
@@ -6516,10 +7037,13 @@
         <v>150</v>
       </c>
       <c r="G47" t="s">
+        <v>644</v>
+      </c>
+      <c r="H47" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f>FLOOR(A46+10,10)</f>
         <v>230</v>
@@ -6543,10 +7067,13 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
+        <v>646</v>
+      </c>
+      <c r="H48" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>235</v>
       </c>
@@ -6569,10 +7096,13 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
+        <v>648</v>
+      </c>
+      <c r="H49" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f>FLOOR(A48+10,10)</f>
         <v>240</v>
@@ -6596,10 +7126,13 @@
         <v>175</v>
       </c>
       <c r="G50" t="s">
+        <v>647</v>
+      </c>
+      <c r="H50" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>245</v>
       </c>
@@ -6622,10 +7155,13 @@
         <v>175</v>
       </c>
       <c r="G51" t="s">
+        <v>645</v>
+      </c>
+      <c r="H51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f>FLOOR(A50+10,10)</f>
         <v>250</v>
@@ -6649,10 +7185,13 @@
         <v>175</v>
       </c>
       <c r="G52" t="s">
+        <v>644</v>
+      </c>
+      <c r="H52" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>255</v>
       </c>
@@ -6675,10 +7214,13 @@
         <v>175</v>
       </c>
       <c r="G53" t="s">
+        <v>646</v>
+      </c>
+      <c r="H53" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f>FLOOR(A52+10,10)</f>
         <v>260</v>
@@ -6702,10 +7244,13 @@
         <v>175</v>
       </c>
       <c r="G54" t="s">
+        <v>648</v>
+      </c>
+      <c r="H54" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>265</v>
       </c>
@@ -6728,10 +7273,13 @@
         <v>175</v>
       </c>
       <c r="G55" t="s">
+        <v>647</v>
+      </c>
+      <c r="H55" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f>FLOOR(A54+10,10)</f>
         <v>270</v>
@@ -6755,10 +7303,13 @@
         <v>175</v>
       </c>
       <c r="G56" t="s">
+        <v>645</v>
+      </c>
+      <c r="H56" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>275</v>
       </c>
@@ -6781,10 +7332,13 @@
         <v>175</v>
       </c>
       <c r="G57" t="s">
+        <v>644</v>
+      </c>
+      <c r="H57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f>FLOOR(A56+10,10)</f>
         <v>280</v>
@@ -6808,10 +7362,13 @@
         <v>200</v>
       </c>
       <c r="G58" t="s">
+        <v>646</v>
+      </c>
+      <c r="H58" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>285</v>
       </c>
@@ -6834,10 +7391,13 @@
         <v>200</v>
       </c>
       <c r="G59" t="s">
+        <v>648</v>
+      </c>
+      <c r="H59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f>FLOOR(A58+10,10)</f>
         <v>290</v>
@@ -6861,10 +7421,13 @@
         <v>200</v>
       </c>
       <c r="G60" t="s">
+        <v>647</v>
+      </c>
+      <c r="H60" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>295</v>
       </c>
@@ -6887,10 +7450,13 @@
         <v>200</v>
       </c>
       <c r="G61" t="s">
+        <v>645</v>
+      </c>
+      <c r="H61" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f>FLOOR(A60+10,10)</f>
         <v>300</v>
@@ -6914,10 +7480,13 @@
         <v>200</v>
       </c>
       <c r="G62" t="s">
+        <v>644</v>
+      </c>
+      <c r="H62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>305</v>
       </c>
@@ -6940,10 +7509,13 @@
         <v>200</v>
       </c>
       <c r="G63" t="s">
+        <v>646</v>
+      </c>
+      <c r="H63" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f>FLOOR(A62+10,10)</f>
         <v>310</v>
@@ -6967,10 +7539,13 @@
         <v>200</v>
       </c>
       <c r="G64" t="s">
+        <v>648</v>
+      </c>
+      <c r="H64" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>315</v>
       </c>
@@ -6993,10 +7568,13 @@
         <v>200</v>
       </c>
       <c r="G65" t="s">
+        <v>647</v>
+      </c>
+      <c r="H65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f>FLOOR(A64+10,10)</f>
         <v>320</v>
@@ -7020,10 +7598,13 @@
         <v>225</v>
       </c>
       <c r="G66" t="s">
+        <v>645</v>
+      </c>
+      <c r="H66" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>325</v>
       </c>
@@ -7046,10 +7627,13 @@
         <v>225</v>
       </c>
       <c r="G67" t="s">
+        <v>644</v>
+      </c>
+      <c r="H67" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f>FLOOR(A66+10,10)</f>
         <v>330</v>
@@ -7073,10 +7657,13 @@
         <v>225</v>
       </c>
       <c r="G68" t="s">
+        <v>646</v>
+      </c>
+      <c r="H68" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>335</v>
       </c>
@@ -7099,10 +7686,13 @@
         <v>225</v>
       </c>
       <c r="G69" t="s">
+        <v>648</v>
+      </c>
+      <c r="H69" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f>FLOOR(A68+10,10)</f>
         <v>340</v>
@@ -7126,10 +7716,13 @@
         <v>225</v>
       </c>
       <c r="G70" t="s">
+        <v>647</v>
+      </c>
+      <c r="H70" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>345</v>
       </c>
@@ -7152,10 +7745,13 @@
         <v>225</v>
       </c>
       <c r="G71" t="s">
+        <v>645</v>
+      </c>
+      <c r="H71" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f>FLOOR(A70+10,10)</f>
         <v>350</v>
@@ -7179,10 +7775,13 @@
         <v>225</v>
       </c>
       <c r="G72" t="s">
+        <v>644</v>
+      </c>
+      <c r="H72" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>355</v>
       </c>
@@ -7205,10 +7804,13 @@
         <v>225</v>
       </c>
       <c r="G73" t="s">
+        <v>646</v>
+      </c>
+      <c r="H73" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f>FLOOR(A72+10,10)</f>
         <v>360</v>
@@ -7232,10 +7834,13 @@
         <v>250</v>
       </c>
       <c r="G74" t="s">
+        <v>648</v>
+      </c>
+      <c r="H74" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>365</v>
       </c>
@@ -7258,10 +7863,13 @@
         <v>250</v>
       </c>
       <c r="G75" t="s">
+        <v>647</v>
+      </c>
+      <c r="H75" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f>FLOOR(A74+10,10)</f>
         <v>370</v>
@@ -7285,10 +7893,13 @@
         <v>250</v>
       </c>
       <c r="G76" t="s">
+        <v>645</v>
+      </c>
+      <c r="H76" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>375</v>
       </c>
@@ -7311,10 +7922,13 @@
         <v>250</v>
       </c>
       <c r="G77" t="s">
+        <v>644</v>
+      </c>
+      <c r="H77" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f>FLOOR(A76+10,10)</f>
         <v>380</v>
@@ -7338,10 +7952,13 @@
         <v>250</v>
       </c>
       <c r="G78" t="s">
+        <v>646</v>
+      </c>
+      <c r="H78" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>385</v>
       </c>
@@ -7364,10 +7981,13 @@
         <v>250</v>
       </c>
       <c r="G79" t="s">
+        <v>648</v>
+      </c>
+      <c r="H79" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f>FLOOR(A78+10,10)</f>
         <v>390</v>
@@ -7391,10 +8011,13 @@
         <v>250</v>
       </c>
       <c r="G80" t="s">
+        <v>647</v>
+      </c>
+      <c r="H80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>395</v>
       </c>
@@ -7417,10 +8040,13 @@
         <v>250</v>
       </c>
       <c r="G81" t="s">
+        <v>645</v>
+      </c>
+      <c r="H81" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f>FLOOR(A80+10,10)</f>
         <v>400</v>
@@ -7444,10 +8070,13 @@
         <v>275</v>
       </c>
       <c r="G82" t="s">
+        <v>644</v>
+      </c>
+      <c r="H82" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>405</v>
       </c>
@@ -7470,10 +8099,13 @@
         <v>275</v>
       </c>
       <c r="G83" t="s">
+        <v>646</v>
+      </c>
+      <c r="H83" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f>FLOOR(A82+10,10)</f>
         <v>410</v>
@@ -7497,10 +8129,13 @@
         <v>275</v>
       </c>
       <c r="G84" t="s">
+        <v>648</v>
+      </c>
+      <c r="H84" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>415</v>
       </c>
@@ -7523,10 +8158,13 @@
         <v>275</v>
       </c>
       <c r="G85" t="s">
+        <v>647</v>
+      </c>
+      <c r="H85" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f>FLOOR(A84+10,10)</f>
         <v>420</v>
@@ -7550,10 +8188,13 @@
         <v>275</v>
       </c>
       <c r="G86" t="s">
+        <v>645</v>
+      </c>
+      <c r="H86" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>425</v>
       </c>
@@ -7576,10 +8217,13 @@
         <v>275</v>
       </c>
       <c r="G87" t="s">
+        <v>644</v>
+      </c>
+      <c r="H87" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f>FLOOR(A86+10,10)</f>
         <v>430</v>
@@ -7603,10 +8247,13 @@
         <v>275</v>
       </c>
       <c r="G88" t="s">
+        <v>646</v>
+      </c>
+      <c r="H88" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>435</v>
       </c>
@@ -7629,10 +8276,13 @@
         <v>275</v>
       </c>
       <c r="G89" t="s">
+        <v>648</v>
+      </c>
+      <c r="H89" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f>FLOOR(A88+10,10)</f>
         <v>440</v>
@@ -7656,10 +8306,13 @@
         <v>300</v>
       </c>
       <c r="G90" t="s">
+        <v>647</v>
+      </c>
+      <c r="H90" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>445</v>
       </c>
@@ -7682,10 +8335,13 @@
         <v>300</v>
       </c>
       <c r="G91" t="s">
+        <v>645</v>
+      </c>
+      <c r="H91" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f>FLOOR(A90+10,10)</f>
         <v>450</v>
@@ -7709,10 +8365,13 @@
         <v>300</v>
       </c>
       <c r="G92" t="s">
+        <v>644</v>
+      </c>
+      <c r="H92" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>455</v>
       </c>
@@ -7735,10 +8394,13 @@
         <v>300</v>
       </c>
       <c r="G93" t="s">
+        <v>646</v>
+      </c>
+      <c r="H93" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>460</v>
       </c>
@@ -7761,10 +8423,13 @@
         <v>300</v>
       </c>
       <c r="G94" t="s">
+        <v>648</v>
+      </c>
+      <c r="H94" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>465</v>
       </c>
@@ -7787,10 +8452,13 @@
         <v>300</v>
       </c>
       <c r="G95" t="s">
+        <v>647</v>
+      </c>
+      <c r="H95" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>470</v>
       </c>
@@ -7813,10 +8481,13 @@
         <v>300</v>
       </c>
       <c r="G96" t="s">
+        <v>645</v>
+      </c>
+      <c r="H96" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>475</v>
       </c>
@@ -7839,10 +8510,13 @@
         <v>300</v>
       </c>
       <c r="G97" t="s">
+        <v>644</v>
+      </c>
+      <c r="H97" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>480</v>
       </c>
@@ -7865,10 +8539,13 @@
         <v>325</v>
       </c>
       <c r="G98" t="s">
+        <v>646</v>
+      </c>
+      <c r="H98" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>485</v>
       </c>
@@ -7891,10 +8568,13 @@
         <v>325</v>
       </c>
       <c r="G99" t="s">
+        <v>648</v>
+      </c>
+      <c r="H99" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>490</v>
       </c>
@@ -7917,10 +8597,13 @@
         <v>325</v>
       </c>
       <c r="G100" t="s">
+        <v>647</v>
+      </c>
+      <c r="H100" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>495</v>
       </c>
@@ -7943,10 +8626,13 @@
         <v>325</v>
       </c>
       <c r="G101" t="s">
+        <v>645</v>
+      </c>
+      <c r="H101" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>500</v>
       </c>
@@ -7969,10 +8655,13 @@
         <v>325</v>
       </c>
       <c r="G102" t="s">
+        <v>644</v>
+      </c>
+      <c r="H102" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>500</v>
       </c>
@@ -7995,14 +8684,17 @@
         <v>325</v>
       </c>
       <c r="G103" t="s">
+        <v>644</v>
+      </c>
+      <c r="H103" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8011,10 +8703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E214ECFB-7E7D-4DEC-85CC-73D3C6405058}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8025,11 +8717,12 @@
     <col min="4" max="4" width="8.88671875" style="2"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8049,10 +8742,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8075,10 +8771,13 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
+        <v>650</v>
+      </c>
+      <c r="H2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -8101,10 +8800,13 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>FLOOR(A2+10,10)</f>
         <v>10</v>
@@ -8128,17 +8830,23 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>654</v>
+      </c>
+      <c r="H4" t="s">
         <v>632</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>15</v>
       </c>
@@ -8161,15 +8869,23 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H5" t="s">
         <v>632</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>649</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>FLOOR(A4+10,10)</f>
         <v>20</v>
@@ -8193,17 +8909,23 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>652</v>
+      </c>
+      <c r="H6" t="s">
         <v>632</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>650</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>25</v>
       </c>
@@ -8226,15 +8948,16 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
+        <v>649</v>
+      </c>
+      <c r="H7" t="s">
         <v>633</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>FLOOR(A6+10,10)</f>
         <v>30</v>
@@ -8258,17 +8981,16 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
+        <v>650</v>
+      </c>
+      <c r="H8" t="s">
         <v>632</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>35</v>
       </c>
@@ -8291,10 +9013,16 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H9" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40</v>
       </c>
@@ -8317,10 +9045,16 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
+        <v>651</v>
+      </c>
+      <c r="H10" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45</v>
       </c>
@@ -8343,10 +9077,13 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
+        <v>652</v>
+      </c>
+      <c r="H11" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12" si="3">FLOOR(A11+10,10)</f>
         <v>50</v>
@@ -8370,10 +9107,13 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
+        <v>649</v>
+      </c>
+      <c r="H12" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>55</v>
       </c>
@@ -8396,10 +9136,13 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>FLOOR(A12+10,10)</f>
         <v>60</v>
@@ -8423,10 +9166,13 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
+        <v>654</v>
+      </c>
+      <c r="H14" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>65</v>
       </c>
@@ -8449,10 +9195,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
+        <v>651</v>
+      </c>
+      <c r="H15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>FLOOR(A14+10,10)</f>
         <v>70</v>
@@ -8476,10 +9225,13 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
+        <v>652</v>
+      </c>
+      <c r="H16" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>75</v>
       </c>
@@ -8502,10 +9254,13 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
+        <v>649</v>
+      </c>
+      <c r="H17" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>FLOOR(A16+10,10)</f>
         <v>80</v>
@@ -8529,10 +9284,13 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>85</v>
       </c>
@@ -8555,10 +9313,13 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
+        <v>654</v>
+      </c>
+      <c r="H19" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>FLOOR(A18+10,10)</f>
         <v>90</v>
@@ -8582,10 +9343,13 @@
         <v>75</v>
       </c>
       <c r="G20" t="s">
+        <v>651</v>
+      </c>
+      <c r="H20" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>95</v>
       </c>
@@ -8608,10 +9372,13 @@
         <v>75</v>
       </c>
       <c r="G21" t="s">
+        <v>652</v>
+      </c>
+      <c r="H21" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>FLOOR(A20+10,10)</f>
         <v>100</v>
@@ -8635,10 +9402,13 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
+        <v>649</v>
+      </c>
+      <c r="H22" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>105</v>
       </c>
@@ -8661,10 +9431,13 @@
         <v>75</v>
       </c>
       <c r="G23" t="s">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>FLOOR(A22+10,10)</f>
         <v>110</v>
@@ -8688,10 +9461,13 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
+        <v>654</v>
+      </c>
+      <c r="H24" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>115</v>
       </c>
@@ -8714,10 +9490,13 @@
         <v>75</v>
       </c>
       <c r="G25" t="s">
+        <v>651</v>
+      </c>
+      <c r="H25" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>FLOOR(A24+10,10)</f>
         <v>120</v>
@@ -8741,10 +9520,13 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
+        <v>652</v>
+      </c>
+      <c r="H26" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>125</v>
       </c>
@@ -8767,10 +9549,13 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
+        <v>649</v>
+      </c>
+      <c r="H27" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>FLOOR(A26+10,10)</f>
         <v>130</v>
@@ -8794,10 +9579,13 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>135</v>
       </c>
@@ -8820,10 +9608,13 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
+        <v>654</v>
+      </c>
+      <c r="H29" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f>FLOOR(A28+10,10)</f>
         <v>140</v>
@@ -8847,10 +9638,13 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
+        <v>651</v>
+      </c>
+      <c r="H30" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>145</v>
       </c>
@@ -8873,10 +9667,13 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
+        <v>652</v>
+      </c>
+      <c r="H31" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f>FLOOR(A30+10,10)</f>
         <v>150</v>
@@ -8900,10 +9697,13 @@
         <v>100</v>
       </c>
       <c r="G32" t="s">
+        <v>649</v>
+      </c>
+      <c r="H32" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>155</v>
       </c>
@@ -8926,10 +9726,13 @@
         <v>100</v>
       </c>
       <c r="G33" t="s">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f>FLOOR(A32+10,10)</f>
         <v>160</v>
@@ -8953,10 +9756,13 @@
         <v>125</v>
       </c>
       <c r="G34" t="s">
+        <v>654</v>
+      </c>
+      <c r="H34" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>165</v>
       </c>
@@ -8979,10 +9785,13 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
+        <v>651</v>
+      </c>
+      <c r="H35" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f>FLOOR(A34+10,10)</f>
         <v>170</v>
@@ -9006,10 +9815,13 @@
         <v>125</v>
       </c>
       <c r="G36" t="s">
+        <v>652</v>
+      </c>
+      <c r="H36" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>175</v>
       </c>
@@ -9032,10 +9844,13 @@
         <v>125</v>
       </c>
       <c r="G37" t="s">
+        <v>649</v>
+      </c>
+      <c r="H37" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f>FLOOR(A36+10,10)</f>
         <v>180</v>
@@ -9059,10 +9874,13 @@
         <v>125</v>
       </c>
       <c r="G38" t="s">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>185</v>
       </c>
@@ -9085,10 +9903,13 @@
         <v>125</v>
       </c>
       <c r="G39" t="s">
+        <v>654</v>
+      </c>
+      <c r="H39" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f>FLOOR(A38+10,10)</f>
         <v>190</v>
@@ -9112,10 +9933,13 @@
         <v>125</v>
       </c>
       <c r="G40" t="s">
+        <v>651</v>
+      </c>
+      <c r="H40" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>195</v>
       </c>
@@ -9138,10 +9962,13 @@
         <v>125</v>
       </c>
       <c r="G41" t="s">
+        <v>652</v>
+      </c>
+      <c r="H41" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f>FLOOR(A40+10,10)</f>
         <v>200</v>
@@ -9165,10 +9992,13 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
+        <v>649</v>
+      </c>
+      <c r="H42" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>205</v>
       </c>
@@ -9191,10 +10021,13 @@
         <v>150</v>
       </c>
       <c r="G43" t="s">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f>FLOOR(A42+10,10)</f>
         <v>210</v>
@@ -9218,10 +10051,13 @@
         <v>150</v>
       </c>
       <c r="G44" t="s">
+        <v>654</v>
+      </c>
+      <c r="H44" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>215</v>
       </c>
@@ -9244,10 +10080,13 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
+        <v>651</v>
+      </c>
+      <c r="H45" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f>FLOOR(A44+10,10)</f>
         <v>220</v>
@@ -9271,10 +10110,13 @@
         <v>150</v>
       </c>
       <c r="G46" t="s">
+        <v>652</v>
+      </c>
+      <c r="H46" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>225</v>
       </c>
@@ -9297,10 +10139,13 @@
         <v>150</v>
       </c>
       <c r="G47" t="s">
+        <v>649</v>
+      </c>
+      <c r="H47" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f>FLOOR(A46+10,10)</f>
         <v>230</v>
@@ -9324,10 +10169,13 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>235</v>
       </c>
@@ -9350,10 +10198,13 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
+        <v>654</v>
+      </c>
+      <c r="H49" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f>FLOOR(A48+10,10)</f>
         <v>240</v>
@@ -9377,10 +10228,13 @@
         <v>175</v>
       </c>
       <c r="G50" t="s">
+        <v>651</v>
+      </c>
+      <c r="H50" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>245</v>
       </c>
@@ -9403,10 +10257,13 @@
         <v>175</v>
       </c>
       <c r="G51" t="s">
+        <v>652</v>
+      </c>
+      <c r="H51" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f>FLOOR(A50+10,10)</f>
         <v>250</v>
@@ -9430,10 +10287,13 @@
         <v>175</v>
       </c>
       <c r="G52" t="s">
+        <v>649</v>
+      </c>
+      <c r="H52" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>255</v>
       </c>
@@ -9456,10 +10316,13 @@
         <v>175</v>
       </c>
       <c r="G53" t="s">
+        <v>650</v>
+      </c>
+      <c r="H53" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f>FLOOR(A52+10,10)</f>
         <v>260</v>
@@ -9483,10 +10346,13 @@
         <v>175</v>
       </c>
       <c r="G54" t="s">
+        <v>654</v>
+      </c>
+      <c r="H54" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>265</v>
       </c>
@@ -9509,10 +10375,13 @@
         <v>175</v>
       </c>
       <c r="G55" t="s">
+        <v>651</v>
+      </c>
+      <c r="H55" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f>FLOOR(A54+10,10)</f>
         <v>270</v>
@@ -9536,10 +10405,13 @@
         <v>175</v>
       </c>
       <c r="G56" t="s">
+        <v>652</v>
+      </c>
+      <c r="H56" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>275</v>
       </c>
@@ -9562,10 +10434,13 @@
         <v>175</v>
       </c>
       <c r="G57" t="s">
+        <v>649</v>
+      </c>
+      <c r="H57" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f>FLOOR(A56+10,10)</f>
         <v>280</v>
@@ -9589,10 +10464,13 @@
         <v>200</v>
       </c>
       <c r="G58" t="s">
+        <v>650</v>
+      </c>
+      <c r="H58" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>285</v>
       </c>
@@ -9615,10 +10493,13 @@
         <v>200</v>
       </c>
       <c r="G59" t="s">
+        <v>654</v>
+      </c>
+      <c r="H59" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f>FLOOR(A58+10,10)</f>
         <v>290</v>
@@ -9642,10 +10523,13 @@
         <v>200</v>
       </c>
       <c r="G60" t="s">
+        <v>651</v>
+      </c>
+      <c r="H60" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>295</v>
       </c>
@@ -9668,10 +10552,13 @@
         <v>200</v>
       </c>
       <c r="G61" t="s">
+        <v>652</v>
+      </c>
+      <c r="H61" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f>FLOOR(A60+10,10)</f>
         <v>300</v>
@@ -9695,36 +10582,42 @@
         <v>200</v>
       </c>
       <c r="G62" t="s">
+        <v>649</v>
+      </c>
+      <c r="H62" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>305</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" t="s">
         <v>593</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" t="s">
         <v>528</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="2">
         <f t="shared" si="0"/>
         <v>1565</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="2">
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="2">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" t="s">
+        <v>650</v>
+      </c>
+      <c r="H63" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f>FLOOR(A62+10,10)</f>
         <v>310</v>
@@ -9748,10 +10641,13 @@
         <v>200</v>
       </c>
       <c r="G64" t="s">
+        <v>654</v>
+      </c>
+      <c r="H64" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>315</v>
       </c>
@@ -9774,10 +10670,13 @@
         <v>200</v>
       </c>
       <c r="G65" t="s">
+        <v>651</v>
+      </c>
+      <c r="H65" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f>FLOOR(A64+10,10)</f>
         <v>320</v>
@@ -9801,10 +10700,13 @@
         <v>225</v>
       </c>
       <c r="G66" t="s">
+        <v>652</v>
+      </c>
+      <c r="H66" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>325</v>
       </c>
@@ -9827,10 +10729,13 @@
         <v>225</v>
       </c>
       <c r="G67" t="s">
+        <v>649</v>
+      </c>
+      <c r="H67" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f>FLOOR(A66+10,10)</f>
         <v>330</v>
@@ -9854,10 +10759,13 @@
         <v>225</v>
       </c>
       <c r="G68" t="s">
+        <v>650</v>
+      </c>
+      <c r="H68" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>335</v>
       </c>
@@ -9880,10 +10788,13 @@
         <v>225</v>
       </c>
       <c r="G69" t="s">
+        <v>654</v>
+      </c>
+      <c r="H69" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f>FLOOR(A68+10,10)</f>
         <v>340</v>
@@ -9907,10 +10818,13 @@
         <v>225</v>
       </c>
       <c r="G70" t="s">
+        <v>651</v>
+      </c>
+      <c r="H70" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>345</v>
       </c>
@@ -9933,10 +10847,13 @@
         <v>225</v>
       </c>
       <c r="G71" t="s">
+        <v>652</v>
+      </c>
+      <c r="H71" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f>FLOOR(A70+10,10)</f>
         <v>350</v>
@@ -9960,10 +10877,13 @@
         <v>225</v>
       </c>
       <c r="G72" t="s">
+        <v>649</v>
+      </c>
+      <c r="H72" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>355</v>
       </c>
@@ -9986,10 +10906,13 @@
         <v>225</v>
       </c>
       <c r="G73" t="s">
+        <v>650</v>
+      </c>
+      <c r="H73" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f>FLOOR(A72+10,10)</f>
         <v>360</v>
@@ -10013,10 +10936,13 @@
         <v>250</v>
       </c>
       <c r="G74" t="s">
+        <v>654</v>
+      </c>
+      <c r="H74" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>365</v>
       </c>
@@ -10039,10 +10965,13 @@
         <v>250</v>
       </c>
       <c r="G75" t="s">
+        <v>651</v>
+      </c>
+      <c r="H75" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f>FLOOR(A74+10,10)</f>
         <v>370</v>
@@ -10066,10 +10995,13 @@
         <v>250</v>
       </c>
       <c r="G76" t="s">
+        <v>652</v>
+      </c>
+      <c r="H76" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>375</v>
       </c>
@@ -10092,10 +11024,13 @@
         <v>250</v>
       </c>
       <c r="G77" t="s">
+        <v>649</v>
+      </c>
+      <c r="H77" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f>FLOOR(A76+10,10)</f>
         <v>380</v>
@@ -10119,10 +11054,13 @@
         <v>250</v>
       </c>
       <c r="G78" t="s">
+        <v>650</v>
+      </c>
+      <c r="H78" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>385</v>
       </c>
@@ -10145,10 +11083,13 @@
         <v>250</v>
       </c>
       <c r="G79" t="s">
+        <v>654</v>
+      </c>
+      <c r="H79" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f>FLOOR(A78+10,10)</f>
         <v>390</v>
@@ -10172,10 +11113,13 @@
         <v>250</v>
       </c>
       <c r="G80" t="s">
+        <v>651</v>
+      </c>
+      <c r="H80" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>395</v>
       </c>
@@ -10198,10 +11142,13 @@
         <v>250</v>
       </c>
       <c r="G81" t="s">
+        <v>652</v>
+      </c>
+      <c r="H81" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f>FLOOR(A80+10,10)</f>
         <v>400</v>
@@ -10225,10 +11172,13 @@
         <v>275</v>
       </c>
       <c r="G82" t="s">
+        <v>649</v>
+      </c>
+      <c r="H82" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>405</v>
       </c>
@@ -10251,10 +11201,13 @@
         <v>275</v>
       </c>
       <c r="G83" t="s">
+        <v>650</v>
+      </c>
+      <c r="H83" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f>FLOOR(A82+10,10)</f>
         <v>410</v>
@@ -10278,10 +11231,13 @@
         <v>275</v>
       </c>
       <c r="G84" t="s">
+        <v>654</v>
+      </c>
+      <c r="H84" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>415</v>
       </c>
@@ -10304,10 +11260,13 @@
         <v>275</v>
       </c>
       <c r="G85" t="s">
+        <v>651</v>
+      </c>
+      <c r="H85" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f>FLOOR(A84+10,10)</f>
         <v>420</v>
@@ -10331,10 +11290,13 @@
         <v>275</v>
       </c>
       <c r="G86" t="s">
+        <v>652</v>
+      </c>
+      <c r="H86" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>425</v>
       </c>
@@ -10357,10 +11319,13 @@
         <v>275</v>
       </c>
       <c r="G87" t="s">
+        <v>649</v>
+      </c>
+      <c r="H87" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f>FLOOR(A86+10,10)</f>
         <v>430</v>
@@ -10384,10 +11349,13 @@
         <v>275</v>
       </c>
       <c r="G88" t="s">
+        <v>650</v>
+      </c>
+      <c r="H88" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>435</v>
       </c>
@@ -10410,10 +11378,13 @@
         <v>275</v>
       </c>
       <c r="G89" t="s">
+        <v>654</v>
+      </c>
+      <c r="H89" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f>FLOOR(A88+10,10)</f>
         <v>440</v>
@@ -10437,10 +11408,13 @@
         <v>300</v>
       </c>
       <c r="G90" t="s">
+        <v>651</v>
+      </c>
+      <c r="H90" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>445</v>
       </c>
@@ -10463,10 +11437,13 @@
         <v>300</v>
       </c>
       <c r="G91" t="s">
+        <v>652</v>
+      </c>
+      <c r="H91" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f>FLOOR(A90+10,10)</f>
         <v>450</v>
@@ -10490,10 +11467,13 @@
         <v>300</v>
       </c>
       <c r="G92" t="s">
+        <v>649</v>
+      </c>
+      <c r="H92" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>455</v>
       </c>
@@ -10516,10 +11496,13 @@
         <v>300</v>
       </c>
       <c r="G93" t="s">
+        <v>650</v>
+      </c>
+      <c r="H93" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>460</v>
       </c>
@@ -10542,10 +11525,13 @@
         <v>300</v>
       </c>
       <c r="G94" t="s">
+        <v>654</v>
+      </c>
+      <c r="H94" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>465</v>
       </c>
@@ -10568,10 +11554,13 @@
         <v>300</v>
       </c>
       <c r="G95" t="s">
+        <v>651</v>
+      </c>
+      <c r="H95" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>470</v>
       </c>
@@ -10594,10 +11583,13 @@
         <v>300</v>
       </c>
       <c r="G96" t="s">
+        <v>652</v>
+      </c>
+      <c r="H96" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>475</v>
       </c>
@@ -10620,10 +11612,13 @@
         <v>300</v>
       </c>
       <c r="G97" t="s">
+        <v>649</v>
+      </c>
+      <c r="H97" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>480</v>
       </c>
@@ -10646,10 +11641,13 @@
         <v>325</v>
       </c>
       <c r="G98" t="s">
+        <v>650</v>
+      </c>
+      <c r="H98" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>485</v>
       </c>
@@ -10672,10 +11670,13 @@
         <v>325</v>
       </c>
       <c r="G99" t="s">
+        <v>654</v>
+      </c>
+      <c r="H99" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>490</v>
       </c>
@@ -10698,10 +11699,13 @@
         <v>325</v>
       </c>
       <c r="G100" t="s">
+        <v>651</v>
+      </c>
+      <c r="H100" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>495</v>
       </c>
@@ -10724,10 +11728,13 @@
         <v>325</v>
       </c>
       <c r="G101" t="s">
+        <v>652</v>
+      </c>
+      <c r="H101" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>500</v>
       </c>
@@ -10750,10 +11757,13 @@
         <v>325</v>
       </c>
       <c r="G102" t="s">
+        <v>649</v>
+      </c>
+      <c r="H102" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>500</v>
       </c>
@@ -10776,14 +11786,17 @@
         <v>325</v>
       </c>
       <c r="G103" t="s">
+        <v>649</v>
+      </c>
+      <c r="H103" t="s">
         <v>633</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="J6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12960,7 +13973,7 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>14.87</v>
+        <v>18.119999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -12983,7 +13996,7 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>17.369999999999997</v>
+        <v>20.119999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -13006,7 +14019,7 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>22.369999999999997</v>
+        <v>24.119999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13029,7 +14042,7 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>22.869999999999997</v>
+        <v>28.869999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13052,7 +14065,7 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>28.869999999999997</v>
+        <v>34.369999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13075,7 +14088,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>31.119999999999997</v>
+        <v>35.369999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13098,7 +14111,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>34.869999999999997</v>
+        <v>38.869999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13121,7 +14134,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>37.619999999999997</v>
+        <v>44.37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13144,7 +14157,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>37.869999999999997</v>
+        <v>48.37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -13167,7 +14180,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>39.369999999999997</v>
+        <v>54.37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13190,7 +14203,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>44.12</v>
+        <v>59.62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13213,7 +14226,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>50.37</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -13236,7 +14249,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>53.37</v>
+        <v>67.12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13259,7 +14272,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>56.62</v>
+        <v>67.62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -13282,7 +14295,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>61.87</v>
+        <v>68.37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -13305,7 +14318,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>67.87</v>
+        <v>74.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -13328,7 +14341,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>72.12</v>
+        <v>75.12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -13351,7 +14364,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>74.12</v>
+        <v>76.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -13374,7 +14387,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>74.87</v>
+        <v>76.37</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -13397,7 +14410,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>80.87</v>
+        <v>77.37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -13420,7 +14433,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>87.12</v>
+        <v>83.37</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -13443,7 +14456,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>89.62</v>
+        <v>86.37</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22841498-48E8-4C3A-BE23-BAADDB4CBB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F7B30-EFEE-4A1B-834B-E2E038668CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
@@ -2185,6 +2185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2194,7 +2195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -2739,13 +2739,13 @@
       <c r="I4" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2778,13 +2778,13 @@
       <c r="I5" t="s">
         <v>617</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2818,13 +2818,13 @@
       <c r="I6" t="s">
         <v>619</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -5842,13 +5842,13 @@
       <c r="I4" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -5881,13 +5881,13 @@
       <c r="I5" t="s">
         <v>624</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -5921,13 +5921,13 @@
       <c r="I6" t="s">
         <v>625</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -8941,13 +8941,13 @@
       <c r="I4" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -8980,13 +8980,13 @@
       <c r="I5" t="s">
         <v>629</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -9020,13 +9020,13 @@
       <c r="I6" t="s">
         <v>630</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -11911,7 +11911,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11924,25 +11924,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -12017,13 +12017,13 @@
       <c r="H4" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -12050,13 +12050,13 @@
       <c r="H5" t="s">
         <v>640</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -12083,13 +12083,13 @@
       <c r="H6" t="s">
         <v>641</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>14.37</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>20.119999999999997</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>23.369999999999997</v>
+        <v>16.869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>26.369999999999997</v>
+        <v>19.619999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>32.119999999999997</v>
+        <v>20.619999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>37.869999999999997</v>
+        <v>26.619999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>40.619999999999997</v>
+        <v>32.619999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>46.37</v>
+        <v>37.619999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>47.62</v>
+        <v>39.119999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>51.37</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>54.12</v>
+        <v>50.37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>60.37</v>
+        <v>52.37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>65.62</v>
+        <v>57.37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>65.87</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>68.62</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>74.37</v>
+        <v>66.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -14858,7 +14858,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>78.62</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>79.37</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -14904,7 +14904,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>83.62</v>
+        <v>80.12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -14927,7 +14927,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>85.37</v>
+        <v>81.37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>87.37</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>92.37</v>
+        <v>90.87</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F7B30-EFEE-4A1B-834B-E2E038668CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9DC84B-6585-40A7-9077-4ED6A8E7C237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
+    <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
   <sheets>
     <sheet name="Pirate" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="639">
   <si>
     <t>Level</t>
   </si>
@@ -838,12 +838,6 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Pirate First Mate++</t>
-  </si>
-  <si>
-    <t>Pirate Master-at-Arms++</t>
-  </si>
-  <si>
     <t>Pirate Navigator++</t>
   </si>
   <si>
@@ -868,12 +862,6 @@
     <t>Pirate Navigator</t>
   </si>
   <si>
-    <t>Pirate Master-at-Arms</t>
-  </si>
-  <si>
-    <t>Pirate First Mate</t>
-  </si>
-  <si>
     <t>Pirate Experimentor++</t>
   </si>
   <si>
@@ -883,265 +871,127 @@
     <t>EncCrimsonFleet13MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet13MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet13MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet13MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet13MK5</t>
   </si>
   <si>
     <t>EncCrimsonFleet14MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet14MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet14MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet14MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet14MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet02MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet02MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet02MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet02MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet03MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet03MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet03MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet03MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet04MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet04MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet04MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet04MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet05MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet05MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet05MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet05MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet06MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet06MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet06MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet06MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet07MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet07MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet07MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet07MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet08MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet08MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet08MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet08MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet09MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet09MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet09MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet09MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet10MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet10MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet10MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet10MK5</t>
   </si>
   <si>
     <t>EncCrimsonFleet15MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet15MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet15MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet15MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet15MK5</t>
   </si>
   <si>
     <t>EncCrimsonFleet16MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet16MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet16MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet16MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet16MK5</t>
   </si>
   <si>
     <t>EncCrimsonFleet17MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet17MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet17MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet17MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet17MK5</t>
   </si>
   <si>
     <t>EncCrimsonFleet18MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet18MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet18MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet18MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet18MK5</t>
   </si>
   <si>
     <t>EncCrimsonFleet19MK1</t>
   </si>
   <si>
-    <t>EncCrimsonFleet19MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet19MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet19MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet19MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet20MK1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet20MK2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet20MK3</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet20MK4</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet20MK5</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet21MK1</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet21MK2</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet21MK3</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet21MK4</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet21MK5</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet11MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet11MK3</t>
   </si>
   <si>
-    <t>EncCrimsonFleet11MK4</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet11MK5</t>
   </si>
   <si>
-    <t>EncCrimsonFleet12MK2</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet12MK3</t>
-  </si>
-  <si>
-    <t>EncCrimsonFleet12MK4</t>
   </si>
   <si>
     <t>EncCrimsonFleet12MK5</t>
@@ -2171,7 +2021,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2194,6 +2044,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2604,3100 +2457,1379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAB40E-ADE8-4D0F-8707-0DC6F2BA8471}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="25.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>566</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2">
+        <v>999</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="2">
-        <f>FLOOR((25+(5*A2))*1.01, 5)</f>
-        <v>30</v>
-      </c>
-      <c r="E2" s="2">
-        <f>FLOOR((25+(5*A2))*0.25, 5)</f>
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <f>CEILING(((25+(5*A2))*0.25)/2, 25)</f>
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D66" si="0">FLOOR((25+(5*A3))*1.01, 5)</f>
-        <v>50</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">FLOOR((25+(5*A3))*0.25, 5)</f>
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">CEILING(((25+(5*A3))*0.25)/2, 25)</f>
-        <v>25</v>
+      <c r="F3" t="s">
+        <v>569</v>
       </c>
       <c r="G3" t="s">
-        <v>619</v>
-      </c>
-      <c r="H3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f>FLOOR(A2+10,10)</f>
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>999</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="F4" t="s">
+        <v>571</v>
       </c>
       <c r="G4" t="s">
-        <v>622</v>
-      </c>
-      <c r="H4" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>263</v>
       </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>999</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
+        <v>570</v>
       </c>
       <c r="G5" t="s">
-        <v>621</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" t="s">
-        <v>617</v>
-      </c>
-      <c r="J5" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>261</v>
       </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f>FLOOR(A4+10,10)</f>
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>999</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" t="s">
+        <v>569</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I6" t="s">
-        <v>619</v>
-      </c>
-      <c r="J6" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>262</v>
       </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>999</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="2">
+        <v>999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>569</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>999</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
+        <v>570</v>
+      </c>
+      <c r="G11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>999</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>999</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>282</v>
       </c>
-      <c r="C7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="2">
-        <f>FLOOR((25+(5*A7))*1.5, 5)</f>
-        <v>225</v>
-      </c>
-      <c r="E7" s="2">
-        <f>FLOOR((25+(5*A7))*0.5, 5)</f>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>571</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>999</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>999</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2">
+        <v>999</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
+        <v>570</v>
+      </c>
+      <c r="G17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <v>999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>571</v>
+      </c>
+      <c r="G19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
+        <v>999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" t="s">
+        <v>570</v>
+      </c>
+      <c r="G20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>75</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>620</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="B21" s="2">
+        <v>999</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2">
+        <v>999</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>571</v>
+      </c>
+      <c r="G22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2">
+        <v>999</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" t="s">
+        <v>570</v>
+      </c>
+      <c r="G23" t="s">
         <v>242</v>
       </c>
-      <c r="I7" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f>FLOOR(A6+10,10)</f>
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2">
+        <v>999</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>569</v>
+      </c>
+      <c r="G24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2">
+        <v>999</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>571</v>
+      </c>
+      <c r="G25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2">
+        <v>999</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" t="s">
+        <v>570</v>
+      </c>
+      <c r="G26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>100</v>
+      </c>
+      <c r="B27" s="2">
+        <v>999</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>569</v>
+      </c>
+      <c r="G27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2">
+        <v>999</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>571</v>
+      </c>
+      <c r="G28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2">
+        <v>999</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" t="s">
+        <v>570</v>
+      </c>
+      <c r="G29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2">
+        <v>999</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>569</v>
+      </c>
+      <c r="G30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2">
+        <v>999</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>571</v>
+      </c>
+      <c r="G31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>100</v>
+      </c>
+      <c r="B32" s="2">
+        <v>999</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" t="s">
+        <v>570</v>
+      </c>
+      <c r="G32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2">
+        <v>999</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>569</v>
+      </c>
+      <c r="G33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>125</v>
+      </c>
+      <c r="B34" s="2">
+        <v>999</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>125</v>
+      </c>
+      <c r="B35" s="2">
+        <v>999</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" t="s">
+        <v>570</v>
+      </c>
+      <c r="G35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>125</v>
+      </c>
+      <c r="B36" s="2">
+        <v>999</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" t="s">
+        <v>569</v>
+      </c>
+      <c r="G36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>125</v>
+      </c>
+      <c r="B37" s="2">
+        <v>999</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" t="s">
+        <v>571</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>125</v>
+      </c>
+      <c r="B38" s="2">
+        <v>999</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" t="s">
+        <v>570</v>
+      </c>
+      <c r="G38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>150</v>
+      </c>
+      <c r="B39" s="2">
+        <v>999</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>301</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" t="s">
+        <v>569</v>
+      </c>
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>150</v>
+      </c>
+      <c r="B40" s="2">
+        <v>999</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E40" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" t="s">
+        <v>571</v>
+      </c>
+      <c r="G40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>150</v>
+      </c>
+      <c r="B41" s="2">
+        <v>999</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" t="s">
+        <v>570</v>
+      </c>
+      <c r="G41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>150</v>
+      </c>
+      <c r="B42" s="2">
+        <v>999</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" t="s">
+        <v>569</v>
+      </c>
+      <c r="G42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>150</v>
+      </c>
+      <c r="B43" s="2">
+        <v>999</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" t="s">
+        <v>571</v>
+      </c>
+      <c r="G43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>150</v>
+      </c>
+      <c r="B44" s="2">
+        <v>999</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" t="s">
+        <v>570</v>
+      </c>
+      <c r="G44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>175</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>619</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B45" s="2">
+        <v>999</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" t="s">
+        <v>569</v>
+      </c>
+      <c r="G45" t="s">
         <v>160</v>
       </c>
-      <c r="I8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>175</v>
+      </c>
+      <c r="B46" s="2">
+        <v>999</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" t="s">
+        <v>270</v>
+      </c>
+      <c r="F46" t="s">
+        <v>571</v>
+      </c>
+      <c r="G46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>175</v>
+      </c>
+      <c r="B47" s="2">
+        <v>999</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>309</v>
+      </c>
+      <c r="E47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" t="s">
+        <v>570</v>
+      </c>
+      <c r="G47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>175</v>
+      </c>
+      <c r="B48" s="2">
+        <v>999</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" t="s">
+        <v>569</v>
+      </c>
+      <c r="G48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>175</v>
+      </c>
+      <c r="B49" s="2">
+        <v>999</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>175</v>
+      </c>
+      <c r="B50" s="2">
+        <v>999</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" t="s">
+        <v>570</v>
+      </c>
+      <c r="G50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>200</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>622</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B51" s="2">
+        <v>999</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>569</v>
+      </c>
+      <c r="G51" t="s">
         <v>160</v>
       </c>
-      <c r="I9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>621</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>200</v>
+      </c>
+      <c r="B52" s="2">
+        <v>999</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>571</v>
+      </c>
+      <c r="G52" t="s">
         <v>160</v>
       </c>
-      <c r="I10" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>617</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>200</v>
+      </c>
+      <c r="B53" s="2">
+        <v>999</v>
+      </c>
+      <c r="C53" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>314</v>
+      </c>
+      <c r="E53" t="s">
+        <v>254</v>
+      </c>
+      <c r="F53" t="s">
+        <v>570</v>
+      </c>
+      <c r="G53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>200</v>
+      </c>
+      <c r="B54" s="2">
+        <v>999</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>569</v>
+      </c>
+      <c r="G54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <f t="shared" ref="A12" si="3">FLOOR(A11+10,10)</f>
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="2">
-        <f>FLOOR((25+(5*A12))*1.5, 5)</f>
-        <v>410</v>
-      </c>
-      <c r="E12" s="2">
-        <f>FLOOR((25+(5*A12))*0.5, 5)</f>
-        <v>135</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>620</v>
-      </c>
-      <c r="H12" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>200</v>
+      </c>
+      <c r="B55" s="2">
+        <v>999</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s">
+        <v>571</v>
+      </c>
+      <c r="G55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>200</v>
+      </c>
+      <c r="B56" s="2">
+        <v>999</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D56" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" t="s">
+        <v>570</v>
+      </c>
+      <c r="G56" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>619</v>
-      </c>
-      <c r="H13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <f>FLOOR(A12+10,10)</f>
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>622</v>
-      </c>
-      <c r="H14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>621</v>
-      </c>
-      <c r="H15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <f>FLOOR(A14+10,10)</f>
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>617</v>
-      </c>
-      <c r="H16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="2">
-        <f>FLOOR((25+(5*A17))*1.5, 5)</f>
-        <v>600</v>
-      </c>
-      <c r="E17" s="2">
-        <f>FLOOR((25+(5*A17))*0.5, 5)</f>
-        <v>200</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G17" t="s">
-        <v>620</v>
-      </c>
-      <c r="H17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <f>FLOOR(A16+10,10)</f>
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>425</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>619</v>
-      </c>
-      <c r="H18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G19" t="s">
-        <v>622</v>
-      </c>
-      <c r="H19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <f>FLOOR(A18+10,10)</f>
-        <v>90</v>
-      </c>
-      <c r="B20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>475</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G20" t="s">
-        <v>621</v>
-      </c>
-      <c r="H20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>505</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>617</v>
-      </c>
-      <c r="H21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <f>FLOOR(A20+10,10)</f>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>100</v>
       </c>
-      <c r="B22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="2">
-        <f>FLOOR((25+(5*A22))*1.5, 5)</f>
-        <v>785</v>
-      </c>
-      <c r="E22" s="2">
-        <f>FLOOR((25+(5*A22))*0.5, 5)</f>
-        <v>260</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>620</v>
-      </c>
-      <c r="H22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G23" t="s">
-        <v>619</v>
-      </c>
-      <c r="H23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <f>FLOOR(A22+10,10)</f>
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>580</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G24" t="s">
-        <v>622</v>
-      </c>
-      <c r="H24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>297</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>621</v>
-      </c>
-      <c r="H25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <f>FLOOR(A24+10,10)</f>
-        <v>120</v>
-      </c>
-      <c r="B26" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>617</v>
-      </c>
-      <c r="H26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="2">
-        <f>FLOOR((25+(5*A27))*1.5, 5)</f>
-        <v>975</v>
-      </c>
-      <c r="E27" s="2">
-        <f>FLOOR((25+(5*A27))*0.5, 5)</f>
-        <v>325</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>620</v>
-      </c>
-      <c r="H27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <f>FLOOR(A26+10,10)</f>
-        <v>130</v>
-      </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>680</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G28" t="s">
-        <v>619</v>
-      </c>
-      <c r="H28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>135</v>
-      </c>
-      <c r="B29" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>705</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>622</v>
-      </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <f>FLOOR(A28+10,10)</f>
-        <v>140</v>
-      </c>
-      <c r="B30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>730</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>621</v>
-      </c>
-      <c r="H30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>145</v>
-      </c>
-      <c r="B31" t="s">
-        <v>302</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>755</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>617</v>
-      </c>
-      <c r="H31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <f>FLOOR(A30+10,10)</f>
-        <v>150</v>
-      </c>
-      <c r="B32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="2">
-        <f>FLOOR((25+(5*A32))*1.5, 5)</f>
-        <v>1160</v>
-      </c>
-      <c r="E32" s="2">
-        <f>FLOOR((25+(5*A32))*0.5, 5)</f>
-        <v>385</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G32" t="s">
-        <v>620</v>
-      </c>
-      <c r="H32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>805</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>619</v>
-      </c>
-      <c r="H33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <f>FLOOR(A32+10,10)</f>
-        <v>160</v>
-      </c>
-      <c r="B34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>830</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G34" t="s">
-        <v>622</v>
-      </c>
-      <c r="H34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>165</v>
-      </c>
-      <c r="B35" t="s">
-        <v>305</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>855</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G35" t="s">
-        <v>621</v>
-      </c>
-      <c r="H35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <f>FLOOR(A34+10,10)</f>
-        <v>170</v>
-      </c>
-      <c r="B36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G36" t="s">
-        <v>617</v>
-      </c>
-      <c r="H36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>175</v>
-      </c>
-      <c r="B37" t="s">
-        <v>307</v>
-      </c>
-      <c r="C37" t="s">
-        <v>248</v>
-      </c>
-      <c r="D37" s="2">
-        <f>FLOOR((25+(5*A37))*1.5, 5)</f>
-        <v>1350</v>
-      </c>
-      <c r="E37" s="2">
-        <f>FLOOR((25+(5*A37))*0.5, 5)</f>
-        <v>450</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G37" t="s">
-        <v>620</v>
-      </c>
-      <c r="H37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <f>FLOOR(A36+10,10)</f>
-        <v>180</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G38" t="s">
-        <v>619</v>
-      </c>
-      <c r="H38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>185</v>
-      </c>
-      <c r="B39" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>955</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G39" t="s">
-        <v>622</v>
-      </c>
-      <c r="H39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <f>FLOOR(A38+10,10)</f>
-        <v>190</v>
-      </c>
-      <c r="B40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>980</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G40" t="s">
-        <v>621</v>
-      </c>
-      <c r="H40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>195</v>
-      </c>
-      <c r="B41" t="s">
-        <v>310</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>1010</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="G41" t="s">
-        <v>617</v>
-      </c>
-      <c r="H41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <f>FLOOR(A40+10,10)</f>
-        <v>200</v>
-      </c>
-      <c r="B42" t="s">
-        <v>311</v>
-      </c>
-      <c r="C42" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="2">
-        <f>FLOOR((25+(5*A42))*1.5, 5)</f>
-        <v>1535</v>
-      </c>
-      <c r="E42" s="2">
-        <f>FLOOR((25+(5*A42))*0.5, 5)</f>
-        <v>510</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G42" t="s">
-        <v>620</v>
-      </c>
-      <c r="H42" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>205</v>
-      </c>
-      <c r="B43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>1060</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G43" t="s">
-        <v>619</v>
-      </c>
-      <c r="H43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <f>FLOOR(A42+10,10)</f>
-        <v>210</v>
-      </c>
-      <c r="B44" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>1085</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G44" t="s">
-        <v>622</v>
-      </c>
-      <c r="H44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>215</v>
-      </c>
-      <c r="B45" t="s">
-        <v>313</v>
-      </c>
-      <c r="C45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>1110</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G45" t="s">
-        <v>621</v>
-      </c>
-      <c r="H45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <f>FLOOR(A44+10,10)</f>
-        <v>220</v>
-      </c>
-      <c r="B46" t="s">
-        <v>314</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>1135</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G46" t="s">
-        <v>617</v>
-      </c>
-      <c r="H46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>225</v>
-      </c>
-      <c r="B47" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="2">
-        <f>FLOOR((25+(5*A47))*1.5, 5)</f>
-        <v>1725</v>
-      </c>
-      <c r="E47" s="2">
-        <f>FLOOR((25+(5*A47))*0.5, 5)</f>
-        <v>575</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G47" t="s">
-        <v>620</v>
-      </c>
-      <c r="H47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <f>FLOOR(A46+10,10)</f>
-        <v>230</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>1185</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G48" t="s">
-        <v>619</v>
-      </c>
-      <c r="H48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>235</v>
-      </c>
-      <c r="B49" t="s">
-        <v>316</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="0"/>
-        <v>1210</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="G49" t="s">
-        <v>622</v>
-      </c>
-      <c r="H49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <f>FLOOR(A48+10,10)</f>
-        <v>240</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B57" s="2">
+        <v>999</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D57" t="s">
         <v>317</v>
       </c>
-      <c r="C50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="0"/>
-        <v>1235</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G50" t="s">
-        <v>621</v>
-      </c>
-      <c r="H50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>245</v>
-      </c>
-      <c r="B51" t="s">
-        <v>318</v>
-      </c>
-      <c r="C51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="0"/>
-        <v>1260</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G51" t="s">
-        <v>617</v>
-      </c>
-      <c r="H51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <f>FLOOR(A50+10,10)</f>
-        <v>250</v>
-      </c>
-      <c r="B52" t="s">
-        <v>319</v>
-      </c>
-      <c r="C52" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="2">
-        <f>FLOOR((25+(5*A52))*1.5, 5)</f>
-        <v>1910</v>
-      </c>
-      <c r="E52" s="2">
-        <f>FLOOR((25+(5*A52))*0.5, 5)</f>
-        <v>635</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G52" t="s">
-        <v>620</v>
-      </c>
-      <c r="H52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>255</v>
-      </c>
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="0"/>
-        <v>1310</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G53" t="s">
-        <v>619</v>
-      </c>
-      <c r="H53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <f>FLOOR(A52+10,10)</f>
-        <v>260</v>
-      </c>
-      <c r="B54" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="0"/>
-        <v>1335</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G54" t="s">
-        <v>622</v>
-      </c>
-      <c r="H54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>265</v>
-      </c>
-      <c r="B55" t="s">
-        <v>321</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="0"/>
-        <v>1360</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="1"/>
-        <v>335</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G55" t="s">
-        <v>621</v>
-      </c>
-      <c r="H55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <f>FLOOR(A54+10,10)</f>
-        <v>270</v>
-      </c>
-      <c r="B56" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="0"/>
-        <v>1385</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
-      </c>
-      <c r="G56" t="s">
-        <v>617</v>
-      </c>
-      <c r="H56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>275</v>
-      </c>
-      <c r="B57" t="s">
-        <v>323</v>
-      </c>
-      <c r="C57" t="s">
-        <v>253</v>
-      </c>
-      <c r="D57" s="2">
-        <f>FLOOR((25+(5*A57))*1.5, 5)</f>
-        <v>2100</v>
-      </c>
-      <c r="E57" s="2">
-        <f>FLOOR((25+(5*A57))*0.5, 5)</f>
-        <v>700</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="2"/>
-        <v>175</v>
+      <c r="E57" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" t="s">
+        <v>570</v>
       </c>
       <c r="G57" t="s">
-        <v>620</v>
-      </c>
-      <c r="H57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <f>FLOOR(A56+10,10)</f>
-        <v>280</v>
-      </c>
-      <c r="B58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="0"/>
-        <v>1435</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G58" t="s">
-        <v>619</v>
-      </c>
-      <c r="H58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>285</v>
-      </c>
-      <c r="B59" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="0"/>
-        <v>1460</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G59" t="s">
-        <v>622</v>
-      </c>
-      <c r="H59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <f>FLOOR(A58+10,10)</f>
-        <v>290</v>
-      </c>
-      <c r="B60" t="s">
-        <v>326</v>
-      </c>
-      <c r="C60" t="s">
-        <v>270</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="0"/>
-        <v>1485</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="1"/>
-        <v>365</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G60" t="s">
-        <v>621</v>
-      </c>
-      <c r="H60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>295</v>
-      </c>
-      <c r="B61" t="s">
-        <v>327</v>
-      </c>
-      <c r="C61" t="s">
-        <v>270</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="0"/>
-        <v>1515</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G61" t="s">
-        <v>617</v>
-      </c>
-      <c r="H61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <f>FLOOR(A60+10,10)</f>
-        <v>300</v>
-      </c>
-      <c r="B62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C62" t="s">
-        <v>267</v>
-      </c>
-      <c r="D62" s="2">
-        <f>FLOOR((25+(5*A62))*1.5, 5)</f>
-        <v>2285</v>
-      </c>
-      <c r="E62" s="2">
-        <f>FLOOR((25+(5*A62))*0.5, 5)</f>
-        <v>760</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G62" t="s">
-        <v>620</v>
-      </c>
-      <c r="H62" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>305</v>
-      </c>
-      <c r="B63" t="s">
-        <v>329</v>
-      </c>
-      <c r="C63" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="0"/>
-        <v>1565</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="1"/>
-        <v>385</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G63" t="s">
-        <v>619</v>
-      </c>
-      <c r="H63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <f>FLOOR(A62+10,10)</f>
-        <v>310</v>
-      </c>
-      <c r="B64" t="s">
-        <v>330</v>
-      </c>
-      <c r="C64" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="0"/>
-        <v>1590</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G64" t="s">
-        <v>622</v>
-      </c>
-      <c r="H64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>315</v>
-      </c>
-      <c r="B65" t="s">
-        <v>331</v>
-      </c>
-      <c r="C65" t="s">
-        <v>259</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="0"/>
-        <v>1615</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F65" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G65" t="s">
-        <v>621</v>
-      </c>
-      <c r="H65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <f>FLOOR(A64+10,10)</f>
-        <v>320</v>
-      </c>
-      <c r="B66" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="0"/>
-        <v>1640</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="G66" t="s">
-        <v>617</v>
-      </c>
-      <c r="H66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>325</v>
-      </c>
-      <c r="B67" t="s">
-        <v>333</v>
-      </c>
-      <c r="C67" t="s">
-        <v>260</v>
-      </c>
-      <c r="D67" s="2">
-        <f>FLOOR((25+(5*A67))*1.5, 5)</f>
-        <v>2475</v>
-      </c>
-      <c r="E67" s="2">
-        <f>FLOOR((25+(5*A67))*0.5, 5)</f>
-        <v>825</v>
-      </c>
-      <c r="F67" s="2">
-        <f t="shared" ref="F67:F103" si="4">CEILING(((25+(5*A67))*0.25)/2, 25)</f>
-        <v>225</v>
-      </c>
-      <c r="G67" t="s">
-        <v>620</v>
-      </c>
-      <c r="H67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <f>FLOOR(A66+10,10)</f>
-        <v>330</v>
-      </c>
-      <c r="B68" t="s">
-        <v>334</v>
-      </c>
-      <c r="C68" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" ref="D68:D101" si="5">FLOOR((25+(5*A68))*1.01, 5)</f>
-        <v>1690</v>
-      </c>
-      <c r="E68" s="2">
-        <f>FLOOR((25+(5*A68))*0.25, 5)</f>
-        <v>415</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G68" t="s">
-        <v>619</v>
-      </c>
-      <c r="H68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>335</v>
-      </c>
-      <c r="B69" t="s">
-        <v>335</v>
-      </c>
-      <c r="C69" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="2">
-        <f t="shared" si="5"/>
-        <v>1715</v>
-      </c>
-      <c r="E69" s="2">
-        <f>FLOOR((25+(5*A69))*0.25, 5)</f>
-        <v>425</v>
-      </c>
-      <c r="F69" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G69" t="s">
-        <v>622</v>
-      </c>
-      <c r="H69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <f>FLOOR(A68+10,10)</f>
-        <v>340</v>
-      </c>
-      <c r="B70" t="s">
-        <v>336</v>
-      </c>
-      <c r="C70" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="5"/>
-        <v>1740</v>
-      </c>
-      <c r="E70" s="2">
-        <f>FLOOR((25+(5*A70))*0.25, 5)</f>
-        <v>430</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G70" t="s">
-        <v>621</v>
-      </c>
-      <c r="H70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>345</v>
-      </c>
-      <c r="B71" t="s">
-        <v>337</v>
-      </c>
-      <c r="C71" t="s">
-        <v>271</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="5"/>
-        <v>1765</v>
-      </c>
-      <c r="E71" s="2">
-        <f>FLOOR((25+(5*A71))*0.25, 5)</f>
-        <v>435</v>
-      </c>
-      <c r="F71" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G71" t="s">
-        <v>617</v>
-      </c>
-      <c r="H71" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <f>FLOOR(A70+10,10)</f>
-        <v>350</v>
-      </c>
-      <c r="B72" t="s">
-        <v>338</v>
-      </c>
-      <c r="C72" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="2">
-        <f>FLOOR((25+(5*A72))*1.5, 5)</f>
-        <v>2660</v>
-      </c>
-      <c r="E72" s="2">
-        <f>FLOOR((25+(5*A72))*0.5, 5)</f>
-        <v>885</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G72" t="s">
-        <v>620</v>
-      </c>
-      <c r="H72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>355</v>
-      </c>
-      <c r="B73" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" t="s">
-        <v>272</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="5"/>
-        <v>1815</v>
-      </c>
-      <c r="E73" s="2">
-        <f>FLOOR((25+(5*A73))*0.25, 5)</f>
-        <v>450</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G73" t="s">
-        <v>619</v>
-      </c>
-      <c r="H73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <f>FLOOR(A72+10,10)</f>
-        <v>360</v>
-      </c>
-      <c r="B74" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" t="s">
-        <v>272</v>
-      </c>
-      <c r="D74" s="2">
-        <f t="shared" si="5"/>
-        <v>1840</v>
-      </c>
-      <c r="E74" s="2">
-        <f>FLOOR((25+(5*A74))*0.25, 5)</f>
-        <v>455</v>
-      </c>
-      <c r="F74" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G74" t="s">
-        <v>622</v>
-      </c>
-      <c r="H74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>365</v>
-      </c>
-      <c r="B75" t="s">
-        <v>341</v>
-      </c>
-      <c r="C75" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="2">
-        <f t="shared" si="5"/>
-        <v>1865</v>
-      </c>
-      <c r="E75" s="2">
-        <f>FLOOR((25+(5*A75))*0.25, 5)</f>
-        <v>460</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G75" t="s">
-        <v>621</v>
-      </c>
-      <c r="H75" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <f>FLOOR(A74+10,10)</f>
-        <v>370</v>
-      </c>
-      <c r="B76" t="s">
-        <v>342</v>
-      </c>
-      <c r="C76" t="s">
-        <v>272</v>
-      </c>
-      <c r="D76" s="2">
-        <f t="shared" si="5"/>
-        <v>1890</v>
-      </c>
-      <c r="E76" s="2">
-        <f>FLOOR((25+(5*A76))*0.25, 5)</f>
-        <v>465</v>
-      </c>
-      <c r="F76" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G76" t="s">
-        <v>617</v>
-      </c>
-      <c r="H76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>375</v>
-      </c>
-      <c r="B77" t="s">
-        <v>343</v>
-      </c>
-      <c r="C77" t="s">
-        <v>268</v>
-      </c>
-      <c r="D77" s="2">
-        <f>FLOOR((25+(5*A77))*1.5, 5)</f>
-        <v>2850</v>
-      </c>
-      <c r="E77" s="2">
-        <f>FLOOR((25+(5*A77))*0.5, 5)</f>
-        <v>950</v>
-      </c>
-      <c r="F77" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G77" t="s">
-        <v>620</v>
-      </c>
-      <c r="H77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <f>FLOOR(A76+10,10)</f>
-        <v>380</v>
-      </c>
-      <c r="B78" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" t="s">
-        <v>273</v>
-      </c>
-      <c r="D78" s="2">
-        <f t="shared" si="5"/>
-        <v>1940</v>
-      </c>
-      <c r="E78" s="2">
-        <f>FLOOR((25+(5*A78))*0.25, 5)</f>
-        <v>480</v>
-      </c>
-      <c r="F78" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G78" t="s">
-        <v>619</v>
-      </c>
-      <c r="H78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>385</v>
-      </c>
-      <c r="B79" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" t="s">
-        <v>273</v>
-      </c>
-      <c r="D79" s="2">
-        <f t="shared" si="5"/>
-        <v>1965</v>
-      </c>
-      <c r="E79" s="2">
-        <f>FLOOR((25+(5*A79))*0.25, 5)</f>
-        <v>485</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G79" t="s">
-        <v>622</v>
-      </c>
-      <c r="H79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <f>FLOOR(A78+10,10)</f>
-        <v>390</v>
-      </c>
-      <c r="B80" t="s">
-        <v>346</v>
-      </c>
-      <c r="C80" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="2">
-        <f t="shared" si="5"/>
-        <v>1990</v>
-      </c>
-      <c r="E80" s="2">
-        <f>FLOOR((25+(5*A80))*0.25, 5)</f>
-        <v>490</v>
-      </c>
-      <c r="F80" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G80" t="s">
-        <v>621</v>
-      </c>
-      <c r="H80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>395</v>
-      </c>
-      <c r="B81" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" t="s">
-        <v>273</v>
-      </c>
-      <c r="D81" s="2">
-        <f t="shared" si="5"/>
-        <v>2020</v>
-      </c>
-      <c r="E81" s="2">
-        <f>FLOOR((25+(5*A81))*0.25, 5)</f>
-        <v>500</v>
-      </c>
-      <c r="F81" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="G81" t="s">
-        <v>617</v>
-      </c>
-      <c r="H81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <f>FLOOR(A80+10,10)</f>
-        <v>400</v>
-      </c>
-      <c r="B82" t="s">
-        <v>348</v>
-      </c>
-      <c r="C82" t="s">
-        <v>266</v>
-      </c>
-      <c r="D82" s="2">
-        <f>FLOOR((25+(5*A82))*1.5, 5)</f>
-        <v>3035</v>
-      </c>
-      <c r="E82" s="2">
-        <f>FLOOR((25+(5*A82))*0.5, 5)</f>
-        <v>1010</v>
-      </c>
-      <c r="F82" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G82" t="s">
-        <v>620</v>
-      </c>
-      <c r="H82" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>405</v>
-      </c>
-      <c r="B83" t="s">
-        <v>349</v>
-      </c>
-      <c r="C83" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="2">
-        <f t="shared" si="5"/>
-        <v>2070</v>
-      </c>
-      <c r="E83" s="2">
-        <f>FLOOR((25+(5*A83))*0.25, 5)</f>
-        <v>510</v>
-      </c>
-      <c r="F83" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G83" t="s">
-        <v>619</v>
-      </c>
-      <c r="H83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <f>FLOOR(A82+10,10)</f>
-        <v>410</v>
-      </c>
-      <c r="B84" t="s">
-        <v>350</v>
-      </c>
-      <c r="C84" t="s">
-        <v>274</v>
-      </c>
-      <c r="D84" s="2">
-        <f t="shared" si="5"/>
-        <v>2095</v>
-      </c>
-      <c r="E84" s="2">
-        <f>FLOOR((25+(5*A84))*0.25, 5)</f>
-        <v>515</v>
-      </c>
-      <c r="F84" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G84" t="s">
-        <v>622</v>
-      </c>
-      <c r="H84" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>415</v>
-      </c>
-      <c r="B85" t="s">
-        <v>351</v>
-      </c>
-      <c r="C85" t="s">
-        <v>274</v>
-      </c>
-      <c r="D85" s="2">
-        <f t="shared" si="5"/>
-        <v>2120</v>
-      </c>
-      <c r="E85" s="2">
-        <f>FLOOR((25+(5*A85))*0.25, 5)</f>
-        <v>525</v>
-      </c>
-      <c r="F85" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G85" t="s">
-        <v>621</v>
-      </c>
-      <c r="H85" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <f>FLOOR(A84+10,10)</f>
-        <v>420</v>
-      </c>
-      <c r="B86" t="s">
-        <v>352</v>
-      </c>
-      <c r="C86" t="s">
-        <v>274</v>
-      </c>
-      <c r="D86" s="2">
-        <f t="shared" si="5"/>
-        <v>2145</v>
-      </c>
-      <c r="E86" s="2">
-        <f>FLOOR((25+(5*A86))*0.25, 5)</f>
-        <v>530</v>
-      </c>
-      <c r="F86" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G86" t="s">
-        <v>617</v>
-      </c>
-      <c r="H86" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>425</v>
-      </c>
-      <c r="B87" t="s">
-        <v>353</v>
-      </c>
-      <c r="C87" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="2">
-        <f>FLOOR((25+(5*A87))*1.5, 5)</f>
-        <v>3225</v>
-      </c>
-      <c r="E87" s="2">
-        <f>FLOOR((25+(5*A87))*0.5, 5)</f>
-        <v>1075</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G87" t="s">
-        <v>620</v>
-      </c>
-      <c r="H87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <f>FLOOR(A86+10,10)</f>
-        <v>430</v>
-      </c>
-      <c r="B88" t="s">
-        <v>354</v>
-      </c>
-      <c r="C88" t="s">
-        <v>275</v>
-      </c>
-      <c r="D88" s="2">
-        <f t="shared" si="5"/>
-        <v>2195</v>
-      </c>
-      <c r="E88" s="2">
-        <f>FLOOR((25+(5*A88))*0.25, 5)</f>
-        <v>540</v>
-      </c>
-      <c r="F88" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G88" t="s">
-        <v>619</v>
-      </c>
-      <c r="H88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>435</v>
-      </c>
-      <c r="B89" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" t="s">
-        <v>275</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="5"/>
-        <v>2220</v>
-      </c>
-      <c r="E89" s="2">
-        <f>FLOOR((25+(5*A89))*0.25, 5)</f>
-        <v>550</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
-      </c>
-      <c r="G89" t="s">
-        <v>622</v>
-      </c>
-      <c r="H89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <f>FLOOR(A88+10,10)</f>
-        <v>440</v>
-      </c>
-      <c r="B90" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" t="s">
-        <v>275</v>
-      </c>
-      <c r="D90" s="2">
-        <f t="shared" si="5"/>
-        <v>2245</v>
-      </c>
-      <c r="E90" s="2">
-        <f>FLOOR((25+(5*A90))*0.25, 5)</f>
-        <v>555</v>
-      </c>
-      <c r="F90" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G90" t="s">
-        <v>621</v>
-      </c>
-      <c r="H90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>445</v>
-      </c>
-      <c r="B91" t="s">
-        <v>357</v>
-      </c>
-      <c r="C91" t="s">
-        <v>275</v>
-      </c>
-      <c r="D91" s="2">
-        <f t="shared" si="5"/>
-        <v>2270</v>
-      </c>
-      <c r="E91" s="2">
-        <f>FLOOR((25+(5*A91))*0.25, 5)</f>
-        <v>560</v>
-      </c>
-      <c r="F91" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G91" t="s">
-        <v>617</v>
-      </c>
-      <c r="H91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <f>FLOOR(A90+10,10)</f>
-        <v>450</v>
-      </c>
-      <c r="B92" t="s">
-        <v>358</v>
-      </c>
-      <c r="C92" t="s">
-        <v>264</v>
-      </c>
-      <c r="D92" s="2">
-        <f>FLOOR((25+(5*A92))*1.5, 5)</f>
-        <v>3410</v>
-      </c>
-      <c r="E92" s="2">
-        <f>FLOOR((25+(5*A92))*0.5, 5)</f>
-        <v>1135</v>
-      </c>
-      <c r="F92" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G92" t="s">
-        <v>620</v>
-      </c>
-      <c r="H92" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>455</v>
-      </c>
-      <c r="B93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D93" s="2">
-        <f t="shared" si="5"/>
-        <v>2320</v>
-      </c>
-      <c r="E93" s="2">
-        <f>FLOOR((25+(5*A93))*0.25, 5)</f>
-        <v>575</v>
-      </c>
-      <c r="F93" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G93" t="s">
-        <v>619</v>
-      </c>
-      <c r="H93" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>460</v>
-      </c>
-      <c r="B94" t="s">
-        <v>359</v>
-      </c>
-      <c r="C94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" s="2">
-        <f t="shared" si="5"/>
-        <v>2345</v>
-      </c>
-      <c r="E94" s="2">
-        <f>FLOOR((25+(5*A94))*0.25, 5)</f>
-        <v>580</v>
-      </c>
-      <c r="F94" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G94" t="s">
-        <v>622</v>
-      </c>
-      <c r="H94" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>465</v>
-      </c>
-      <c r="B95" t="s">
-        <v>360</v>
-      </c>
-      <c r="C95" t="s">
-        <v>81</v>
-      </c>
-      <c r="D95" s="2">
-        <f t="shared" si="5"/>
-        <v>2370</v>
-      </c>
-      <c r="E95" s="2">
-        <f>FLOOR((25+(5*A95))*0.25, 5)</f>
-        <v>585</v>
-      </c>
-      <c r="F95" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G95" t="s">
-        <v>621</v>
-      </c>
-      <c r="H95" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>470</v>
-      </c>
-      <c r="B96" t="s">
-        <v>361</v>
-      </c>
-      <c r="C96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D96" s="2">
-        <f t="shared" si="5"/>
-        <v>2395</v>
-      </c>
-      <c r="E96" s="2">
-        <f>FLOOR((25+(5*A96))*0.25, 5)</f>
-        <v>590</v>
-      </c>
-      <c r="F96" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G96" t="s">
-        <v>617</v>
-      </c>
-      <c r="H96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>475</v>
-      </c>
-      <c r="B97" t="s">
-        <v>362</v>
-      </c>
-      <c r="C97" t="s">
-        <v>254</v>
-      </c>
-      <c r="D97" s="2">
-        <f>FLOOR((25+(5*A97))*1.5, 5)</f>
-        <v>3600</v>
-      </c>
-      <c r="E97" s="2">
-        <f>FLOOR((25+(5*A97))*0.5, 5)</f>
-        <v>1200</v>
-      </c>
-      <c r="F97" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="G97" t="s">
-        <v>620</v>
-      </c>
-      <c r="H97" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>480</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" s="2">
-        <f t="shared" si="5"/>
-        <v>2445</v>
-      </c>
-      <c r="E98" s="2">
-        <f>FLOOR((25+(5*A98))*0.25, 5)</f>
-        <v>605</v>
-      </c>
-      <c r="F98" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="G98" t="s">
-        <v>619</v>
-      </c>
-      <c r="H98" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>485</v>
-      </c>
-      <c r="B99" t="s">
-        <v>363</v>
-      </c>
-      <c r="C99" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" s="2">
-        <f t="shared" si="5"/>
-        <v>2470</v>
-      </c>
-      <c r="E99" s="2">
-        <f>FLOOR((25+(5*A99))*0.25, 5)</f>
-        <v>610</v>
-      </c>
-      <c r="F99" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="G99" t="s">
-        <v>622</v>
-      </c>
-      <c r="H99" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>490</v>
-      </c>
-      <c r="B100" t="s">
-        <v>364</v>
-      </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="2">
-        <f t="shared" si="5"/>
-        <v>2495</v>
-      </c>
-      <c r="E100" s="2">
-        <f>FLOOR((25+(5*A100))*0.25, 5)</f>
-        <v>615</v>
-      </c>
-      <c r="F100" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="G100" t="s">
-        <v>621</v>
-      </c>
-      <c r="H100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>495</v>
-      </c>
-      <c r="B101" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="2">
-        <f t="shared" si="5"/>
-        <v>2525</v>
-      </c>
-      <c r="E101" s="2">
-        <f>FLOOR((25+(5*A101))*0.25, 5)</f>
-        <v>625</v>
-      </c>
-      <c r="F101" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="G101" t="s">
-        <v>617</v>
-      </c>
-      <c r="H101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>500</v>
-      </c>
-      <c r="B102" t="s">
-        <v>366</v>
-      </c>
-      <c r="C102" t="s">
-        <v>249</v>
-      </c>
-      <c r="D102" s="2">
-        <f>FLOOR((25+(5*A102))*1.5, 5)</f>
-        <v>3785</v>
-      </c>
-      <c r="E102" s="2">
-        <f>FLOOR((25+(5*A102))*0.5, 5)</f>
-        <v>1260</v>
-      </c>
-      <c r="F102" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="G102" t="s">
-        <v>620</v>
-      </c>
-      <c r="H102" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>500</v>
-      </c>
-      <c r="B103" t="s">
-        <v>367</v>
-      </c>
-      <c r="C103" t="s">
-        <v>276</v>
-      </c>
-      <c r="D103" s="2">
-        <f>FLOOR((25+(5*A103))*1.5, 5)</f>
-        <v>3785</v>
-      </c>
-      <c r="E103" s="2">
-        <f>FLOOR((25+(5*A103))*0.5, 5)</f>
-        <v>1260</v>
-      </c>
-      <c r="F103" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="G103" t="s">
-        <v>620</v>
-      </c>
-      <c r="H103" t="s">
         <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5746,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>163</v>
@@ -5760,7 +3892,7 @@
         <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D2" s="2">
         <f>FLOOR((25+(5*A2))*1.01, 5)</f>
@@ -5775,7 +3907,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H2" t="s">
         <v>161</v>
@@ -5786,7 +3918,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
         <v>214</v>
@@ -5804,7 +3936,7 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H3" t="s">
         <v>161</v>
@@ -5816,7 +3948,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
         <v>214</v>
@@ -5834,13 +3966,13 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H4" t="s">
         <v>161</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>263</v>
@@ -5855,7 +3987,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
         <v>214</v>
@@ -5873,13 +4005,13 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H5" t="s">
         <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>261</v>
@@ -5895,7 +4027,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>214</v>
@@ -5913,13 +4045,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H6" t="s">
         <v>161</v>
       </c>
       <c r="I6" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>262</v>
@@ -5934,10 +4066,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="D7" s="2">
         <f>FLOOR((25+(5*A7))*1.5, 5)</f>
@@ -5952,13 +4084,13 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H7" t="s">
         <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -5967,10 +4099,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -5985,13 +4117,13 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H8" t="s">
         <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5999,10 +4131,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
@@ -6017,13 +4149,13 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H9" t="s">
         <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -6031,10 +4163,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -6049,7 +4181,7 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H10" t="s">
         <v>161</v>
@@ -6060,10 +4192,10 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
@@ -6078,7 +4210,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H11" t="s">
         <v>161</v>
@@ -6090,10 +4222,10 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="D12" s="2">
         <f>FLOOR((25+(5*A12))*1.5, 5)</f>
@@ -6108,7 +4240,7 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H12" t="s">
         <v>241</v>
@@ -6137,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H13" t="s">
         <v>161</v>
@@ -6149,7 +4281,7 @@
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -6167,7 +4299,7 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H14" t="s">
         <v>161</v>
@@ -6178,7 +4310,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -6196,7 +4328,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H15" t="s">
         <v>161</v>
@@ -6208,7 +4340,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -6226,7 +4358,7 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H16" t="s">
         <v>161</v>
@@ -6237,10 +4369,10 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="D17" s="2">
         <f>FLOOR((25+(5*A17))*1.5, 5)</f>
@@ -6255,7 +4387,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H17" t="s">
         <v>241</v>
@@ -6285,7 +4417,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H18" t="s">
         <v>161</v>
@@ -6296,7 +4428,7 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -6314,7 +4446,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H19" t="s">
         <v>161</v>
@@ -6326,7 +4458,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -6344,7 +4476,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H20" t="s">
         <v>161</v>
@@ -6355,7 +4487,7 @@
         <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -6373,7 +4505,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H21" t="s">
         <v>161</v>
@@ -6385,10 +4517,10 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="D22" s="2">
         <f>FLOOR((25+(5*A22))*1.5, 5)</f>
@@ -6403,7 +4535,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H22" t="s">
         <v>241</v>
@@ -6432,7 +4564,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H23" t="s">
         <v>161</v>
@@ -6444,7 +4576,7 @@
         <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -6462,7 +4594,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H24" t="s">
         <v>161</v>
@@ -6473,7 +4605,7 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -6491,7 +4623,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H25" t="s">
         <v>161</v>
@@ -6503,7 +4635,7 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -6521,7 +4653,7 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H26" t="s">
         <v>161</v>
@@ -6532,10 +4664,10 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C27" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="D27" s="2">
         <f>FLOOR((25+(5*A27))*1.5, 5)</f>
@@ -6550,7 +4682,7 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H27" t="s">
         <v>241</v>
@@ -6580,7 +4712,7 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H28" t="s">
         <v>161</v>
@@ -6591,7 +4723,7 @@
         <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -6609,7 +4741,7 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H29" t="s">
         <v>161</v>
@@ -6621,7 +4753,7 @@
         <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -6639,7 +4771,7 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H30" t="s">
         <v>161</v>
@@ -6650,7 +4782,7 @@
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -6668,7 +4800,7 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H31" t="s">
         <v>161</v>
@@ -6680,10 +4812,10 @@
         <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="C32" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="D32" s="2">
         <f>FLOOR((25+(5*A32))*1.5, 5)</f>
@@ -6698,7 +4830,7 @@
         <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H32" t="s">
         <v>241</v>
@@ -6727,7 +4859,7 @@
         <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H33" t="s">
         <v>161</v>
@@ -6739,7 +4871,7 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
@@ -6757,7 +4889,7 @@
         <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H34" t="s">
         <v>161</v>
@@ -6768,7 +4900,7 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -6786,7 +4918,7 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H35" t="s">
         <v>161</v>
@@ -6798,7 +4930,7 @@
         <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
@@ -6816,7 +4948,7 @@
         <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H36" t="s">
         <v>161</v>
@@ -6827,10 +4959,10 @@
         <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="D37" s="2">
         <f>FLOOR((25+(5*A37))*1.5, 5)</f>
@@ -6845,7 +4977,7 @@
         <v>125</v>
       </c>
       <c r="G37" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H37" t="s">
         <v>241</v>
@@ -6875,7 +5007,7 @@
         <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H38" t="s">
         <v>161</v>
@@ -6886,7 +5018,7 @@
         <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
@@ -6904,7 +5036,7 @@
         <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H39" t="s">
         <v>161</v>
@@ -6916,7 +5048,7 @@
         <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="C40" t="s">
         <v>34</v>
@@ -6934,7 +5066,7 @@
         <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H40" t="s">
         <v>161</v>
@@ -6945,7 +5077,7 @@
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
@@ -6963,7 +5095,7 @@
         <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H41" t="s">
         <v>161</v>
@@ -6975,10 +5107,10 @@
         <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="D42" s="2">
         <f>FLOOR((25+(5*A42))*1.5, 5)</f>
@@ -6993,7 +5125,7 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H42" t="s">
         <v>241</v>
@@ -7022,7 +5154,7 @@
         <v>150</v>
       </c>
       <c r="G43" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H43" t="s">
         <v>161</v>
@@ -7034,7 +5166,7 @@
         <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
@@ -7052,7 +5184,7 @@
         <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H44" t="s">
         <v>161</v>
@@ -7063,7 +5195,7 @@
         <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -7081,7 +5213,7 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H45" t="s">
         <v>161</v>
@@ -7093,7 +5225,7 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -7111,7 +5243,7 @@
         <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H46" t="s">
         <v>161</v>
@@ -7122,10 +5254,10 @@
         <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="D47" s="2">
         <f>FLOOR((25+(5*A47))*1.5, 5)</f>
@@ -7140,7 +5272,7 @@
         <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H47" t="s">
         <v>241</v>
@@ -7152,7 +5284,7 @@
         <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -7170,7 +5302,7 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H48" t="s">
         <v>161</v>
@@ -7181,7 +5313,7 @@
         <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
@@ -7199,7 +5331,7 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H49" t="s">
         <v>161</v>
@@ -7211,7 +5343,7 @@
         <v>240</v>
       </c>
       <c r="B50" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
@@ -7229,7 +5361,7 @@
         <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H50" t="s">
         <v>161</v>
@@ -7240,7 +5372,7 @@
         <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -7258,7 +5390,7 @@
         <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H51" t="s">
         <v>161</v>
@@ -7270,10 +5402,10 @@
         <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="D52" s="2">
         <f>FLOOR((25+(5*A52))*1.5, 5)</f>
@@ -7288,7 +5420,7 @@
         <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H52" t="s">
         <v>241</v>
@@ -7299,10 +5431,10 @@
         <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
@@ -7317,7 +5449,7 @@
         <v>175</v>
       </c>
       <c r="G53" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H53" t="s">
         <v>161</v>
@@ -7329,10 +5461,10 @@
         <v>260</v>
       </c>
       <c r="B54" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="C54" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
@@ -7347,7 +5479,7 @@
         <v>175</v>
       </c>
       <c r="G54" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H54" t="s">
         <v>161</v>
@@ -7358,10 +5490,10 @@
         <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="C55" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
@@ -7376,7 +5508,7 @@
         <v>175</v>
       </c>
       <c r="G55" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H55" t="s">
         <v>161</v>
@@ -7388,10 +5520,10 @@
         <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
@@ -7406,7 +5538,7 @@
         <v>175</v>
       </c>
       <c r="G56" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H56" t="s">
         <v>161</v>
@@ -7417,10 +5549,10 @@
         <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="D57" s="2">
         <f>FLOOR((25+(5*A57))*1.5, 5)</f>
@@ -7435,7 +5567,7 @@
         <v>175</v>
       </c>
       <c r="G57" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H57" t="s">
         <v>241</v>
@@ -7447,7 +5579,7 @@
         <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
@@ -7465,7 +5597,7 @@
         <v>200</v>
       </c>
       <c r="G58" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H58" t="s">
         <v>161</v>
@@ -7476,7 +5608,7 @@
         <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
@@ -7494,7 +5626,7 @@
         <v>200</v>
       </c>
       <c r="G59" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H59" t="s">
         <v>161</v>
@@ -7506,7 +5638,7 @@
         <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
@@ -7524,7 +5656,7 @@
         <v>200</v>
       </c>
       <c r="G60" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H60" t="s">
         <v>161</v>
@@ -7535,7 +5667,7 @@
         <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
@@ -7553,7 +5685,7 @@
         <v>200</v>
       </c>
       <c r="G61" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H61" t="s">
         <v>161</v>
@@ -7565,10 +5697,10 @@
         <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C62" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="D62" s="2">
         <f>FLOOR((25+(5*A62))*1.5, 5)</f>
@@ -7583,7 +5715,7 @@
         <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H62" t="s">
         <v>241</v>
@@ -7594,10 +5726,10 @@
         <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
@@ -7612,7 +5744,7 @@
         <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H63" t="s">
         <v>161</v>
@@ -7624,10 +5756,10 @@
         <v>310</v>
       </c>
       <c r="B64" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C64" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
@@ -7642,7 +5774,7 @@
         <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H64" t="s">
         <v>161</v>
@@ -7653,10 +5785,10 @@
         <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="C65" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="0"/>
@@ -7671,7 +5803,7 @@
         <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H65" t="s">
         <v>161</v>
@@ -7683,10 +5815,10 @@
         <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="0"/>
@@ -7701,7 +5833,7 @@
         <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H66" t="s">
         <v>161</v>
@@ -7712,10 +5844,10 @@
         <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="C67" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="D67" s="2">
         <f>FLOOR((25+(5*A67))*1.5, 5)</f>
@@ -7730,7 +5862,7 @@
         <v>225</v>
       </c>
       <c r="G67" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H67" t="s">
         <v>241</v>
@@ -7742,10 +5874,10 @@
         <v>330</v>
       </c>
       <c r="B68" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="C68" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ref="D68:D101" si="5">FLOOR((25+(5*A68))*1.01, 5)</f>
@@ -7760,7 +5892,7 @@
         <v>225</v>
       </c>
       <c r="G68" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H68" t="s">
         <v>161</v>
@@ -7771,10 +5903,10 @@
         <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="5"/>
@@ -7789,7 +5921,7 @@
         <v>225</v>
       </c>
       <c r="G69" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H69" t="s">
         <v>161</v>
@@ -7801,10 +5933,10 @@
         <v>340</v>
       </c>
       <c r="B70" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="C70" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="5"/>
@@ -7819,7 +5951,7 @@
         <v>225</v>
       </c>
       <c r="G70" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H70" t="s">
         <v>161</v>
@@ -7830,10 +5962,10 @@
         <v>345</v>
       </c>
       <c r="B71" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C71" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="5"/>
@@ -7848,7 +5980,7 @@
         <v>225</v>
       </c>
       <c r="G71" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H71" t="s">
         <v>161</v>
@@ -7860,10 +5992,10 @@
         <v>350</v>
       </c>
       <c r="B72" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="C72" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="D72" s="2">
         <f>FLOOR((25+(5*A72))*1.5, 5)</f>
@@ -7878,7 +6010,7 @@
         <v>225</v>
       </c>
       <c r="G72" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H72" t="s">
         <v>241</v>
@@ -7889,10 +6021,10 @@
         <v>355</v>
       </c>
       <c r="B73" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="C73" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="5"/>
@@ -7907,7 +6039,7 @@
         <v>225</v>
       </c>
       <c r="G73" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H73" t="s">
         <v>161</v>
@@ -7919,10 +6051,10 @@
         <v>360</v>
       </c>
       <c r="B74" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="C74" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" si="5"/>
@@ -7937,7 +6069,7 @@
         <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H74" t="s">
         <v>161</v>
@@ -7948,10 +6080,10 @@
         <v>365</v>
       </c>
       <c r="B75" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="C75" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="D75" s="2">
         <f t="shared" si="5"/>
@@ -7966,7 +6098,7 @@
         <v>250</v>
       </c>
       <c r="G75" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H75" t="s">
         <v>161</v>
@@ -7978,10 +6110,10 @@
         <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="D76" s="2">
         <f t="shared" si="5"/>
@@ -7996,7 +6128,7 @@
         <v>250</v>
       </c>
       <c r="G76" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H76" t="s">
         <v>161</v>
@@ -8007,10 +6139,10 @@
         <v>375</v>
       </c>
       <c r="B77" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="C77" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="D77" s="2">
         <f>FLOOR((25+(5*A77))*1.5, 5)</f>
@@ -8025,7 +6157,7 @@
         <v>250</v>
       </c>
       <c r="G77" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H77" t="s">
         <v>241</v>
@@ -8037,10 +6169,10 @@
         <v>380</v>
       </c>
       <c r="B78" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="C78" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="5"/>
@@ -8055,7 +6187,7 @@
         <v>250</v>
       </c>
       <c r="G78" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H78" t="s">
         <v>161</v>
@@ -8066,10 +6198,10 @@
         <v>385</v>
       </c>
       <c r="B79" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="C79" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="5"/>
@@ -8084,7 +6216,7 @@
         <v>250</v>
       </c>
       <c r="G79" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H79" t="s">
         <v>161</v>
@@ -8096,10 +6228,10 @@
         <v>390</v>
       </c>
       <c r="B80" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="5"/>
@@ -8114,7 +6246,7 @@
         <v>250</v>
       </c>
       <c r="G80" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H80" t="s">
         <v>161</v>
@@ -8125,10 +6257,10 @@
         <v>395</v>
       </c>
       <c r="B81" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="C81" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="5"/>
@@ -8143,7 +6275,7 @@
         <v>250</v>
       </c>
       <c r="G81" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H81" t="s">
         <v>161</v>
@@ -8155,10 +6287,10 @@
         <v>400</v>
       </c>
       <c r="B82" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="C82" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="D82" s="2">
         <f>FLOOR((25+(5*A82))*1.5, 5)</f>
@@ -8173,7 +6305,7 @@
         <v>275</v>
       </c>
       <c r="G82" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H82" t="s">
         <v>241</v>
@@ -8184,10 +6316,10 @@
         <v>405</v>
       </c>
       <c r="B83" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="C83" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="5"/>
@@ -8202,7 +6334,7 @@
         <v>275</v>
       </c>
       <c r="G83" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H83" t="s">
         <v>161</v>
@@ -8214,10 +6346,10 @@
         <v>410</v>
       </c>
       <c r="B84" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="C84" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D84" s="2">
         <f t="shared" si="5"/>
@@ -8232,7 +6364,7 @@
         <v>275</v>
       </c>
       <c r="G84" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H84" t="s">
         <v>161</v>
@@ -8243,10 +6375,10 @@
         <v>415</v>
       </c>
       <c r="B85" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D85" s="2">
         <f t="shared" si="5"/>
@@ -8261,7 +6393,7 @@
         <v>275</v>
       </c>
       <c r="G85" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H85" t="s">
         <v>161</v>
@@ -8273,10 +6405,10 @@
         <v>420</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="C86" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="5"/>
@@ -8291,7 +6423,7 @@
         <v>275</v>
       </c>
       <c r="G86" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H86" t="s">
         <v>161</v>
@@ -8302,10 +6434,10 @@
         <v>425</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="D87" s="2">
         <f>FLOOR((25+(5*A87))*1.5, 5)</f>
@@ -8320,7 +6452,7 @@
         <v>275</v>
       </c>
       <c r="G87" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H87" t="s">
         <v>241</v>
@@ -8332,10 +6464,10 @@
         <v>430</v>
       </c>
       <c r="B88" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C88" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="5"/>
@@ -8350,7 +6482,7 @@
         <v>275</v>
       </c>
       <c r="G88" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H88" t="s">
         <v>161</v>
@@ -8361,10 +6493,10 @@
         <v>435</v>
       </c>
       <c r="B89" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="C89" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="5"/>
@@ -8379,7 +6511,7 @@
         <v>275</v>
       </c>
       <c r="G89" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H89" t="s">
         <v>161</v>
@@ -8391,10 +6523,10 @@
         <v>440</v>
       </c>
       <c r="B90" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="C90" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="5"/>
@@ -8409,7 +6541,7 @@
         <v>300</v>
       </c>
       <c r="G90" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H90" t="s">
         <v>161</v>
@@ -8420,10 +6552,10 @@
         <v>445</v>
       </c>
       <c r="B91" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="C91" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="5"/>
@@ -8438,7 +6570,7 @@
         <v>300</v>
       </c>
       <c r="G91" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H91" t="s">
         <v>161</v>
@@ -8450,10 +6582,10 @@
         <v>450</v>
       </c>
       <c r="B92" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="C92" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="D92" s="2">
         <f>FLOOR((25+(5*A92))*1.5, 5)</f>
@@ -8468,7 +6600,7 @@
         <v>300</v>
       </c>
       <c r="G92" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H92" t="s">
         <v>241</v>
@@ -8497,7 +6629,7 @@
         <v>300</v>
       </c>
       <c r="G93" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H93" t="s">
         <v>161</v>
@@ -8508,7 +6640,7 @@
         <v>460</v>
       </c>
       <c r="B94" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C94" t="s">
         <v>38</v>
@@ -8526,7 +6658,7 @@
         <v>300</v>
       </c>
       <c r="G94" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H94" t="s">
         <v>161</v>
@@ -8537,7 +6669,7 @@
         <v>465</v>
       </c>
       <c r="B95" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
@@ -8555,7 +6687,7 @@
         <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H95" t="s">
         <v>161</v>
@@ -8566,7 +6698,7 @@
         <v>470</v>
       </c>
       <c r="B96" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="C96" t="s">
         <v>38</v>
@@ -8584,7 +6716,7 @@
         <v>300</v>
       </c>
       <c r="G96" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H96" t="s">
         <v>161</v>
@@ -8595,10 +6727,10 @@
         <v>475</v>
       </c>
       <c r="B97" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="D97" s="2">
         <f>FLOOR((25+(5*A97))*1.5, 5)</f>
@@ -8613,7 +6745,7 @@
         <v>300</v>
       </c>
       <c r="G97" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H97" t="s">
         <v>241</v>
@@ -8642,7 +6774,7 @@
         <v>325</v>
       </c>
       <c r="G98" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="H98" t="s">
         <v>161</v>
@@ -8653,7 +6785,7 @@
         <v>485</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="C99" t="s">
         <v>39</v>
@@ -8671,7 +6803,7 @@
         <v>325</v>
       </c>
       <c r="G99" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="H99" t="s">
         <v>161</v>
@@ -8682,7 +6814,7 @@
         <v>490</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="C100" t="s">
         <v>39</v>
@@ -8700,7 +6832,7 @@
         <v>325</v>
       </c>
       <c r="G100" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="H100" t="s">
         <v>161</v>
@@ -8711,7 +6843,7 @@
         <v>495</v>
       </c>
       <c r="B101" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="C101" t="s">
         <v>39</v>
@@ -8729,7 +6861,7 @@
         <v>325</v>
       </c>
       <c r="G101" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="H101" t="s">
         <v>161</v>
@@ -8740,10 +6872,10 @@
         <v>500</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="C102" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D102" s="2">
         <f>FLOOR((25+(5*A102))*1.5, 5)</f>
@@ -8758,7 +6890,7 @@
         <v>325</v>
       </c>
       <c r="G102" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H102" t="s">
         <v>241</v>
@@ -8769,10 +6901,10 @@
         <v>500</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="D103" s="2">
         <f>FLOOR((25+(5*A103))*1.5, 5)</f>
@@ -8787,7 +6919,7 @@
         <v>325</v>
       </c>
       <c r="G103" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="H103" t="s">
         <v>241</v>
@@ -8845,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>163</v>
@@ -8859,7 +6991,7 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="D2" s="2">
         <f>FLOOR((25+(5*A2))*1.01, 5)</f>
@@ -8874,10 +7006,10 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H2" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8885,7 +7017,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
         <v>212</v>
@@ -8903,10 +7035,10 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H3" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -8915,7 +7047,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
         <v>212</v>
@@ -8933,13 +7065,13 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H4" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>263</v>
@@ -8954,7 +7086,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
         <v>212</v>
@@ -8972,13 +7104,13 @@
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H5" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I5" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>261</v>
@@ -8994,7 +7126,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="C6" t="s">
         <v>212</v>
@@ -9012,13 +7144,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H6" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I6" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>262</v>
@@ -9033,10 +7165,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="D7" s="2">
         <f>FLOOR((25+(5*A7))*1.5, 5)</f>
@@ -9051,13 +7183,13 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H7" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="I7" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -9066,10 +7198,10 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="C8" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -9084,13 +7216,13 @@
         <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H8" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I8" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -9098,10 +7230,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
@@ -9116,13 +7248,13 @@
         <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H9" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I9" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -9130,10 +7262,10 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -9148,13 +7280,13 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H10" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="I10" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -9162,10 +7294,10 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="C11" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
@@ -9180,10 +7312,10 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H11" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -9192,10 +7324,10 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="D12" s="2">
         <f>FLOOR((25+(5*A12))*1.5, 5)</f>
@@ -9210,10 +7342,10 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H12" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -9239,10 +7371,10 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H13" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -9251,7 +7383,7 @@
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="C14" t="s">
         <v>191</v>
@@ -9269,10 +7401,10 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H14" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -9280,7 +7412,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="C15" t="s">
         <v>191</v>
@@ -9298,10 +7430,10 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H15" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -9310,7 +7442,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
         <v>191</v>
@@ -9328,10 +7460,10 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H16" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -9339,10 +7471,10 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="D17" s="2">
         <f>FLOOR((25+(5*A17))*1.5, 5)</f>
@@ -9357,10 +7489,10 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H17" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -9387,10 +7519,10 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H18" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -9398,7 +7530,7 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -9416,10 +7548,10 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H19" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -9428,7 +7560,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -9446,10 +7578,10 @@
         <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H20" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -9457,7 +7589,7 @@
         <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -9475,10 +7607,10 @@
         <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H21" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -9487,10 +7619,10 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="C22" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="D22" s="2">
         <f>FLOOR((25+(5*A22))*1.5, 5)</f>
@@ -9505,10 +7637,10 @@
         <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H22" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -9534,10 +7666,10 @@
         <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H23" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -9546,7 +7678,7 @@
         <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -9564,10 +7696,10 @@
         <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H24" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -9575,7 +7707,7 @@
         <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -9593,10 +7725,10 @@
         <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H25" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -9605,7 +7737,7 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -9623,10 +7755,10 @@
         <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H26" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -9634,10 +7766,10 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C27" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="D27" s="2">
         <f>FLOOR((25+(5*A27))*1.5, 5)</f>
@@ -9652,10 +7784,10 @@
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H27" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -9682,10 +7814,10 @@
         <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H28" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -9693,7 +7825,7 @@
         <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -9711,10 +7843,10 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H29" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -9723,7 +7855,7 @@
         <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -9741,10 +7873,10 @@
         <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H30" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -9752,7 +7884,7 @@
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -9770,10 +7902,10 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H31" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -9782,10 +7914,10 @@
         <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="C32" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="D32" s="2">
         <f>FLOOR((25+(5*A32))*1.5, 5)</f>
@@ -9800,10 +7932,10 @@
         <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H32" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -9829,10 +7961,10 @@
         <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H33" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -9841,7 +7973,7 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -9859,10 +7991,10 @@
         <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H34" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -9870,7 +8002,7 @@
         <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -9888,10 +8020,10 @@
         <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H35" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -9900,7 +8032,7 @@
         <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -9918,10 +8050,10 @@
         <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H36" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -9929,10 +8061,10 @@
         <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="C37" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="D37" s="2">
         <f>FLOOR((25+(5*A37))*1.5, 5)</f>
@@ -9947,10 +8079,10 @@
         <v>125</v>
       </c>
       <c r="G37" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H37" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -9977,10 +8109,10 @@
         <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H38" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -9988,7 +8120,7 @@
         <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -10006,10 +8138,10 @@
         <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H39" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -10018,7 +8150,7 @@
         <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -10036,10 +8168,10 @@
         <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H40" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -10047,7 +8179,7 @@
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -10065,10 +8197,10 @@
         <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H41" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -10077,10 +8209,10 @@
         <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="C42" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="D42" s="2">
         <f>FLOOR((25+(5*A42))*1.5, 5)</f>
@@ -10095,10 +8227,10 @@
         <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H42" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -10124,10 +8256,10 @@
         <v>150</v>
       </c>
       <c r="G43" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H43" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -10136,7 +8268,7 @@
         <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -10154,10 +8286,10 @@
         <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H44" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -10165,7 +8297,7 @@
         <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
@@ -10183,10 +8315,10 @@
         <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H45" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -10195,7 +8327,7 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="C46" t="s">
         <v>26</v>
@@ -10213,10 +8345,10 @@
         <v>150</v>
       </c>
       <c r="G46" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H46" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -10224,10 +8356,10 @@
         <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="C47" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D47" s="2">
         <f>FLOOR((25+(5*A47))*1.5, 5)</f>
@@ -10242,10 +8374,10 @@
         <v>150</v>
       </c>
       <c r="G47" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H47" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -10254,10 +8386,10 @@
         <v>230</v>
       </c>
       <c r="B48" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
@@ -10272,10 +8404,10 @@
         <v>150</v>
       </c>
       <c r="G48" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H48" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -10283,10 +8415,10 @@
         <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="C49" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
@@ -10301,10 +8433,10 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H49" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -10313,10 +8445,10 @@
         <v>240</v>
       </c>
       <c r="B50" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
@@ -10331,10 +8463,10 @@
         <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H50" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -10342,10 +8474,10 @@
         <v>245</v>
       </c>
       <c r="B51" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="C51" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
@@ -10360,10 +8492,10 @@
         <v>175</v>
       </c>
       <c r="G51" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H51" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -10372,10 +8504,10 @@
         <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="C52" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="D52" s="2">
         <f>FLOOR((25+(5*A52))*1.5, 5)</f>
@@ -10390,10 +8522,10 @@
         <v>175</v>
       </c>
       <c r="G52" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H52" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -10401,10 +8533,10 @@
         <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="C53" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
@@ -10419,10 +8551,10 @@
         <v>175</v>
       </c>
       <c r="G53" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H53" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -10431,10 +8563,10 @@
         <v>260</v>
       </c>
       <c r="B54" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="C54" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
@@ -10449,10 +8581,10 @@
         <v>175</v>
       </c>
       <c r="G54" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H54" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -10460,10 +8592,10 @@
         <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="C55" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
@@ -10478,10 +8610,10 @@
         <v>175</v>
       </c>
       <c r="G55" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H55" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -10490,10 +8622,10 @@
         <v>270</v>
       </c>
       <c r="B56" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="C56" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
@@ -10508,10 +8640,10 @@
         <v>175</v>
       </c>
       <c r="G56" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H56" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -10519,10 +8651,10 @@
         <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="C57" t="s">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="D57" s="2">
         <f>FLOOR((25+(5*A57))*1.5, 5)</f>
@@ -10537,10 +8669,10 @@
         <v>175</v>
       </c>
       <c r="G57" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H57" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -10549,10 +8681,10 @@
         <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="C58" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
@@ -10567,10 +8699,10 @@
         <v>200</v>
       </c>
       <c r="G58" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H58" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -10578,10 +8710,10 @@
         <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="C59" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
@@ -10596,10 +8728,10 @@
         <v>200</v>
       </c>
       <c r="G59" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H59" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -10608,10 +8740,10 @@
         <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="C60" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
@@ -10626,10 +8758,10 @@
         <v>200</v>
       </c>
       <c r="G60" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H60" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -10637,10 +8769,10 @@
         <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="C61" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
@@ -10655,10 +8787,10 @@
         <v>200</v>
       </c>
       <c r="G61" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H61" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -10667,10 +8799,10 @@
         <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="C62" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="D62" s="2">
         <f>FLOOR((25+(5*A62))*1.5, 5)</f>
@@ -10685,10 +8817,10 @@
         <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H62" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -10696,10 +8828,10 @@
         <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="C63" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
@@ -10714,10 +8846,10 @@
         <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H63" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -10726,10 +8858,10 @@
         <v>310</v>
       </c>
       <c r="B64" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="C64" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
@@ -10744,10 +8876,10 @@
         <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H64" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -10755,10 +8887,10 @@
         <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="C65" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="0"/>
@@ -10773,10 +8905,10 @@
         <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H65" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -10785,10 +8917,10 @@
         <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="0"/>
@@ -10803,10 +8935,10 @@
         <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H66" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -10814,10 +8946,10 @@
         <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="C67" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="D67" s="2">
         <f>FLOOR((25+(5*A67))*1.5, 5)</f>
@@ -10832,10 +8964,10 @@
         <v>225</v>
       </c>
       <c r="G67" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H67" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -10844,10 +8976,10 @@
         <v>330</v>
       </c>
       <c r="B68" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="C68" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" ref="D68:D101" si="5">FLOOR((25+(5*A68))*1.01, 5)</f>
@@ -10862,10 +8994,10 @@
         <v>225</v>
       </c>
       <c r="G68" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H68" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -10873,10 +9005,10 @@
         <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="C69" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" si="5"/>
@@ -10891,10 +9023,10 @@
         <v>225</v>
       </c>
       <c r="G69" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H69" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -10903,10 +9035,10 @@
         <v>340</v>
       </c>
       <c r="B70" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="C70" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="5"/>
@@ -10921,10 +9053,10 @@
         <v>225</v>
       </c>
       <c r="G70" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H70" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -10932,10 +9064,10 @@
         <v>345</v>
       </c>
       <c r="B71" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="C71" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="5"/>
@@ -10950,10 +9082,10 @@
         <v>225</v>
       </c>
       <c r="G71" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H71" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -10962,10 +9094,10 @@
         <v>350</v>
       </c>
       <c r="B72" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="C72" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="D72" s="2">
         <f>FLOOR((25+(5*A72))*1.5, 5)</f>
@@ -10980,10 +9112,10 @@
         <v>225</v>
       </c>
       <c r="G72" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H72" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -10991,7 +9123,7 @@
         <v>355</v>
       </c>
       <c r="B73" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -11009,10 +9141,10 @@
         <v>225</v>
       </c>
       <c r="G73" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H73" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -11021,7 +9153,7 @@
         <v>360</v>
       </c>
       <c r="B74" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -11039,10 +9171,10 @@
         <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H74" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -11050,7 +9182,7 @@
         <v>365</v>
       </c>
       <c r="B75" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -11068,10 +9200,10 @@
         <v>250</v>
       </c>
       <c r="G75" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H75" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -11080,7 +9212,7 @@
         <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -11098,10 +9230,10 @@
         <v>250</v>
       </c>
       <c r="G76" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H76" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -11109,10 +9241,10 @@
         <v>375</v>
       </c>
       <c r="B77" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="C77" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="D77" s="2">
         <f>FLOOR((25+(5*A77))*1.5, 5)</f>
@@ -11127,10 +9259,10 @@
         <v>250</v>
       </c>
       <c r="G77" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H77" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -11139,10 +9271,10 @@
         <v>380</v>
       </c>
       <c r="B78" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="C78" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="D78" s="2">
         <f t="shared" si="5"/>
@@ -11157,10 +9289,10 @@
         <v>250</v>
       </c>
       <c r="G78" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H78" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -11168,10 +9300,10 @@
         <v>385</v>
       </c>
       <c r="B79" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="C79" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="D79" s="2">
         <f t="shared" si="5"/>
@@ -11186,10 +9318,10 @@
         <v>250</v>
       </c>
       <c r="G79" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H79" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -11198,10 +9330,10 @@
         <v>390</v>
       </c>
       <c r="B80" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="C80" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="D80" s="2">
         <f t="shared" si="5"/>
@@ -11216,10 +9348,10 @@
         <v>250</v>
       </c>
       <c r="G80" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H80" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -11227,10 +9359,10 @@
         <v>395</v>
       </c>
       <c r="B81" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="C81" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="D81" s="2">
         <f t="shared" si="5"/>
@@ -11245,10 +9377,10 @@
         <v>250</v>
       </c>
       <c r="G81" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H81" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -11257,10 +9389,10 @@
         <v>400</v>
       </c>
       <c r="B82" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="D82" s="2">
         <f>FLOOR((25+(5*A82))*1.5, 5)</f>
@@ -11275,10 +9407,10 @@
         <v>275</v>
       </c>
       <c r="G82" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H82" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -11286,7 +9418,7 @@
         <v>405</v>
       </c>
       <c r="B83" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="C83" t="s">
         <v>40</v>
@@ -11304,10 +9436,10 @@
         <v>275</v>
       </c>
       <c r="G83" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H83" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -11316,7 +9448,7 @@
         <v>410</v>
       </c>
       <c r="B84" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="C84" t="s">
         <v>40</v>
@@ -11334,10 +9466,10 @@
         <v>275</v>
       </c>
       <c r="G84" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H84" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -11345,7 +9477,7 @@
         <v>415</v>
       </c>
       <c r="B85" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="C85" t="s">
         <v>40</v>
@@ -11363,10 +9495,10 @@
         <v>275</v>
       </c>
       <c r="G85" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H85" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -11375,7 +9507,7 @@
         <v>420</v>
       </c>
       <c r="B86" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="C86" t="s">
         <v>40</v>
@@ -11393,10 +9525,10 @@
         <v>275</v>
       </c>
       <c r="G86" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H86" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -11404,10 +9536,10 @@
         <v>425</v>
       </c>
       <c r="B87" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="C87" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="D87" s="2">
         <f>FLOOR((25+(5*A87))*1.5, 5)</f>
@@ -11422,10 +9554,10 @@
         <v>275</v>
       </c>
       <c r="G87" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H87" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -11434,10 +9566,10 @@
         <v>430</v>
       </c>
       <c r="B88" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="C88" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="D88" s="2">
         <f t="shared" si="5"/>
@@ -11452,10 +9584,10 @@
         <v>275</v>
       </c>
       <c r="G88" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H88" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -11463,10 +9595,10 @@
         <v>435</v>
       </c>
       <c r="B89" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="C89" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="D89" s="2">
         <f t="shared" si="5"/>
@@ -11481,10 +9613,10 @@
         <v>275</v>
       </c>
       <c r="G89" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H89" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -11493,10 +9625,10 @@
         <v>440</v>
       </c>
       <c r="B90" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C90" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="D90" s="2">
         <f t="shared" si="5"/>
@@ -11511,10 +9643,10 @@
         <v>300</v>
       </c>
       <c r="G90" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H90" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -11522,10 +9654,10 @@
         <v>445</v>
       </c>
       <c r="B91" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="C91" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="5"/>
@@ -11540,10 +9672,10 @@
         <v>300</v>
       </c>
       <c r="G91" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H91" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -11552,10 +9684,10 @@
         <v>450</v>
       </c>
       <c r="B92" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="C92" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="D92" s="2">
         <f>FLOOR((25+(5*A92))*1.5, 5)</f>
@@ -11570,10 +9702,10 @@
         <v>300</v>
       </c>
       <c r="G92" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H92" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -11581,7 +9713,7 @@
         <v>455</v>
       </c>
       <c r="B93" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -11599,10 +9731,10 @@
         <v>300</v>
       </c>
       <c r="G93" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H93" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -11610,7 +9742,7 @@
         <v>460</v>
       </c>
       <c r="B94" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -11628,10 +9760,10 @@
         <v>300</v>
       </c>
       <c r="G94" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H94" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -11639,7 +9771,7 @@
         <v>465</v>
       </c>
       <c r="B95" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -11657,10 +9789,10 @@
         <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H95" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -11668,7 +9800,7 @@
         <v>470</v>
       </c>
       <c r="B96" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -11686,10 +9818,10 @@
         <v>300</v>
       </c>
       <c r="G96" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H96" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -11697,10 +9829,10 @@
         <v>475</v>
       </c>
       <c r="B97" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="C97" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="D97" s="2">
         <f>FLOOR((25+(5*A97))*1.5, 5)</f>
@@ -11715,10 +9847,10 @@
         <v>300</v>
       </c>
       <c r="G97" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H97" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -11729,7 +9861,7 @@
         <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="D98" s="2">
         <f t="shared" si="5"/>
@@ -11744,10 +9876,10 @@
         <v>325</v>
       </c>
       <c r="G98" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="H98" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -11755,10 +9887,10 @@
         <v>485</v>
       </c>
       <c r="B99" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="C99" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="5"/>
@@ -11773,10 +9905,10 @@
         <v>325</v>
       </c>
       <c r="G99" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="H99" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -11784,10 +9916,10 @@
         <v>490</v>
       </c>
       <c r="B100" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="C100" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="5"/>
@@ -11802,10 +9934,10 @@
         <v>325</v>
       </c>
       <c r="G100" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="H100" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -11813,10 +9945,10 @@
         <v>495</v>
       </c>
       <c r="B101" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="C101" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="D101" s="2">
         <f t="shared" si="5"/>
@@ -11831,10 +9963,10 @@
         <v>325</v>
       </c>
       <c r="G101" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="H101" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -11842,10 +9974,10 @@
         <v>500</v>
       </c>
       <c r="B102" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="C102" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="D102" s="2">
         <f>FLOOR((25+(5*A102))*1.5, 5)</f>
@@ -11860,10 +9992,10 @@
         <v>325</v>
       </c>
       <c r="G102" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H102" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -11871,10 +10003,10 @@
         <v>500</v>
       </c>
       <c r="B103" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="C103" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="D103" s="2">
         <f>FLOOR((25+(5*A103))*1.5, 5)</f>
@@ -11889,10 +10021,10 @@
         <v>325</v>
       </c>
       <c r="G103" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="H103" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -11910,8 +10042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F94931C-056C-44B6-A25E-745BD4E43983}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11940,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>163</v>
@@ -11960,10 +10092,10 @@
         <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="F2" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
         <v>188</v>
@@ -11980,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
       <c r="F3" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G3" t="s">
         <v>188</v>
@@ -12009,13 +10141,13 @@
         <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G4" t="s">
         <v>188</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>263</v>
@@ -12036,22 +10168,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="E5" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="F5" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G5" t="s">
         <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -12069,19 +10201,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="E6" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="F6" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
         <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>262</v>
@@ -12108,7 +10240,7 @@
         <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G7" t="s">
         <v>188</v>
@@ -12125,13 +10257,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="E8" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="F8" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G8" t="s">
         <v>243</v>
@@ -12148,13 +10280,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="E9" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="F9" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G9" t="s">
         <v>188</v>
@@ -12177,7 +10309,7 @@
         <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G10" t="s">
         <v>188</v>
@@ -12194,13 +10326,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="E11" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="F11" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G11" t="s">
         <v>243</v>
@@ -12217,13 +10349,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="E12" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="F12" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G12" t="s">
         <v>188</v>
@@ -12246,7 +10378,7 @@
         <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G13" t="s">
         <v>188</v>
@@ -12263,13 +10395,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="E14" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="F14" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G14" t="s">
         <v>243</v>
@@ -12286,13 +10418,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>671</v>
+        <v>621</v>
       </c>
       <c r="E15" t="s">
-        <v>651</v>
+        <v>601</v>
       </c>
       <c r="F15" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G15" t="s">
         <v>188</v>
@@ -12315,7 +10447,7 @@
         <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G16" t="s">
         <v>188</v>
@@ -12332,13 +10464,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="E17" t="s">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="F17" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G17" t="s">
         <v>243</v>
@@ -12355,13 +10487,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="E18" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="F18" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G18" t="s">
         <v>188</v>
@@ -12384,7 +10516,7 @@
         <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G19" t="s">
         <v>188</v>
@@ -12401,13 +10533,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="E20" t="s">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="F20" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G20" t="s">
         <v>243</v>
@@ -12424,13 +10556,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="E21" t="s">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="F21" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G21" t="s">
         <v>188</v>
@@ -12453,7 +10585,7 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G22" t="s">
         <v>188</v>
@@ -12470,13 +10602,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="E23" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="F23" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G23" t="s">
         <v>243</v>
@@ -12493,13 +10625,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="E24" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="F24" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G24" t="s">
         <v>188</v>
@@ -12516,13 +10648,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="E25" t="s">
         <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G25" t="s">
         <v>188</v>
@@ -12539,13 +10671,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="E26" t="s">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="F26" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G26" t="s">
         <v>243</v>
@@ -12562,13 +10694,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
       <c r="E27" t="s">
-        <v>659</v>
+        <v>609</v>
       </c>
       <c r="F27" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G27" t="s">
         <v>188</v>
@@ -12585,13 +10717,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="E28" t="s">
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G28" t="s">
         <v>188</v>
@@ -12608,13 +10740,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="E29" t="s">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="F29" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G29" t="s">
         <v>243</v>
@@ -12631,13 +10763,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E30" t="s">
-        <v>661</v>
+        <v>611</v>
       </c>
       <c r="F30" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G30" t="s">
         <v>188</v>
@@ -12654,13 +10786,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="E31" t="s">
         <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G31" t="s">
         <v>188</v>
@@ -12677,13 +10809,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="E32" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
       <c r="F32" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G32" t="s">
         <v>243</v>
@@ -12700,13 +10832,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E33" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="F33" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G33" t="s">
         <v>188</v>
@@ -12723,13 +10855,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="E34" t="s">
         <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="G34" t="s">
         <v>188</v>
@@ -12746,13 +10878,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="E35" t="s">
-        <v>688</v>
+        <v>638</v>
       </c>
       <c r="F35" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G35" t="s">
         <v>243</v>
@@ -12769,13 +10901,13 @@
         <v>1.5</v>
       </c>
       <c r="D36" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
       <c r="E36" t="s">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="F36" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="G36" t="s">
         <v>243</v>
@@ -14490,7 +12622,7 @@
       </c>
       <c r="H3">
         <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>13.37</v>
+        <v>18.869999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -14513,7 +12645,7 @@
       </c>
       <c r="H4">
         <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>15.87</v>
+        <v>24.869999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -14536,7 +12668,7 @@
       </c>
       <c r="H5">
         <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>16.869999999999997</v>
+        <v>25.869999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -14559,7 +12691,7 @@
       </c>
       <c r="H6">
         <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>19.619999999999997</v>
+        <v>28.619999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -14582,7 +12714,7 @@
       </c>
       <c r="H7">
         <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>20.619999999999997</v>
+        <v>30.619999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -14605,7 +12737,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>26.619999999999997</v>
+        <v>31.369999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -14628,7 +12760,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="6"/>
-        <v>32.619999999999997</v>
+        <v>32.369999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -14651,7 +12783,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="6"/>
-        <v>37.619999999999997</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -14674,7 +12806,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="6"/>
-        <v>39.119999999999997</v>
+        <v>41.87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -14697,7 +12829,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="6"/>
-        <v>44.12</v>
+        <v>46.87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -14720,7 +12852,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="6"/>
-        <v>50.37</v>
+        <v>51.37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -14743,7 +12875,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="6"/>
-        <v>52.37</v>
+        <v>52.87</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14766,7 +12898,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>57.37</v>
+        <v>53.87</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -14789,7 +12921,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="6"/>
-        <v>58.62</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -14812,7 +12944,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>62.12</v>
+        <v>59.62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -14835,7 +12967,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="6"/>
-        <v>66.12</v>
+        <v>61.87</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -14858,7 +12990,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="6"/>
-        <v>70.37</v>
+        <v>64.12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -14881,7 +13013,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="6"/>
-        <v>74.62</v>
+        <v>69.12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -14904,7 +13036,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="6"/>
-        <v>80.12</v>
+        <v>74.12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -14927,7 +13059,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="6"/>
-        <v>81.37</v>
+        <v>75.87</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -14950,7 +13082,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="6"/>
-        <v>87.62</v>
+        <v>82.12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -14973,7 +13105,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="6"/>
-        <v>90.87</v>
+        <v>83.62</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">

--- a/NPCScaling.xlsx
+++ b/NPCScaling.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Public\Starfield Mods\starfield-level-based-scaling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57809A06-6516-4EB2-A85E-E6C12530E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BD9353-4E04-400F-B04B-19B2A9F03998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
+    <workbookView xWindow="30612" yWindow="-240" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{3DA03D10-3AA7-4409-9B78-FCBABC3AD760}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pirate" sheetId="14" r:id="rId1"/>
-    <sheet name="Spacers" sheetId="20" r:id="rId2"/>
-    <sheet name="Ecliptic" sheetId="21" r:id="rId3"/>
-    <sheet name="Varuun (Full DS)" sheetId="16" r:id="rId4"/>
-    <sheet name="Syndicate (Full DS)" sheetId="18" r:id="rId5"/>
-    <sheet name="Starborn (Full DS)" sheetId="19" r:id="rId6"/>
-    <sheet name="Creatures-Prey (Complete)" sheetId="11" r:id="rId7"/>
-    <sheet name="Creatures-Predator (Complete)" sheetId="12" r:id="rId8"/>
-    <sheet name="Creatures-Tough (Complete)" sheetId="13" r:id="rId9"/>
+    <sheet name="Pirate (Done)" sheetId="14" r:id="rId1"/>
+    <sheet name="Spacers (Done)" sheetId="20" r:id="rId2"/>
+    <sheet name="Ecliptic (Done)" sheetId="21" r:id="rId3"/>
+    <sheet name="Varuun (Done)" sheetId="16" r:id="rId4"/>
+    <sheet name="CrimsonFleetRobots (TODO)" sheetId="22" r:id="rId5"/>
+    <sheet name="Syndicate (TODO)" sheetId="23" r:id="rId6"/>
+    <sheet name="Starborn (TODO)" sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="539">
-  <si>
-    <t>Level</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="391">
   <si>
     <t>Editor ID</t>
   </si>
@@ -55,60 +50,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Damage Resist</t>
-  </si>
-  <si>
-    <t>XP Offset</t>
-  </si>
-  <si>
-    <t>Game NPC ID</t>
-  </si>
-  <si>
-    <t>EncSyndicate02 "Syndicate Soldier" [NPC_:00270272]</t>
-  </si>
-  <si>
-    <t>EncSyndicate03 "Syndicate Hitman" [NPC_:00270271]</t>
-  </si>
-  <si>
-    <t>EncSyndicate04 "Syndicate Enforcer" [NPC_:00270270]</t>
-  </si>
-  <si>
-    <t>EncSyndicate05 "Syndicate Assassin" [NPC_:0011DDCC]</t>
-  </si>
-  <si>
-    <t>EncSyndicate06 "Syndicate Kingpin" [NPC_:0011DDCB]</t>
-  </si>
-  <si>
-    <t>EncSyndicate07 "Syndicate Crimelord" [NPC_:0011DDCA]</t>
-  </si>
-  <si>
-    <t>EncStarborn02 "Starborn Searcher" [NPC_:00270264]</t>
-  </si>
-  <si>
-    <t>EncStarborn03 "Starborn Traveler" [NPC_:00270263]</t>
-  </si>
-  <si>
-    <t>EncStarborn04 "Starborn Wanderer" [NPC_:00270262]</t>
-  </si>
-  <si>
-    <t>EncStarborn05 "Starborn Seeker" [NPC_:0011DDBA]</t>
-  </si>
-  <si>
-    <t>EncStarborn06 "Starborn Reconciler" [NPC_:0011DDB9]</t>
-  </si>
-  <si>
-    <t>EncStarborn07 "Starborn Adjudicator" [NPC_:0011DDB8]</t>
-  </si>
-  <si>
-    <t>EncStarborn08 "Starborn Exemplar" [NPC_:0011DDB7]</t>
-  </si>
-  <si>
-    <t>????? Master</t>
-  </si>
-  <si>
     <t>Ecliptic Contractor</t>
   </si>
   <si>
@@ -166,66 +107,6 @@
     <t>Spacer Myth</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
-    <t>Syndicate Grunt</t>
-  </si>
-  <si>
-    <t>Syndicate Soldier</t>
-  </si>
-  <si>
-    <t>Syndicate Hitman</t>
-  </si>
-  <si>
-    <t>Syndicate Enforcer</t>
-  </si>
-  <si>
-    <t>Syndicate Assassin</t>
-  </si>
-  <si>
-    <t>Syndicate Fixer</t>
-  </si>
-  <si>
-    <t>Syndicate Appropriator</t>
-  </si>
-  <si>
-    <t>Syndicate Kingpin</t>
-  </si>
-  <si>
-    <t>Syndicate Crimelord</t>
-  </si>
-  <si>
-    <t>Syndicate Boss</t>
-  </si>
-  <si>
-    <t>Starborn Foundling</t>
-  </si>
-  <si>
-    <t>Starborn Searcher</t>
-  </si>
-  <si>
-    <t>Starborn Traveler</t>
-  </si>
-  <si>
-    <t>Starborn Wanderer</t>
-  </si>
-  <si>
-    <t>Starborn Seeker</t>
-  </si>
-  <si>
-    <t>Starborn Reconciler</t>
-  </si>
-  <si>
-    <t>Starborn Wayfinder</t>
-  </si>
-  <si>
-    <t>Starborn Adjudicator</t>
-  </si>
-  <si>
-    <t>Starborn Exemplar</t>
-  </si>
-  <si>
     <t>EncCrimsonFleet01Template</t>
   </si>
   <si>
@@ -295,9 +176,6 @@
     <t>Pirate Legend</t>
   </si>
   <si>
-    <t>Syndicate Launderer</t>
-  </si>
-  <si>
     <t>Va'ruun Elder</t>
   </si>
   <si>
@@ -328,219 +206,15 @@
     <t>Va'ruun Follower</t>
   </si>
   <si>
-    <t>CCT_Template_Stats_Prey_125</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_130</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_135</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_140</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_145</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_150</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_155</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_160</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_165</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_170</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_175</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_180</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_185</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_190</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_195</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_200</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_205</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_210</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_215</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_220</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_225</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_230</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_235</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_240</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_245</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_250</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_255</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_260</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_265</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_270</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_275</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_280</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_285</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_290</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_295</t>
-  </si>
-  <si>
-    <t>CCT_Template_Stats_Prey_300</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_130</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_140</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_150</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_160</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_170</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_180</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_190</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_200</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_210</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_220</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_230</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_240</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_250</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_260</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_270</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_280</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_290</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_300</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_666</t>
-  </si>
-  <si>
-    <t>Dmg Add Mult</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_90</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_100</t>
-  </si>
-  <si>
-    <t>Random Calc</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_110</t>
-  </si>
-  <si>
-    <t>Template_Stats_Tough_Creature_120</t>
-  </si>
-  <si>
-    <t>Syndicate Chemist</t>
-  </si>
-  <si>
-    <t>Syndicate Experimenter</t>
-  </si>
-  <si>
-    <t>Syndicate Dragon</t>
-  </si>
-  <si>
-    <t>DSSyndicateEXP</t>
-  </si>
-  <si>
     <t>LLD_CrimsonFleet [LVLI:0000ABF8]</t>
   </si>
   <si>
     <t>LLD_Spacer [LVLI:0027BB74]</t>
   </si>
   <si>
-    <t>Form/Editor ID</t>
-  </si>
-  <si>
     <t>Loot ID</t>
   </si>
   <si>
-    <t>LLI_Syndicate_Heavy_Boss [LVLI:0025C602]</t>
-  </si>
-  <si>
-    <t>DSSyndicateEXP "Syndicate Experimenter" [NPC_:04000975]</t>
-  </si>
-  <si>
     <t>Min Level</t>
   </si>
   <si>
@@ -640,130 +314,10 @@
     <t>EncEcliptic07</t>
   </si>
   <si>
-    <t>DSSyndicateDragon</t>
-  </si>
-  <si>
-    <t>EncSyndicate01Template "Syndicate Gangster" [NPC_:00270273]</t>
-  </si>
-  <si>
-    <t>EncSyndicate00</t>
-  </si>
-  <si>
-    <t>Syndicate Gangster</t>
-  </si>
-  <si>
-    <t>EncSyndicate01Template</t>
-  </si>
-  <si>
-    <t>EncSyndicate02</t>
-  </si>
-  <si>
-    <t>EncSyndicate03</t>
-  </si>
-  <si>
-    <t>EncSyndicate04</t>
-  </si>
-  <si>
-    <t>EncSyndicate05</t>
-  </si>
-  <si>
-    <t>EncSyndicate06</t>
-  </si>
-  <si>
-    <t>EncSyndicate07</t>
-  </si>
-  <si>
-    <t>EncSyndicateBoss</t>
-  </si>
-  <si>
-    <t>EncSyndicate00 "Syndicate Grunt" [NPC_:0015E249]</t>
-  </si>
-  <si>
     <t>Ecliptic Recruit</t>
   </si>
   <si>
-    <t>LLD_Syndicate [LVLI:00270269]</t>
-  </si>
-  <si>
     <t>Spacer Peon</t>
-  </si>
-  <si>
-    <t>EncSyndicateFixer</t>
-  </si>
-  <si>
-    <t>EncSyndicateChemist</t>
-  </si>
-  <si>
-    <t>EncSyndicateAppropriator</t>
-  </si>
-  <si>
-    <t>EncSyndicateLaunderer</t>
-  </si>
-  <si>
-    <t>EncSyndicateFixer "Syndicate Fixer" [NPC_:04000994]</t>
-  </si>
-  <si>
-    <t>EncSyndicateChemist "Syndicate Chemist" [NPC_:04000995]</t>
-  </si>
-  <si>
-    <t>EncSyndicateAppropriator "Syndicate Appropriator" [NPC_:04000996]</t>
-  </si>
-  <si>
-    <t>EncSyndicateLaunderer "Syndicate Launderer" [NPC_:04000997]</t>
-  </si>
-  <si>
-    <t>EncSyndicateBoss "Syndicate Boss" [NPC_:04000998]</t>
-  </si>
-  <si>
-    <t>DSSyndicateDragon "Syndicate Dragon" [NPC_:04000974]</t>
-  </si>
-  <si>
-    <t>LLI_Starborn_Boss [LVLI:0015E244]</t>
-  </si>
-  <si>
-    <t>LLD_Starborn [LVLI:0027025F]</t>
-  </si>
-  <si>
-    <t>EncStarborn01Template</t>
-  </si>
-  <si>
-    <t>EncStarborn01Template "Starborn Foundling" [NPC_:002956D3]</t>
-  </si>
-  <si>
-    <t>EncStarborn02</t>
-  </si>
-  <si>
-    <t>EncStarborn03</t>
-  </si>
-  <si>
-    <t>EncStarborn04</t>
-  </si>
-  <si>
-    <t>EncStarborn05</t>
-  </si>
-  <si>
-    <t>EncStarborn06</t>
-  </si>
-  <si>
-    <t>EncStarborn07</t>
-  </si>
-  <si>
-    <t>EncStarborn08</t>
-  </si>
-  <si>
-    <t>EncStarborn09</t>
-  </si>
-  <si>
-    <t>Starborn Unifier</t>
-  </si>
-  <si>
-    <t>EncStarborn09 "Starborn Unifier" [NPC_:04000999]</t>
-  </si>
-  <si>
-    <t>EncStarborn05-5</t>
-  </si>
-  <si>
-    <t>EncStarborn05-5 "Starborn Wayfinder" [NPC_:0400099A]</t>
   </si>
   <si>
     <t>LLI_Spacer_Heavy_Boss [LVLI:0025E1A2]</t>
@@ -1721,7 +1275,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1748,13 +1302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1772,99 +1319,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>467709</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04CA5D9-F97A-5C09-A30B-63040763B1A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16506825" y="419100"/>
-          <a:ext cx="7049484" cy="9030960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>429322</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86185</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA89B099-F729-B3F3-64E9-9993D8E5D925}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11210925" y="409575"/>
-          <a:ext cx="4991797" cy="3296110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,25 +1635,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2213,16 +1667,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>124</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2236,16 +1690,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2259,22 +1713,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -2292,22 +1746,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2325,22 +1779,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2358,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2384,19 +1838,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2410,19 +1864,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2436,19 +1890,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -2462,16 +1916,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2485,16 +1939,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2508,16 +1962,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2531,16 +1985,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2554,16 +2008,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2577,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2600,16 +2054,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2623,16 +2077,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2646,16 +2100,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2669,16 +2123,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2692,16 +2146,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2715,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2738,16 +2192,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2761,16 +2215,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2784,16 +2238,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2807,16 +2261,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2830,16 +2284,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2853,16 +2307,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2876,16 +2330,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G29" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2899,16 +2353,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2922,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2945,16 +2399,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2968,16 +2422,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2991,16 +2445,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -3014,16 +2468,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -3037,16 +2491,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3060,16 +2514,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3083,16 +2537,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>264</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3106,16 +2560,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="F39" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3129,16 +2583,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -3152,16 +2606,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3175,16 +2629,16 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3198,16 +2652,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3221,16 +2675,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3244,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="F45" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3267,16 +2721,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3290,16 +2744,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3313,16 +2767,16 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3336,16 +2790,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3359,16 +2813,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3382,16 +2836,16 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3405,16 +2859,16 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3428,16 +2882,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3451,16 +2905,16 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3474,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -3497,16 +2951,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D56" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G56" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -3520,16 +2974,16 @@
         <v>1.5</v>
       </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="G57" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3563,25 +3017,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3595,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3618,16 +3072,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3641,22 +3095,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -3674,22 +3128,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3707,22 +3161,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -3740,19 +3194,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3766,19 +3220,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" t="s">
         <v>326</v>
       </c>
-      <c r="E8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" t="s">
-        <v>474</v>
-      </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -3792,19 +3246,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>478</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -3818,16 +3272,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -3841,16 +3295,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -3864,16 +3318,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -3887,16 +3341,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3910,16 +3364,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3933,16 +3387,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G15" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -3956,16 +3410,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3979,16 +3433,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4002,16 +3456,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4025,16 +3479,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>346</v>
+        <v>198</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4048,16 +3502,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4071,16 +3525,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4094,16 +3548,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4117,16 +3571,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>349</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G23" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4140,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4163,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4186,16 +3640,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
-        <v>334</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4209,16 +3663,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4232,16 +3686,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4255,16 +3709,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4278,16 +3732,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4301,16 +3755,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>207</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4324,16 +3778,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4347,16 +3801,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4370,16 +3824,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="F34" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4393,16 +3847,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="F35" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4416,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4439,16 +3893,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>361</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -4462,16 +3916,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
       <c r="F38" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G38" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -4485,16 +3939,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -4508,16 +3962,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="E40" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -4531,16 +3985,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>382</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -4554,16 +4008,16 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="F42" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="G42" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -4577,16 +4031,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="F43" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -4600,315 +4054,315 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="E44" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="F44" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="G44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>175</v>
+      </c>
+      <c r="B45" s="2">
+        <v>999</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>175</v>
+      </c>
+      <c r="B46" s="2">
+        <v>999</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>175</v>
+      </c>
+      <c r="B47" s="2">
+        <v>999</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>175</v>
+      </c>
+      <c r="B48" s="2">
+        <v>999</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>175</v>
+      </c>
+      <c r="B49" s="2">
+        <v>999</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>175</v>
+      </c>
+      <c r="B50" s="2">
+        <v>999</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
-        <v>175</v>
-      </c>
-      <c r="B45" s="10">
-        <v>999</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
-        <v>175</v>
-      </c>
-      <c r="B46" s="10">
-        <v>999</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
-        <v>175</v>
-      </c>
-      <c r="B47" s="10">
-        <v>999</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>200</v>
+      </c>
+      <c r="B51" s="2">
+        <v>999</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>200</v>
+      </c>
+      <c r="B52" s="2">
+        <v>999</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>200</v>
+      </c>
+      <c r="B53" s="2">
+        <v>999</v>
+      </c>
+      <c r="C53" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
-        <v>175</v>
-      </c>
-      <c r="B48" s="10">
-        <v>999</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
-        <v>175</v>
-      </c>
-      <c r="B49" s="10">
-        <v>999</v>
-      </c>
-      <c r="C49" s="11">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
-        <v>175</v>
-      </c>
-      <c r="B50" s="10">
-        <v>999</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="D53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>200</v>
+      </c>
+      <c r="B54" s="2">
+        <v>999</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>328</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>200</v>
+      </c>
+      <c r="B55" s="2">
+        <v>999</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>329</v>
+      </c>
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>200</v>
+      </c>
+      <c r="B56" s="2">
+        <v>999</v>
+      </c>
+      <c r="C56" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
-        <v>200</v>
-      </c>
-      <c r="B51" s="10">
-        <v>999</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
-        <v>200</v>
-      </c>
-      <c r="B52" s="10">
-        <v>999</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
-        <v>200</v>
-      </c>
-      <c r="B53" s="10">
-        <v>999</v>
-      </c>
-      <c r="C53" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
-        <v>200</v>
-      </c>
-      <c r="B54" s="10">
-        <v>999</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
-        <v>200</v>
-      </c>
-      <c r="B55" s="10">
-        <v>999</v>
-      </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
-        <v>200</v>
-      </c>
-      <c r="B56" s="10">
-        <v>999</v>
-      </c>
-      <c r="C56" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>100</v>
       </c>
-      <c r="B57" s="10">
-        <v>999</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="B57" s="2">
+        <v>999</v>
+      </c>
+      <c r="C57" s="6">
         <v>1.5</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>240</v>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4941,25 +4395,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -4973,16 +4427,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4996,16 +4450,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>416</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5019,22 +4473,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -5052,22 +4506,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="H5" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -5085,22 +4539,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G6" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="H6" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -5118,19 +4572,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G7" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="H7" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -5144,19 +4598,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
       <c r="H8" t="s">
-        <v>482</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -5170,19 +4624,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G9" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>483</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -5196,19 +4650,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>422</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G10" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="H10" t="s">
-        <v>484</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -5222,16 +4676,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -5245,16 +4699,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -5268,16 +4722,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -5291,16 +4745,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>394</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -5314,16 +4768,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G15" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -5337,16 +4791,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G16" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -5360,16 +4814,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>279</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="F17" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G17" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -5383,16 +4837,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G18" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -5406,16 +4860,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>428</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G19" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -5429,16 +4883,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>281</v>
       </c>
       <c r="E20" t="s">
-        <v>396</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -5452,16 +4906,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G21" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -5475,16 +4929,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -5498,16 +4952,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>283</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G23" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -5521,16 +4975,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G24" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -5544,16 +4998,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G25" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -5567,16 +5021,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="F26" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G26" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -5590,16 +5044,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G27" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -5613,16 +5067,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>434</v>
+        <v>286</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G28" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -5636,16 +5090,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="E29" t="s">
-        <v>399</v>
+        <v>251</v>
       </c>
       <c r="F29" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G29" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5659,16 +5113,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>408</v>
+        <v>260</v>
       </c>
       <c r="F30" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G30" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -5682,16 +5136,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>408</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G31" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -5705,16 +5159,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="E32" t="s">
-        <v>409</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -5728,16 +5182,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="F33" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -5751,16 +5205,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -5774,16 +5228,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>441</v>
+        <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>413</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -5797,16 +5251,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>442</v>
+        <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>410</v>
+        <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -5820,16 +5274,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="E37" t="s">
-        <v>410</v>
+        <v>262</v>
       </c>
       <c r="F37" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -5843,16 +5297,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="E38" t="s">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -5866,16 +5320,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
-        <v>404</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5889,16 +5343,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>446</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
-        <v>404</v>
+        <v>256</v>
       </c>
       <c r="F40" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -5912,16 +5366,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D41" t="s">
-        <v>447</v>
+        <v>299</v>
       </c>
       <c r="E41" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G41" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5935,16 +5389,16 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5958,16 +5412,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>449</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G43" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5981,16 +5435,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>407</v>
+        <v>259</v>
       </c>
       <c r="F44" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G44" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -6004,16 +5458,16 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="G45" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -6027,16 +5481,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>452</v>
+        <v>304</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="G46" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -6050,246 +5504,246 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
       <c r="E47" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="F47" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="G47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>175</v>
       </c>
-      <c r="B48" s="10">
-        <v>999</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="B48" s="2">
+        <v>999</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>175</v>
       </c>
-      <c r="B49" s="10">
-        <v>999</v>
-      </c>
-      <c r="C49" s="11">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+      <c r="B49" s="2">
+        <v>999</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>307</v>
+      </c>
+      <c r="E49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>175</v>
       </c>
-      <c r="B50" s="10">
-        <v>999</v>
-      </c>
-      <c r="C50" s="11">
+      <c r="B50" s="2">
+        <v>999</v>
+      </c>
+      <c r="C50" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="D50" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>200</v>
       </c>
-      <c r="B51" s="10">
-        <v>999</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+      <c r="B51" s="2">
+        <v>999</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>200</v>
       </c>
-      <c r="B52" s="10">
-        <v>999</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="B52" s="2">
+        <v>999</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>200</v>
       </c>
-      <c r="B53" s="10">
-        <v>999</v>
-      </c>
-      <c r="C53" s="11">
+      <c r="B53" s="2">
+        <v>999</v>
+      </c>
+      <c r="C53" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="D53" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" t="s">
+        <v>331</v>
+      </c>
+      <c r="G53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>200</v>
       </c>
-      <c r="B54" s="10">
-        <v>999</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="B54" s="2">
+        <v>999</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" t="s">
+        <v>316</v>
+      </c>
+      <c r="F54" t="s">
+        <v>332</v>
+      </c>
+      <c r="G54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>200</v>
       </c>
-      <c r="B55" s="10">
-        <v>999</v>
-      </c>
-      <c r="C55" s="11">
-        <v>1</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
+      <c r="B55" s="2">
+        <v>999</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" t="s">
+        <v>316</v>
+      </c>
+      <c r="F55" t="s">
+        <v>333</v>
+      </c>
+      <c r="G55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>200</v>
       </c>
-      <c r="B56" s="10">
-        <v>999</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B56" s="2">
+        <v>999</v>
+      </c>
+      <c r="C56" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="D56" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" t="s">
+        <v>331</v>
+      </c>
+      <c r="G56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>100</v>
       </c>
-      <c r="B57" s="10">
-        <v>999</v>
-      </c>
-      <c r="C57" s="11">
+      <c r="B57" s="2">
+        <v>999</v>
+      </c>
+      <c r="C57" s="6">
         <v>1.5</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>463</v>
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" t="s">
+        <v>331</v>
+      </c>
+      <c r="G57" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6307,7 +5761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F94931C-056C-44B6-A25E-745BD4E43983}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -6322,25 +5776,25 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -6354,16 +5808,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>337</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -6377,16 +5831,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>486</v>
+        <v>338</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -6400,22 +5854,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -6433,22 +5887,22 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -6466,22 +5920,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -6499,16 +5953,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -6522,16 +5976,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>516</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -6545,16 +5999,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>517</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -6568,16 +6022,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -6591,16 +6045,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
       <c r="E11" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="F11" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -6614,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="F12" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -6637,16 +6091,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -6660,16 +6114,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>372</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -6683,16 +6137,16 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="E15" t="s">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="F15" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -6706,16 +6160,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G16" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -6729,16 +6183,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="E17" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -6752,16 +6206,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="E18" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
       <c r="F18" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -6775,16 +6229,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -6798,16 +6252,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>524</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>504</v>
+        <v>356</v>
       </c>
       <c r="F20" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -6821,16 +6275,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>377</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
       <c r="F21" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -6844,16 +6298,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -6867,16 +6321,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>526</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
       <c r="F23" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -6890,16 +6344,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="E24" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
       <c r="F24" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -6913,16 +6367,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>535</v>
+        <v>387</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -6936,16 +6390,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D26" t="s">
-        <v>536</v>
+        <v>388</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>360</v>
       </c>
       <c r="F26" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -6959,16 +6413,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
       <c r="E27" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="F27" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -6982,16 +6436,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>527</v>
+        <v>379</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -7005,16 +6459,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>380</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -7028,16 +6482,16 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
       <c r="F30" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -7051,16 +6505,16 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>529</v>
+        <v>381</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -7074,16 +6528,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
+        <v>382</v>
       </c>
       <c r="E32" t="s">
-        <v>512</v>
+        <v>364</v>
       </c>
       <c r="F32" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7097,16 +6551,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>537</v>
+        <v>389</v>
       </c>
       <c r="F33" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7120,16 +6574,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>531</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -7143,16 +6597,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>384</v>
       </c>
       <c r="E35" t="s">
-        <v>538</v>
+        <v>390</v>
       </c>
       <c r="F35" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -7166,16 +6620,16 @@
         <v>1.5</v>
       </c>
       <c r="D36" t="s">
-        <v>533</v>
+        <v>385</v>
       </c>
       <c r="E36" t="s">
-        <v>534</v>
+        <v>386</v>
       </c>
       <c r="F36" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -7189,3028 +6643,736 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52BD7DF-FCFB-4961-9526-B6C595C8B2D8}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F309DD-CBF7-457F-A6C0-C87F54B1CF93}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9">
-        <v>150</v>
-      </c>
-      <c r="F9">
-        <v>125</v>
-      </c>
-      <c r="G9">
-        <v>75</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>999</v>
-      </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10">
-        <v>150</v>
-      </c>
-      <c r="F10">
-        <v>125</v>
-      </c>
-      <c r="G10">
-        <v>75</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11">
-        <v>150</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>999</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>150</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>999</v>
-      </c>
-      <c r="C13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <v>150</v>
-      </c>
-      <c r="H13">
-        <v>1.05</v>
-      </c>
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>999</v>
-      </c>
-      <c r="C14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>400</v>
-      </c>
-      <c r="F14">
-        <v>400</v>
-      </c>
-      <c r="G14">
-        <v>250</v>
-      </c>
-      <c r="H14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J14" t="s">
-        <v>222</v>
-      </c>
-      <c r="K14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>999</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>200</v>
-      </c>
-      <c r="B17">
-        <v>999</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17">
-        <v>5000</v>
-      </c>
-      <c r="F17">
-        <v>1000</v>
-      </c>
-      <c r="G17">
-        <v>1500</v>
-      </c>
-      <c r="H17">
-        <v>1.25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>223</v>
-      </c>
-      <c r="K17" t="s">
-        <v>163</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB0993F-B9C8-4F81-89BA-D25D4095DD6F}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F48F3EE-2498-4EC4-96B9-185AD52F8872}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8">
-        <v>150</v>
-      </c>
-      <c r="F8">
-        <v>125</v>
-      </c>
-      <c r="G8">
-        <v>75</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>75</v>
-      </c>
-      <c r="B9">
-        <v>999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>150</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>999</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <v>150</v>
-      </c>
-      <c r="H10">
-        <v>1.05</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11">
-        <v>400</v>
-      </c>
-      <c r="F11">
-        <v>400</v>
-      </c>
-      <c r="G11">
-        <v>250</v>
-      </c>
-      <c r="H11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K11" t="s">
-        <v>224</v>
-      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61E54B1-4E1F-4F39-BC42-A63E31143326}">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6D6920-6943-4744-A1F2-4436DAD23032}">
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.88671875" customWidth="1"/>
+    <col min="4" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2">
-        <f>FLOOR((0+(5*A2))*1.25, 1)</f>
-        <v>781</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E37" si="0">CEILING((10+(A2*1.5))*0.9, 1)</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <f>FLOOR((0+(5*A3))*1.25, 1)</f>
-        <v>812</v>
-      </c>
-      <c r="D3">
-        <v>400</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C36" si="1">FLOOR((0+(5*A4))*1.25, 1)</f>
-        <v>843</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>875</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>906</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>937</v>
-      </c>
-      <c r="D7">
-        <v>425</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>968</v>
-      </c>
-      <c r="D8">
-        <v>425</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>160</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>425</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1031</v>
-      </c>
-      <c r="D10">
-        <v>425</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1062</v>
-      </c>
-      <c r="D11">
-        <v>425</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>175</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>1093</v>
-      </c>
-      <c r="D12">
-        <v>450</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>180</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1125</v>
-      </c>
-      <c r="D13">
-        <v>450</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>185</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>1156</v>
-      </c>
-      <c r="D14">
-        <v>450</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>190</v>
-      </c>
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>1187</v>
-      </c>
-      <c r="D15">
-        <v>450</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>195</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>1218</v>
-      </c>
-      <c r="D16">
-        <v>450</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>200</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-      <c r="D17">
-        <v>475</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>205</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>1281</v>
-      </c>
-      <c r="D18">
-        <v>475</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>210</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>1312</v>
-      </c>
-      <c r="D19">
-        <v>475</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>215</v>
-      </c>
-      <c r="B20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>1343</v>
-      </c>
-      <c r="D20">
-        <v>475</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>1375</v>
-      </c>
-      <c r="D21">
-        <v>475</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>225</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>1406</v>
-      </c>
-      <c r="D22">
-        <v>500</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>1437</v>
-      </c>
-      <c r="D23">
-        <v>500</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>235</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>1468</v>
-      </c>
-      <c r="D24">
-        <v>500</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>240</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="D25">
-        <v>500</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>245</v>
-      </c>
-      <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>1531</v>
-      </c>
-      <c r="D26">
-        <v>500</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>250</v>
-      </c>
-      <c r="B27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>1562</v>
-      </c>
-      <c r="D27">
-        <v>525</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>255</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>1593</v>
-      </c>
-      <c r="D28">
-        <v>525</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>260</v>
-      </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>1625</v>
-      </c>
-      <c r="D29">
-        <v>525</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>265</v>
-      </c>
-      <c r="B30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>1656</v>
-      </c>
-      <c r="D30">
-        <v>525</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>270</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>1687</v>
-      </c>
-      <c r="D31">
-        <v>525</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>275</v>
-      </c>
-      <c r="B32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>1718</v>
-      </c>
-      <c r="D32">
-        <v>550</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>280</v>
-      </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>1750</v>
-      </c>
-      <c r="D33">
-        <v>550</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>285</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>1781</v>
-      </c>
-      <c r="D34">
-        <v>550</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>290</v>
-      </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>1812</v>
-      </c>
-      <c r="D35">
-        <v>550</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>295</v>
-      </c>
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1843</v>
-      </c>
-      <c r="D36">
-        <v>550</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>300</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37">
-        <v>2500</v>
-      </c>
-      <c r="D37">
-        <v>600</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>414</v>
-      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A51F5F-BA49-4467-AB4A-A2885111F3F4}">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H2">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3" si="0">FLOOR(500+((20*A3)*1.25), 1)</f>
-        <v>2750</v>
-      </c>
-      <c r="D3">
-        <v>16.119999999999997</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E24" si="1">CEILING((10+(A3*1.5))*0.9, 1)</f>
-        <v>131</v>
-      </c>
-      <c r="H3">
-        <f ca="1">H2+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>17.369999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4" si="2">FLOOR(500+((20*A4)*1.25), 1)</f>
-        <v>3000</v>
-      </c>
-      <c r="D4">
-        <v>17.119999999999997</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="H4">
-        <f ca="1">H3+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>18.869999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5" si="3">FLOOR(500+((20*A5)*1.25), 1)</f>
-        <v>3250</v>
-      </c>
-      <c r="D5">
-        <v>17.619999999999997</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-      <c r="H5">
-        <f ca="1">H4+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>23.869999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6" si="4">FLOOR(500+((20*A6)*1.25), 1)</f>
-        <v>3500</v>
-      </c>
-      <c r="D6">
-        <v>18.62</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="H6">
-        <f ca="1">H5+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>29.619999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C24" si="5">FLOOR(500+((20*A7)*1.25), 1)</f>
-        <v>3750</v>
-      </c>
-      <c r="D7">
-        <v>22.119999999999997</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="H7">
-        <f ca="1">H6+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>30.369999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="5"/>
-        <v>4000</v>
-      </c>
-      <c r="D8">
-        <v>22.619999999999997</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H24" ca="1" si="6">H7+(RANDBETWEEN(1,25)*0.25)</f>
-        <v>35.119999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="5"/>
-        <v>4250</v>
-      </c>
-      <c r="D9">
-        <v>25.62</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="6"/>
-        <v>40.119999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="5"/>
-        <v>4500</v>
-      </c>
-      <c r="D10">
-        <v>30.869999999999997</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="6"/>
-        <v>45.37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>170</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="5"/>
-        <v>4750</v>
-      </c>
-      <c r="D11">
-        <v>36.119999999999997</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="6"/>
-        <v>48.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>180</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="5"/>
-        <v>5000</v>
-      </c>
-      <c r="D12">
-        <v>41.12</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="6"/>
-        <v>48.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>190</v>
-      </c>
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="5"/>
-        <v>5250</v>
-      </c>
-      <c r="D13">
-        <v>46.12</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="6"/>
-        <v>48.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>200</v>
-      </c>
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="5"/>
-        <v>5500</v>
-      </c>
-      <c r="D14">
-        <v>51.62</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="6"/>
-        <v>51.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="5"/>
-        <v>5750</v>
-      </c>
-      <c r="D15">
-        <v>55.87</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>293</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="6"/>
-        <v>57.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="D16">
-        <v>61.12</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>306</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="6"/>
-        <v>59.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="5"/>
-        <v>6250</v>
-      </c>
-      <c r="D17">
-        <v>62.37</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="6"/>
-        <v>62.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>240</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="5"/>
-        <v>6500</v>
-      </c>
-      <c r="D18">
-        <v>64.62</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>333</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="6"/>
-        <v>67.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>250</v>
-      </c>
-      <c r="B19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="5"/>
-        <v>6750</v>
-      </c>
-      <c r="D19">
-        <v>69.37</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>347</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="6"/>
-        <v>69.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>260</v>
-      </c>
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
-        <v>7000</v>
-      </c>
-      <c r="D20">
-        <v>72.87</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="6"/>
-        <v>73.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>270</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="5"/>
-        <v>7250</v>
-      </c>
-      <c r="D21">
-        <v>74.37</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>374</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="6"/>
-        <v>79.37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>280</v>
-      </c>
-      <c r="B22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="5"/>
-        <v>7500</v>
-      </c>
-      <c r="D22">
-        <v>77.37</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>387</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="6"/>
-        <v>83.87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>290</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="5"/>
-        <v>7750</v>
-      </c>
-      <c r="D23">
-        <v>81.62</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>401</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="6"/>
-        <v>84.62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>300</v>
-      </c>
-      <c r="B24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
-        <v>8000</v>
-      </c>
-      <c r="D24">
-        <v>87.62</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>414</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="6"/>
-        <v>85.62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>666</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27">
-        <v>20000</v>
-      </c>
-      <c r="E27">
-        <v>1500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB029007-A21E-464B-AFF5-347EE2D7D31A}">
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D41" si="0">FLOOR((50+(5*A2))*1.25, 1)</f>
-        <v>687</v>
-      </c>
-      <c r="E2">
-        <v>125</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F42" si="1">CEILING((10+(A2*1.5))*0.9, 1)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>718</v>
-      </c>
-      <c r="E3">
-        <v>125</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="E4">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <f>CEILING((10+(A4*1.5))*0.9, 1)</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>781</v>
-      </c>
-      <c r="E5">
-        <v>125</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>812</v>
-      </c>
-      <c r="E6">
-        <v>125</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>843</v>
-      </c>
-      <c r="E7">
-        <v>150</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-      <c r="E8">
-        <v>150</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>906</v>
-      </c>
-      <c r="E9">
-        <v>150</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>937</v>
-      </c>
-      <c r="E10">
-        <v>150</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>968</v>
-      </c>
-      <c r="E11">
-        <v>150</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="E12">
-        <v>175</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1031</v>
-      </c>
-      <c r="E13">
-        <v>175</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1062</v>
-      </c>
-      <c r="E14">
-        <v>175</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>165</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1093</v>
-      </c>
-      <c r="E15">
-        <v>175</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>170</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1125</v>
-      </c>
-      <c r="E16">
-        <v>175</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>175</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1156</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>180</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1187</v>
-      </c>
-      <c r="E18">
-        <v>200</v>
-      </c>
-      <c r="F18">
-        <f>CEILING((10+(A18*1.5))*0.9, 1)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1218</v>
-      </c>
-      <c r="E19">
-        <v>200</v>
-      </c>
-      <c r="F19">
-        <f>CEILING((10+(A19*1.5))*0.9, 1)</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>190</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1250</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>195</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1281</v>
-      </c>
-      <c r="E21">
-        <v>200</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1312</v>
-      </c>
-      <c r="E22">
-        <v>225</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>205</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1343</v>
-      </c>
-      <c r="E23">
-        <v>225</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>210</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1375</v>
-      </c>
-      <c r="E24">
-        <v>225</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>215</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1406</v>
-      </c>
-      <c r="E25">
-        <v>225</v>
-      </c>
-      <c r="F25">
-        <f>CEILING((10+(A25*1.5))*0.9, 1)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>1437</v>
-      </c>
-      <c r="E26">
-        <v>225</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>225</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>1468</v>
-      </c>
-      <c r="E27">
-        <v>250</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>230</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E28">
-        <v>250</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>235</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>1531</v>
-      </c>
-      <c r="E29">
-        <v>250</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>240</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1562</v>
-      </c>
-      <c r="E30">
-        <v>250</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>245</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1593</v>
-      </c>
-      <c r="E31">
-        <v>250</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>250</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1625</v>
-      </c>
-      <c r="E32">
-        <v>300</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>251</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1631</v>
-      </c>
-      <c r="E33">
-        <v>300</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>252</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>1637</v>
-      </c>
-      <c r="E34">
-        <v>300</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>253</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>1643</v>
-      </c>
-      <c r="E35">
-        <v>300</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>254</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-      <c r="E36">
-        <v>300</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>255</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1656</v>
-      </c>
-      <c r="E37">
-        <v>325</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>256</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>1662</v>
-      </c>
-      <c r="E38">
-        <v>325</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>257</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>1668</v>
-      </c>
-      <c r="E39">
-        <v>325</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>258</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1675</v>
-      </c>
-      <c r="E40">
-        <v>325</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>259</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>1681</v>
-      </c>
-      <c r="E41">
-        <v>350</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>260</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42">
-        <v>2500</v>
-      </c>
-      <c r="E42">
-        <v>400</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>